--- a/input/images/tables/valueset-ref-all-list.xlsx
+++ b/input/images/tables/valueset-ref-all-list.xlsx
@@ -9725,7 +9725,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-sexual-orientation</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1240.11</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -9741,17 +9741,17 @@
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>USCoreSexualOrientation</t>
+          <t>SexualOrientation</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>US Core Sexual Orientation</t>
+          <t>Sexual Orientation</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>The US Core Sexual Orientation Value Set includes concepts to describe a person's sexual orientation (who they are attracted to).</t>
+          <t>Concepts used to describe how a person characterizes their emotional and sexual attraction to others including nulls and a Data Absent Reason</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>THO (V3),SCT</t>
+          <t>THO (V3),SCT,hl7.terminology.r5</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>

--- a/input/images/tables/valueset-ref-all-list.xlsx
+++ b/input/images/tables/valueset-ref-all-list.xlsx
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20230715</v>
+        <v>20250411</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>hl7.terminology.r4</t>
+          <t>hl7.terminology</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -555,11 +555,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1021.102</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1021.121</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20211028</v>
+        <v>20250228</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -568,28 +568,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1021.102</t>
+          <t>2.16.840.1.113762.1.4.1021.121</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>UnknownOrRefusedToAnswer</t>
+          <t>FederalAdministrativeSex</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Unknown or refused to answer</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>Federal Administrative Sex</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Name changed to align with federal administrative requirements in 2025</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ValueSet/omb-ethnicity-category,ValueSet/omb-race-category</t>
+          <t>StructureDefinition/us-core-sex</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>THO (V3)</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -597,11 +601,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1021.103</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1021.24</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20211113</v>
+        <v>20240330</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -610,40 +614,36 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1021.103</t>
+          <t>2.16.840.1.113762.1.4.1021.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OtherOrUnknownOrRefusedToAnswer</t>
+          <t>BirthSex</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Other or unknown or refused to answer</t>
+          <t>Birth Sex</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ValueSet/detailed-ethnicity,ValueSet/detailed-race</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>THO (V3)</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-birthsex</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1021.24</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1021.32</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20240330</v>
+        <v>20240215</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -652,23 +652,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1021.24</t>
+          <t>2.16.840.1.113762.1.4.1021.32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BirthSex</t>
+          <t>GenderIdentity</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Birth Sex</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>Gender Identity</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2024-02-14: New version to adjust null values and  allow DAR, and addition of non-binary in the contained snomed set</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-birthsex</t>
+          <t>StructureDefinition/us-core-genderIdentity</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -677,11 +681,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1021.32</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1099.30</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20240215</v>
+        <v>20240605</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -690,27 +694,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1021.32</t>
+          <t>2.16.840.1.113762.1.4.1099.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GenderIdentity</t>
+          <t>CareTeamMemberFunction</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gender Identity</t>
+          <t>Care Team Member Function</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024-02-14: New version to adjust null values and  allow DAR, and addition of non-binary in the contained snomed set</t>
+          <t>Created to group the old value set from HL7 code system with the new value set using SNOMEDCT and containing the extended set of care team member roles.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-genderIdentity</t>
+          <t>StructureDefinition/us-core-careteam,StructureDefinition/us-core-practitionerrole</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -719,11 +723,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1099.30</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1099.54</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20240605</v>
+        <v>20240606</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -732,40 +736,40 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1099.30</t>
+          <t>2.16.840.1.113762.1.4.1099.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CareTeamMemberFunction</t>
+          <t>SpecimenType</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Care Team Member Function</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Created to group the old value set from HL7 code system with the new value set using SNOMEDCT and containing the extended set of care team member roles.</t>
-        </is>
-      </c>
+          <t>Specimen type</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-careteam,StructureDefinition/us-core-practitionerrole</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>StructureDefinition/us-core-specimen</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SCT</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1099.54</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1115.41</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20240606</v>
+        <v>20250407</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -774,40 +778,36 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1099.54</t>
+          <t>2.16.840.1.113762.1.4.1115.41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SpecimenType</t>
+          <t>AdvanceHealthcareDirectiveDocumentTypesGrouper</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Specimen type</t>
+          <t>Advance Healthcare Directive Document Types Grouper</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-specimen</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SCT</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-adi-documentreference</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1099.57</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1166.22</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20240416</v>
+        <v>20230802</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -816,40 +816,44 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1099.57</t>
+          <t>2.16.840.1.113762.1.4.1166.22</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AdvanceDirectivesContentType</t>
+          <t>PregnancyIntention</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Advance Directives Content Type</t>
+          <t>Pregnancy Intention</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Grouper created to permit Advance Directive Content Types to be expressed using SCT or LOINC.</t>
+          <t>Value set used in family planning annual report (FPAR).</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>StructureDefinition/us-core-observation-pregnancyintent</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SCT</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1115.25</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1186.8</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20240629</v>
+        <v>20240625</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -858,27 +862,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1115.25</t>
+          <t>2.16.840.1.113762.1.4.1186.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AdvanceHealthcareDirectiveCategoriesGrouper</t>
+          <t>CommonSubstancesForAllergyAndIntoleranceDocumentationIncludingRefutations</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Advance Healthcare Directive Categories Grouper</t>
+          <t>Common substances for allergy and intolerance documentation including refutations</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Combines Advance Directive Categories and Portable Medical Order Categories together</t>
+          <t>As noted in https://jira.hl7.org/browse/FHIR-32953, Drug class value set changed 2021-06-21 to align with C-CDA member value set 2.16.840.1.113762.1.4.1114.14</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference</t>
+          <t>StructureDefinition/us-core-allergyintolerance</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -887,11 +891,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1166.22</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1240.11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20230802</v>
+        <v>20231129</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -900,44 +904,36 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1166.22</t>
+          <t>2.16.840.1.113762.1.4.1240.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PregnancyIntention</t>
+          <t>SexualOrientationIncludingNullsAndDataAbsentReason</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Pregnancy Intention</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Value set used in family planning annual report (FPAR).</t>
-        </is>
-      </c>
+          <t>Sexual Orientation Including nulls and Data Absent Reason</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-observation-pregnancyintent</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SCT</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-observation-sexual-orientation</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1186.8</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1240.12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20240625</v>
+        <v>20240906</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -946,27 +942,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1186.8</t>
+          <t>2.16.840.1.113762.1.4.1240.12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CommonSubstancesForAllergyAndIntoleranceDocumentationIncludingRefutations</t>
+          <t>PregnancyStatusObservation</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Common substances for allergy and intolerance documentation including refutations</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>As noted in https://jira.hl7.org/browse/FHIR-32953, Drug class value set changed 2021-06-21 to align with C-CDA member value set 2.16.840.1.113762.1.4.1114.14</t>
-        </is>
-      </c>
+          <t>Pregnancy Status Observation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-allergyintolerance</t>
+          <t>StructureDefinition/us-core-observation-pregnancystatus</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -975,11 +967,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1240.11</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1240.8</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20231129</v>
+        <v>20231025</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -988,23 +980,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1240.11</t>
+          <t>2.16.840.1.113762.1.4.1240.8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SexualOrientationIncludingNullsAndDataAbsentReason</t>
+          <t>MedicationAdherence</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sexual Orientation Including nulls and Data Absent Reason</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>Medication Adherence</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>This value set may change until publication of USCDI V4 representation in US Core and C-CDA is published in 2024</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-observation-sexual-orientation</t>
+          <t>StructureDefinition/us-core-medication-adherence</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1013,11 +1009,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1240.12</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1247.71</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20240906</v>
+        <v>20241214</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1026,23 +1022,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1240.12</t>
+          <t>2.16.840.1.113762.1.4.1247.71</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PregnancyStatusObservation</t>
+          <t>SocialDeterminantsOfHealthGoals</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pregnancy Status Observation</t>
+          <t>Social Determinants of Health Goals</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-observation-pregnancystatus</t>
+          <t>StructureDefinition/us-core-goal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1051,11 +1047,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1240.3</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.11</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20230628</v>
+        <v>20240329</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1064,27 +1060,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1240.3</t>
+          <t>2.16.840.1.113762.1.4.1267.11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>InformationSourceForMedicationAdherence</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Created specifically to support United States USCDI v3 data element "Sex"</t>
-        </is>
-      </c>
+          <t>Information Source for Medication Adherence</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-sex</t>
+          <t>StructureDefinition/us-core-medication-adherence</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1093,11 +1085,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1240.8</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.13</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20231025</v>
+        <v>20241008</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1106,40 +1098,44 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1240.8</t>
+          <t>2.16.840.1.113762.1.4.1267.13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MedicationAdherence</t>
+          <t>ScreeningAndAssessmentSurveyCodes</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Medication Adherence</t>
+          <t>Screening and Assessment Survey Codes</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>This value set may change until publication of USCDI V4 representation in US Core and C-CDA is published in 2024</t>
+          <t>All LOINC survey codes</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medication-adherence</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>StructureDefinition/us-core-observation-screening-assessment</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>LOINC</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1247.71</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20231206</v>
+        <v>20241005</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1148,23 +1144,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1247.71</t>
+          <t>2.16.840.1.113762.1.4.1267.16</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SocialDeterminantsOfHealthGoals</t>
+          <t>AnswerSetWithYesNoAndUnknowns</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Social Determinants of Health Goals</t>
+          <t>Answer Set with Yes No and Unknowns</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-goal</t>
+          <t>StructureDefinition/us-core-interpreter-needed,StructureDefinition/us-core-observation-adi-documentation</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1173,11 +1169,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.11</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.22</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20240329</v>
+        <v>20241015</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1186,23 +1182,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.11</t>
+          <t>2.16.840.1.113762.1.4.1267.22</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>InformationSourceForMedicationAdherence</t>
+          <t>RouteOfAdministrationOfTherapeuticAgents</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Information Source for Medication Adherence</t>
+          <t>Route of Administration of Therapeutic Agents</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medication-adherence</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1211,11 +1207,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.13</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.23</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20241008</v>
+        <v>20250510</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1224,44 +1220,36 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.13</t>
+          <t>2.16.840.1.113762.1.4.1267.23</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ScreeningAndAssesmentSurveyCodes</t>
+          <t>EncounterType</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Screening and Assesment Survey Codes</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>All LOINC survey codes</t>
-        </is>
-      </c>
+          <t>Encounter Type</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-observation-screening-assessment</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>LOINC</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-encounter</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.16</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.24</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20241005</v>
+        <v>20241105</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1270,36 +1258,44 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.16</t>
+          <t>2.16.840.1.113762.1.4.1267.24</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AnswerSetWithYesNoAndUnknowns</t>
+          <t>SpecimenConditionSCT</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Answer Set with Yes No and Unknowns</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>Specimen Condition SCT</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>This Specimen Condition SCT value set is an enumerated list created by the HL7 Orders and Observation WG’s lab subgroup to complement, without overlapping, the HL7 Specimen Condition value set (http://terminology.hl7.org/ValueSet/v2-0493). It is designed for use with the FHIR R4 Specimen Resource (https://hl7.org/fhir/R4/specimen.html), which has an extensible binding to the HL7 Specimen Condition value set. It can be used elsewhere and will be used in C-CDA. CAVEAT: 20 Additional codes will be added to this set (keeping the same scope) after the next publication of SCT in March 2025</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-interpreter-needed,StructureDefinition/us-core-observation-adi-documentation</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>ValueSet/us-core-specimen-condition</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>SCT</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.22</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.25</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20241015</v>
+        <v>20250419</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1308,23 +1304,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.22</t>
+          <t>2.16.840.1.113762.1.4.1267.25</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>RouteOfAdministrationOfTherapeuticAgents</t>
+          <t>DetailedRaceIncludingAbsenceReasons</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Route of Administration of Therapeutic Agents</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Detailed race including absence reasons.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>This value set is based on the US Core Detailed Race value set (http://hl7.org/fhir/us/core/ValueSet/detailed-race) but assigned a new OID due to its slightly different scope. It includes the CDCREC code 2131-1 (Other Race) in place of the HL7 nullFlavor code "OTH" (Other)</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-race</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1333,11 +1333,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.23</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.26</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20241018</v>
+        <v>20250419</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1346,36 +1346,44 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.23</t>
+          <t>2.16.840.1.113762.1.4.1267.26</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EncounterType</t>
+          <t>HealthcareFacilityTypeSCT</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Encounter Type</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>Healthcare Facility type (SCT)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>The SNOMED CT value set used for Healthcare Facility Type was originally defined by HITSP (2005–2010) in HITSP C80 Table 2-147. This updated value set, defined in April 2025, maintains the original scope but modernizes it as an intensionally defined set using active codes from the SNOMED CT "Site of care (environment)" hierarchy. Use of SNOMED CT for sites of care is required by DS2019-01, The Direct Standard Consensus Body.</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>StructureDefinition/us-core-location</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>SCT</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.24</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.3</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20241105</v>
+        <v>20240217</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1384,27 +1392,23 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.24</t>
+          <t>2.16.840.1.113762.1.4.1267.3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SpecimenConditionSCT</t>
+          <t>SmokingStatusComprehensive</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Specimen Condition SCT</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>This Specimen Condition SCT value set is an enumerated list created by the HL7 Orders and Observation WG’s lab subgroup to complement, without overlapping, the HL7 Specimen Condition value set (http://terminology.hl7.org/ValueSet/v2-0493). It is designed for use with the FHIR R4 Specimen Resource (https://hl7.org/fhir/R4/specimen.html), which has an extensible binding to the HL7 Specimen Condition value set. It can be used elsewhere and will be used in C-CDA. CAVEAT: 20 Additional codes will be added to this set (keeping the same scope) after the next publication of SCT in March 2025</t>
-        </is>
-      </c>
+          <t>Smoking status comprehensive</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ValueSet/us-core-specimen-condition</t>
+          <t>StructureDefinition/us-core-smokingstatus</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1417,11 +1421,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.3</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.6</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20240217</v>
+        <v>20240222</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1430,17 +1434,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.3</t>
+          <t>2.16.840.1.113762.1.4.1267.6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SmokingStatusComprehensive</t>
+          <t>SmokingStatusType</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Smoking status comprehensive</t>
+          <t>Smoking Status Type</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1449,21 +1453,17 @@
           <t>StructureDefinition/us-core-smokingstatus</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>SCT</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.6</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.1.11.20275</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>20240222</v>
+        <v>20240606</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1472,36 +1472,44 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.6</t>
+          <t>2.16.840.1.113883.1.11.20275</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SmokingStatusType</t>
+          <t>HealthcareServiceLocation</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Smoking Status Type</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>HealthcareServiceLocation</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>A comprehensive classification of locations and settings where healthcare services are provided. This value set is based on the National Healthcare Safety Network (NHSN) location code system that has been developed over a number of years through CDC's interaction with a variety of healthcare facilities and is intended to serve a variety of reporting needs where coding of healthcare service locations is required. Value Set: HealthcareServiceLocation 2.16.840.1.113883.1.11.20275 DYNAMIC Code System(s): HealthcareServiceLocation 2.16.840.1.113883.6.259  Code Code System Print Name 1024-9 HealthcareServiceLocation Critical Care Unit 1117-1 HealthcareServiceLocation Family Medicine Clinic 1128-8 HealthcareServiceLocation Pediatric Clinic 1160-1 HealthcareServiceLocation Urgent Care Center</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-smokingstatus</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>StructureDefinition/us-core-location</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.1.11.14914</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.11.20.9.69.4</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20240606</v>
+        <v>20250402</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1510,32 +1518,28 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.14914</t>
+          <t>2.16.840.1.113883.11.20.9.69.4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>RaceValueSet</t>
+          <t>AdvanceHealthcareDirectiveCategoriesLOINC</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Race Value Set</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Duplicate of official CDC Detailed Race 16.840.1.114222.4.11.876 All concepts that can describe a person's "race" as defined by the United States Bureau of Census. This includes the US Office of Management and Budget (OMB) five main categories, along with a sixth "Other race" category, plus all the more detailed descendant race concepts used by the US Bureau of Census.</t>
-        </is>
-      </c>
+          <t>Advance Healthcare Directive Categories LOINC</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>ValueSet/detailed-race</t>
+          <t>StructureDefinition/us-core-adi-documentreference</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Internal</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1572,7 +1576,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-bmi,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-vital-signs,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1585,11 +1589,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.114222.4.11.1066</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.2.575</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20240606</v>
+        <v>20250419</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1598,44 +1602,40 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.16.840.1.114222.4.11.1066</t>
+          <t>2.16.840.1.113883.4.642.2.575</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>HealthcareProviderTaxonomy</t>
+          <t>RaceCategories</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Healthcare Provider Taxonomy</t>
+          <t>Race Categories</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Code system at http://www.nucc.org/index.php?option=com_content&amp;view=article&amp;id=14&amp;Itemid=125</t>
+          <t>The HL7 OID used in the US Core Implementation Guide value set (http://hl7.org/fhir/us/core/ValueSet/omb-ethnicity-category) has been retained here, as the value set content is identical. However, the preferred reference is now the VSAC-hosted version, since both US Core and C-CDA will reference this set going forward</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitionerrole</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-race</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.114222.4.11.3591</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.40.2.48.1</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20221118</v>
+        <v>20250419</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1644,44 +1644,40 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.16.840.1.114222.4.11.3591</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PayerType</t>
+          <t>DetailedEthnicityIncludingAbsenceReasons</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Payer Type</t>
+          <t>Detailed Ethnicity Including Absence Reasons</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Name changed on 2023-06-02 per JIRA https://jira.hl7.org/browse/FHIR-39982</t>
+          <t>This value set was replicated from US Core's Detailed Ethnicity Set (http://hl7.org/fhir/us/core/ValueSet/detailed-ethnicity) and reuses the HL7 provided OID as it retains the same scope.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-coverage</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Internal</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-ethnicity</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.114222.4.11.836</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.40.2.48.3</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20121025</v>
+        <v>20250419</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1690,40 +1686,40 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.16.840.1.114222.4.11.836</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Race</t>
+          <t>EthnicityCategories</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Race</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>Ethnicity Categories</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>The HL7 OID used in the US Core Implementation Guide value set (http://hl7.org/fhir/us/core/ValueSet/omb-ethnicity-category) has been retained here, as the value set content is identical. However, the preferred reference is now the VSAC-hosted version, since both US Core and C-CDA will reference this set going forward. Additionally, the US Core IG-based value set does not currently support expansion, making the VSAC version more suitable for implementation.</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ValueSet/omb-race-category</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Internal</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-ethnicity</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.114222.4.11.837</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.114222.4.11.1066</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>20121025</v>
+        <v>20240606</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1732,28 +1728,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.16.840.1.114222.4.11.837</t>
+          <t>2.16.840.1.114222.4.11.1066</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ethnicity</t>
+          <t>HealthcareProviderTaxonomy</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ethnicity</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>Healthcare Provider Taxonomy</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Code system at http://www.nucc.org/index.php?option=com_content&amp;view=article&amp;id=14&amp;Itemid=125</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ValueSet/omb-ethnicity-category</t>
+          <t>StructureDefinition/us-core-practitionerrole</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Internal</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1761,11 +1761,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.114222.4.11.877</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.114222.4.11.3591</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20240606</v>
+        <v>20250419</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1774,23 +1774,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.16.840.1.114222.4.11.877</t>
+          <t>2.16.840.1.114222.4.11.3591</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DetailedEthnicity</t>
+          <t>PayerType</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Detailed Ethnicity</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>Payer Type</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025 April version was changed to reduce the amount of granular vs higher level categories of insurance (payer) types. Note that the code system from where these codes are drawn is now owned by the CDC and not owned by NAHDO. CDC Contact: sopt@cdc.gov</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>ValueSet/detailed-ethnicity</t>
+          <t>StructureDefinition/us-core-coverage</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2366,7 +2370,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-specimen,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-procedure,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-condition-encounter-diagnosis,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-specimen,StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-procedure,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-condition-encounter-diagnosis,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3662,7 +3666,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5678,12 +5682,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-specimen,StructureDefinition/us-core-documentreference,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-procedure,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-careplan,StructureDefinition/us-core-organization,StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-practitioner,StructureDefinition/us-core-practitionerrole,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-patient,StructureDefinition/us-core-provenance,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-questionnaireresponse,StructureDefinition/us-core-condition-encounter-diagnosis,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-implantable-device,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-medicationdispense,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-encounter,StructureDefinition/us-core-bmi,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-coverage,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-diagnosticreport-note,StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-medication,StructureDefinition/us-core-goal,StructureDefinition/us-core-careteam,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-relatedperson,StructureDefinition/us-core-immunization,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-location,StructureDefinition/us-core-allergyintolerance,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-specimen,StructureDefinition/us-core-documentreference,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-procedure,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-careplan,StructureDefinition/us-core-organization,StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-practitioner,StructureDefinition/us-core-practitionerrole,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-patient,StructureDefinition/us-core-provenance,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-questionnaireresponse,StructureDefinition/us-core-condition-encounter-diagnosis,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-implantable-device,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-medicationdispense,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-encounter,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-coverage,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-diagnosticreport-note,StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medication,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-goal,StructureDefinition/us-core-careteam,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-immunization,StructureDefinition/us-core-relatedperson,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-location,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-allergyintolerance,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>hl7.terminology.r4</t>
+          <t>hl7.terminology</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -6734,7 +6738,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-vital-signs,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-body-height,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -6782,7 +6786,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-goal,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-observation-adi-documentation</t>
+          <t>StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-goal,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-smokingstatus</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -6830,7 +6834,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -6878,7 +6882,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -6926,7 +6930,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7419,7 +7423,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/provenance-agent-type</t>
+          <t>http://hl7.org/fhir/ValueSet/provenance-entity-role</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7434,22 +7438,22 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1003</t>
+          <t>2.16.840.1.113883.4.642.3.436</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ProvenanceParticipantType</t>
+          <t>ProvenanceEntityRole</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Provenance participant type</t>
+          <t>ProvenanceEntityRole</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>The type of participation a provenance participant.</t>
+          <t>How an entity was used in an activity.</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7459,7 +7463,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7467,7 +7471,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/provenance-entity-role</t>
+          <t>http://hl7.org/fhir/ValueSet/quantity-comparator</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7477,32 +7481,32 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.436</t>
+          <t>2.16.840.1.113883.4.642.3.59</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ProvenanceEntityRole</t>
+          <t>QuantityComparator</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>ProvenanceEntityRole</t>
+          <t>QuantityComparator</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>How an entity was used in an activity.</t>
+          <t>How the Quantity should be understood and represented.</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-provenance</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -7515,7 +7519,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/quantity-comparator</t>
+          <t>http://hl7.org/fhir/ValueSet/questionnaire-answers</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7525,37 +7529,37 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.59</t>
+          <t>2.16.840.1.113883.4.642.3.446</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>QuantityComparator</t>
+          <t>QuestionnaireAnswerCodes</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>QuantityComparator</t>
+          <t>Questionnaire Answer Codes</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>How the Quantity should be understood and represented.</t>
+          <t>Example list of codes for answers to questions. (Not complete or necessarily appropriate.)</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-bmi,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-questionnaireresponse</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7563,7 +7567,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/questionnaire-answers</t>
+          <t>http://hl7.org/fhir/ValueSet/questionnaire-answers-status</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -7578,22 +7582,22 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.446</t>
+          <t>required</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>QuestionnaireAnswerCodes</t>
+          <t>QuestionnaireResponseStatus</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Questionnaire Answer Codes</t>
+          <t>QuestionnaireResponseStatus</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Example list of codes for answers to questions. (Not complete or necessarily appropriate.)</t>
+          <t>Lifecycle status of the questionnaire response.</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7603,7 +7607,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7611,7 +7615,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/questionnaire-answers-status</t>
+          <t>http://hl7.org/fhir/ValueSet/reaction-event-severity</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -7626,27 +7630,27 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>2.16.840.1.113883.4.642.3.135</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>QuestionnaireResponseStatus</t>
+          <t>AllergyIntoleranceSeverity</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>QuestionnaireResponseStatus</t>
+          <t>AllergyIntoleranceSeverity</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Lifecycle status of the questionnaire response.</t>
+          <t>Clinical assessment of the severity of a reaction event as a whole, potentially considering multiple different manifestations.</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-questionnaireresponse</t>
+          <t>StructureDefinition/us-core-allergyintolerance</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -7659,7 +7663,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/reaction-event-severity</t>
+          <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -7674,32 +7678,32 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.135</t>
+          <t>2.16.840.1.113883.4.642.3.407</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceSeverity</t>
+          <t>ObservationReferenceRangeAppliesToCodes</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceSeverity</t>
+          <t>Observation Reference Range Applies To Codes</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Clinical assessment of the severity of a reaction event as a whole, potentially considering multiple different manifestations.</t>
+          <t>This value set defines a set of codes that can be used to indicate the particular target population the reference range applies to.</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-allergyintolerance</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7707,7 +7711,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -7722,32 +7726,32 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.407</t>
+          <t>2.16.840.1.113883.4.642.3.397</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ObservationReferenceRangeAppliesToCodes</t>
+          <t>ObservationReferenceRangeMeaningCodes</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Observation Reference Range Applies To Codes</t>
+          <t>Observation Reference Range Meaning Codes</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to indicate the particular target population the reference range applies to.</t>
+          <t>This value set defines a set of codes that can be used to indicate the meaning/use of a reference range for a particular target population.</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7755,7 +7759,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -7770,32 +7774,32 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.397</t>
+          <t>2.16.840.1.113883.4.642.3.449</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>ObservationReferenceRangeMeaningCodes</t>
+          <t>PatientRelationshipType</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Observation Reference Range Meaning Codes</t>
+          <t>Patient relationship type</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to indicate the meaning/use of a reference range for a particular target population.</t>
+          <t>A set of codes that can be used to indicate the relationship between a Patient and a Related Person.</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-relatedperson</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>THO (V3),THO (V2)</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7803,7 +7807,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype</t>
+          <t>http://hl7.org/fhir/ValueSet/request-intent</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -7818,32 +7822,32 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.449</t>
+          <t>2.16.840.1.113883.4.642.3.113</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>PatientRelationshipType</t>
+          <t>RequestIntent</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Patient relationship type</t>
+          <t>RequestIntent</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>A set of codes that can be used to indicate the relationship between a Patient and a Related Person.</t>
+          <t>Codes indicating the degree of authority/intentionality associated with a request.</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-relatedperson</t>
+          <t>StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>THO (V3),THO (V2)</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -7851,7 +7855,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/request-intent</t>
+          <t>http://hl7.org/fhir/ValueSet/request-priority</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -7866,27 +7870,27 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.113</t>
+          <t>2.16.840.1.113883.4.642.3.115</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>RequestIntent</t>
+          <t>RequestPriority</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>RequestIntent</t>
+          <t>Request priority</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Codes indicating the degree of authority/intentionality associated with a request.</t>
+          <t>The clinical priority of a diagnostic order.</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -7899,7 +7903,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/request-priority</t>
+          <t>http://hl7.org/fhir/ValueSet/request-status</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -7914,27 +7918,27 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.115</t>
+          <t>2.16.840.1.113883.4.642.3.111</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>RequestPriority</t>
+          <t>RequestStatus</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Request priority</t>
+          <t>RequestStatus</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>The clinical priority of a diagnostic order.</t>
+          <t>Codes identifying the lifecycle stage of a request.</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-careplan,StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -7947,7 +7951,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/request-status</t>
+          <t>http://hl7.org/fhir/ValueSet/resource-types</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7957,32 +7961,32 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.111</t>
+          <t>2.16.840.1.113883.4.642.3.27</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>RequestStatus</t>
+          <t>ResourceType</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>RequestStatus</t>
+          <t>ResourceType</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Codes identifying the lifecycle stage of a request.</t>
+          <t>One of the resource types defined as part of this version of FHIR.</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-careplan,StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-provenance</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -7995,7 +7999,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+          <t>http://hl7.org/fhir/ValueSet/route-codes</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8005,37 +8009,37 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.27</t>
+          <t>2.16.840.1.113883.4.642.3.98</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>ResourceType</t>
+          <t>SNOMEDCTRouteCodes</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>ResourceType</t>
+          <t>SNOMED CT Route Codes</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>One of the resource types defined as part of this version of FHIR.</t>
+          <t>This value set includes all Route codes from SNOMED CT - provided as an exemplar.</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-provenance</t>
+          <t>StructureDefinition/us-core-allergyintolerance</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -8043,7 +8047,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+          <t>http://hl7.org/fhir/ValueSet/security-labels</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8053,45 +8057,41 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.98</t>
+          <t>2.16.840.1.113883.4.642.3.47</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>SNOMEDCTRouteCodes</t>
+          <t>All Security Labels</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>SNOMED CT Route Codes</t>
+          <t>SecurityLabels</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>This value set includes all Route codes from SNOMED CT - provided as an exemplar.</t>
+          <t>A single value set for all security labels defined by FHIR.</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-allergyintolerance</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>SCT</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-documentreference,StructureDefinition/us-core-encounter,StructureDefinition/us-core-observation-lab</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+          <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8101,41 +8101,45 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.47</t>
+          <t>2.16.840.1.113883.4.642.3.978</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>All Security Labels</t>
+          <t>SecurityRoleType</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>SecurityLabels</t>
+          <t>SecurityRoleType</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>A single value set for all security labels defined by FHIR.</t>
+          <t>This example FHIR value set is comprised of example Actor Type codes, which can be used to value FHIR agents, actors, and other role         elements such as those specified in financial transactions. The FHIR Actor value set is based on    DICOM Audit Message, C402;   ASTM Standard, E1762-95 [2013]; selected codes and          derived actor roles from HL7 RoleClass OID 2.16.840.1.113883.5.110;    HL7 Role Code 2.16.840.1.113883.5.111, including AgentRoleType;          HL7 ParticipationType OID: 2.16.840.1.113883.5.90; and    HL7 ParticipationFunction codes OID: 2.16.840.1.113883.5.88.           This value set includes, by reference, role codes from external code systems: NUCC Health Care Provider Taxonomy OID: 2.16.840.1.113883.6.101;          North American Industry Classification System [NAICS]OID: 2.16.840.1.113883.6.85; IndustryClassificationSystem 2.16.840.1.113883.1.11.16039;          and US Census Occupation Code OID: 2.16.840.1.113883.6.243 for relevant recipient or custodian codes not included in this value set.            If no source is indicated in the definition comments, then these are example FHIR codes.          It can be extended with appropriate roles described by SNOMED as well as those described in the HL7 Role Based Access Control Catalog and the          HL7 Healthcare (Security and Privacy) Access Control Catalog.            In Role-Based Access Control (RBAC), permissions are operations on an object that a user wishes to access. Permissions are grouped into roles.          A role characterizes the functions a user is allowed to perform. Roles are assigned to users. If the user's role has the appropriate permissions          to access an object, then that user is granted access to the object. FHIR readily enables RBAC, as FHIR Resources are object types and the CRUDE          events (the FHIR equivalent to permissions in the RBAC scheme) are operations on those objects.          In Attribute-Based Access Control (ABAC), a user requests to perform operations on objects. That user's access request is granted or denied          based on a set of access control policies that are specified in terms of attributes and conditions. FHIR readily enables ABAC, as instances of          a Resource in FHIR (again, Resources are object types) can have attributes associated with them. These attributes include security tags,          environment conditions, and a host of user and object characteristics, which are the same attributes as those used in ABAC. Attributes help          define the access control policies that determine the operations a user may perform on a Resource (in FHIR) or object (in ABAC). For example,          a tag (or attribute) may specify that the identified Resource (object) is not to be further disclosed without explicit consent from the patient.</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-documentreference,StructureDefinition/us-core-encounter,StructureDefinition/us-core-observation-lab</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr"/>
+          <t>StructureDefinition/us-core-provenance</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>THO (V3),THO,DICOM</t>
+        </is>
+      </c>
       <c r="J165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
+          <t>http://hl7.org/fhir/ValueSet/service-type</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8150,32 +8154,32 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.978</t>
+          <t>2.16.840.1.113883.4.642.3.518</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>SecurityRoleType</t>
+          <t>ServiceType</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>SecurityRoleType</t>
+          <t>Service type</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>This example FHIR value set is comprised of example Actor Type codes, which can be used to value FHIR agents, actors, and other role         elements such as those specified in financial transactions. The FHIR Actor value set is based on    DICOM Audit Message, C402;   ASTM Standard, E1762-95 [2013]; selected codes and          derived actor roles from HL7 RoleClass OID 2.16.840.1.113883.5.110;    HL7 Role Code 2.16.840.1.113883.5.111, including AgentRoleType;          HL7 ParticipationType OID: 2.16.840.1.113883.5.90; and    HL7 ParticipationFunction codes OID: 2.16.840.1.113883.5.88.           This value set includes, by reference, role codes from external code systems: NUCC Health Care Provider Taxonomy OID: 2.16.840.1.113883.6.101;          North American Industry Classification System [NAICS]OID: 2.16.840.1.113883.6.85; IndustryClassificationSystem 2.16.840.1.113883.1.11.16039;          and US Census Occupation Code OID: 2.16.840.1.113883.6.243 for relevant recipient or custodian codes not included in this value set.            If no source is indicated in the definition comments, then these are example FHIR codes.          It can be extended with appropriate roles described by SNOMED as well as those described in the HL7 Role Based Access Control Catalog and the          HL7 Healthcare (Security and Privacy) Access Control Catalog.            In Role-Based Access Control (RBAC), permissions are operations on an object that a user wishes to access. Permissions are grouped into roles.          A role characterizes the functions a user is allowed to perform. Roles are assigned to users. If the user's role has the appropriate permissions          to access an object, then that user is granted access to the object. FHIR readily enables RBAC, as FHIR Resources are object types and the CRUDE          events (the FHIR equivalent to permissions in the RBAC scheme) are operations on those objects.          In Attribute-Based Access Control (ABAC), a user requests to perform operations on objects. That user's access request is granted or denied          based on a set of access control policies that are specified in terms of attributes and conditions. FHIR readily enables ABAC, as instances of          a Resource in FHIR (again, Resources are object types) can have attributes associated with them. These attributes include security tags,          environment conditions, and a host of user and object characteristics, which are the same attributes as those used in ABAC. Attributes help          define the access control policies that determine the operations a user may perform on a Resource (in FHIR) or object (in ABAC). For example,          a tag (or attribute) may specify that the identified Resource (object) is not to be further disclosed without explicit consent from the patient.</t>
+          <t>This value set defines an example set of codes of service-types.</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-provenance</t>
+          <t>StructureDefinition/us-core-encounter</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>THO (V3),THO,DICOM</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -8183,7 +8187,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/service-type</t>
+          <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8198,32 +8202,32 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.518</t>
+          <t>2.16.840.1.113883.4.642.3.434</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ServiceType</t>
+          <t>ServiceRequestCategoryCodes</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Service type</t>
+          <t>Service Request Category Codes</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>This value set defines an example set of codes of service-types.</t>
+          <t>An example value set of SNOMED CT concepts that can classify a requested service</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>ValueSet/us-core-servicerequest-category,StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -8231,7 +8235,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+          <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8246,27 +8250,27 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.434</t>
+          <t>2.16.840.1.113883.4.642.3.435</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ServiceRequestCategoryCodes</t>
+          <t>ServiceRequestOrderDetailsCodes</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Service Request Category Codes</t>
+          <t>Service Request Order Details Codes</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>An example value set of SNOMED CT concepts that can classify a requested service</t>
+          <t>An example value set of Codified order entry details concepts.  These concepts only make sense in the context of what is being ordered.  This example is for a patient ventilation order</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>ValueSet/us-core-servicerequest-category,StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -8279,7 +8283,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+          <t>http://hl7.org/fhir/ValueSet/specimen-collection-method</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8294,27 +8298,27 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.435</t>
+          <t>2.16.840.1.113883.4.642.3.468</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ServiceRequestOrderDetailsCodes</t>
+          <t>FHIRSpecimenCollectionMethod</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Service Request Order Details Codes</t>
+          <t>FHIR Specimen Collection Method</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>An example value set of Codified order entry details concepts.  These concepts only make sense in the context of what is being ordered.  This example is for a patient ventilation order</t>
+          <t xml:space="preserve"> This example value set defines a set of codes that can be used to indicate the method by which a specimen was collected.</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-specimen</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -8327,7 +8331,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/specimen-collection-method</t>
+          <t>http://hl7.org/fhir/ValueSet/specimen-container-type</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8342,22 +8346,22 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.468</t>
+          <t>2.16.840.1.113883.4.642.3.470</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>FHIRSpecimenCollectionMethod</t>
+          <t>SpecimenContainerType</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>FHIR Specimen Collection Method</t>
+          <t>Specimen Container Type</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This example value set defines a set of codes that can be used to indicate the method by which a specimen was collected.</t>
+          <t>Checks on the patient prior specimen collection. All SNOMED CT concepts descendants of 706041008 |Device for body fluid and tissue collection/transfer/processing (physical object)|</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8375,7 +8379,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/specimen-container-type</t>
+          <t>http://hl7.org/fhir/ValueSet/specimen-processing-procedure</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8390,22 +8394,22 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.470</t>
+          <t>2.16.840.1.113883.4.642.3.469</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>SpecimenContainerType</t>
+          <t>SpecimenProcessingProcedure</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Specimen Container Type</t>
+          <t>Specimen processing procedure</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Checks on the patient prior specimen collection. All SNOMED CT concepts descendants of 706041008 |Device for body fluid and tissue collection/transfer/processing (physical object)|</t>
+          <t>The technique that is used to perform the process or preserve the specimen.</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8415,7 +8419,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO (V2)</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8423,7 +8427,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/specimen-processing-procedure</t>
+          <t>http://hl7.org/fhir/ValueSet/specimen-status</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -8438,22 +8442,22 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.469</t>
+          <t>2.16.840.1.113883.4.642.3.471</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>SpecimenProcessingProcedure</t>
+          <t>SpecimenStatus</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Specimen processing procedure</t>
+          <t>SpecimenStatus</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>The technique that is used to perform the process or preserve the specimen.</t>
+          <t>Codes providing the status/availability of a specimen.</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8463,7 +8467,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8471,7 +8475,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/specimen-status</t>
+          <t>http://hl7.org/fhir/ValueSet/subscriber-relationship</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -8486,32 +8490,32 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.471</t>
+          <t>2.16.840.1.113883.4.642.3.1385</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>SpecimenStatus</t>
+          <t>SubscriberRelationshipCodes</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>SpecimenStatus</t>
+          <t>SubscriberPolicyholder Relationship Codes</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Codes providing the status/availability of a specimen.</t>
+          <t>This value set includes codes for the relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-specimen</t>
+          <t>StructureDefinition/us-core-coverage</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8519,7 +8523,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/subscriber-relationship</t>
+          <t>http://hl7.org/fhir/ValueSet/substance-code</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -8534,32 +8538,32 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1385</t>
+          <t>2.16.840.1.113883.4.642.3.473</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>SubscriberRelationshipCodes</t>
+          <t>SubstanceCode</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>SubscriberPolicyholder Relationship Codes</t>
+          <t>Substance Code</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>This value set includes codes for the relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
+          <t>This value set contains concept codes for specific substances. It includes codes from [SNOMED](http://snomed.info/sct) where concept is-a 105590001 (Substance (substance)) and where concept is-a 373873005 (Pharmaceutical / biologic product (product))</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-coverage</t>
+          <t>StructureDefinition/us-core-allergyintolerance</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8567,7 +8571,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/substance-code</t>
+          <t>http://hl7.org/fhir/ValueSet/ucum-bodylength</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -8582,32 +8586,32 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.473</t>
+          <t>2.16.840.1.113883.4.642.3.958</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>SubstanceCode</t>
+          <t>BodyLengthUnits</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Substance Code</t>
+          <t>Body Length Units</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>This value set contains concept codes for specific substances. It includes codes from [SNOMED](http://snomed.info/sct) where concept is-a 105590001 (Substance (substance)) and where concept is-a 373873005 (Pharmaceutical / biologic product (product))</t>
+          <t>UCUM units for recording body length measures such as height and head circumference</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-allergyintolerance</t>
+          <t>StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>UCUM</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8615,7 +8619,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/ucum-bodylength</t>
+          <t>http://hl7.org/fhir/ValueSet/ucum-bodytemp</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -8630,27 +8634,27 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.958</t>
+          <t>2.16.840.1.113883.4.642.3.957</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>BodyLengthUnits</t>
+          <t>BodyTemperatureUnits</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Body Length Units</t>
+          <t>Body Temperature Units</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>UCUM units for recording body length measures such as height and head circumference</t>
+          <t>UCUM units for recording Body Temperature</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height</t>
+          <t>StructureDefinition/us-core-body-temperature</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -8663,7 +8667,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/ucum-bodytemp</t>
+          <t>http://hl7.org/fhir/ValueSet/ucum-bodyweight</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -8678,27 +8682,27 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.957</t>
+          <t>2.16.840.1.113883.4.642.3.956</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>BodyTemperatureUnits</t>
+          <t>BodyWeightUnits</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Body Temperature Units</t>
+          <t>Body Weight Units</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>UCUM units for recording Body Temperature</t>
+          <t>UCUM units for recording Body Weight</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-body-temperature</t>
+          <t>StructureDefinition/us-core-body-weight</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -8711,7 +8715,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/ucum-bodyweight</t>
+          <t>http://hl7.org/fhir/ValueSet/ucum-common</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -8724,29 +8728,21 @@
           <t>draft</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.4.642.3.956</t>
-        </is>
-      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>BodyWeightUnits</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Body Weight Units</t>
-        </is>
-      </c>
+          <t>Common UCUM units</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr">
         <is>
-          <t>UCUM units for recording Body Weight</t>
+          <t>Commonly encountered UCUM units (for purposes of helping populate look ups.</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-body-weight</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -8759,7 +8755,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/ucum-common</t>
+          <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -8772,21 +8768,29 @@
           <t>draft</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2.16.840.1.113883.4.642.3.955</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Common UCUM units</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr"/>
+          <t>VitalSignsUnits</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Vital Signs Units</t>
+        </is>
+      </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Commonly encountered UCUM units (for purposes of helping populate look ups.</t>
+          <t>Common UCUM units for recording Vital Signs</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-vital-signs,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -8799,7 +8803,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common</t>
+          <t>http://hl7.org/fhir/ValueSet/udi-entry-type</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -8814,32 +8818,32 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.955</t>
+          <t>2.16.840.1.113883.4.642.3.211</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>VitalSignsUnits</t>
+          <t>UDIEntryType</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Vital Signs Units</t>
+          <t>UDIEntryType</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Common UCUM units for recording Vital Signs</t>
+          <t>Codes to identify how UDI data was entered.</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-bmi,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-implantable-device</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>UCUM</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8847,47 +8851,43 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/udi-entry-type</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-clinical-note-type</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>4.0.1</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.211</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.1</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>UDIEntryType</t>
+          <t>USCoreClinicalNoteType</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>UDIEntryType</t>
+          <t>US Core Clinical Note Type</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Codes to identify how UDI data was entered.</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>StructureDefinition/us-core-implantable-device</t>
-        </is>
-      </c>
+          <t>The US Core Clinical Note Type Value Set is a 'starter set' of types supported for fetching and storing clinical notes.</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8895,12 +8895,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/detailed-ethnicity</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-clinical-result-observation-category</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8910,41 +8910,45 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.1</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.2</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>DetailedEthnicity</t>
+          <t>USCoreClinicalResultObservationCategory</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Detailed ethnicity</t>
+          <t>US Core Clinical Result Observation Category</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>The codes for the concepts "Unknown", "Asked but no answer", "other", and the 41 [CDC ethnicity codes](https://www.cdc.gov/phin/php/vocabulary) that are grouped under one of the 2 OMB ethnicity category codes.</t>
+          <t>Used to classify the context of clinical result observations.</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-ethnicity</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr"/>
+          <t>StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-lab</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>THO</t>
+        </is>
+      </c>
       <c r="J182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/detailed-race</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-condition-code</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8954,41 +8958,45 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.2</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.4</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>DetailedRace</t>
+          <t>USCoreConditionCodes</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Detailed Race</t>
+          <t>US Core Condition Codes</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>The codes for the concepts 'Unknown', 'Asked but no answer', 'other, and the 900+ [CDC Race codes](https://www.cdc.gov/phin/php/vocabulary) that are grouped under one of the 5 OMB race category codes.</t>
+          <t>This describes the problem. Diagnosis/Problem List is broadly defined as a series of brief statements that catalog a patient's medical, nursing, dental, social, preventative and psychiatric events and issues that are relevant to that patient's healthcare (e.g., signs, symptoms, and defined conditions). ICD-10 is appropriate for Diagnosis information, and ICD-9 for historical information.</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-race</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr"/>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-procedure,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-condition-encounter-diagnosis</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>hl7.terminology,SCT,THO</t>
+        </is>
+      </c>
       <c r="J183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/omb-ethnicity-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-condition-code-current</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9003,36 +9011,40 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>OmbEthnicityCategories</t>
+          <t>USCoreConditionCodesCurrent</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>OMB Ethnicity Categories</t>
+          <t>US Core Condition Codes Current</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>The codes for the concepts 'Unknown', 'Asked but no answer', and the ethnicity categories - 'Hispanic or Latino' and 'Not Hispanic or Latino' - as defined by the [OMB Standards for Maintaining, Collecting, and Presenting Federal Data on Race and Ethnicity, Statistical Policy Directive No. 15, as revised, October 30, 1997](https://www.govinfo.gov/content/pkg/FR-1997-10-30/pdf/97-28653.pdf).</t>
+          <t>This valueset is defined the same as the [US Core Condition Codes](ValueSet-us-core-condition-code.html) value set except it excludes ICD-9-CM codes. It us used for encoding newly recorded, non-legacy problem list items, health concerns and diagnosis using SNOMED CT and ICD-10-CM per USCDI requirements.</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-ethnicity</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr"/>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-condition-encounter-diagnosis</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>hl7.terminology,SCT</t>
+        </is>
+      </c>
       <c r="J184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/omb-race-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-category</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9042,41 +9054,45 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.2.575</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.5</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>OmbRaceCategories</t>
+          <t>USCoreDiagnosticReportCategory</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>OMB Race Categories</t>
+          <t>US Core Diagnostic Report Category Codes</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>The codes for the concepts 'Unknown', 'Asked but Unknown', 'Other Race'* and the codes for the five race categories - 'American Indian' or 'Alaska Native', 'Asian', 'Black or African American', 'Native Hawaiian or Other Pacific Islander', and 'White' - as defined by the [OMB Standards for Maintaining, Collecting, and Presenting Federal Data on Race and Ethnicity, Statistical Policy Directive No. 15, as revised, October 30, 1997](https://www.govinfo.gov/content/pkg/FR-1997-10-30/pdf/97-28653.pdf)  \* The use of 'Other Race' is discouraged for statistical analysis.</t>
+          <t>The US Core Diagnostic Report Category Value Set is a 'starter set' of categories supported for fetching and Diagnostic Reports and notes.</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-race</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr"/>
+          <t>StructureDefinition/us-core-diagnosticreport-note</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>LOINC</t>
+        </is>
+      </c>
       <c r="J185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/simple-language</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-report-and-note-codes</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9086,32 +9102,32 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.4</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.6</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>LanguageCodesWithLanguageAndOptionallyARegionModifier</t>
+          <t>USCoreNonLaboratoryCodes</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Language codes with language and optionally a region modifier</t>
+          <t>US Core Non Laboratory Codes</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>This value set includes codes from [BCP-47](http://tools.ietf.org/html/bcp47). This value set matches the ONC 2015 Edition LanguageCommunication data element value set within C-CDA to use a 2 character language code if one exists,   and a 3 character code if a 2 character code does not exist. It points back to [RFC 5646](https://tools.ietf.org/html/rfc5646), however only the language codes are required, all other elements are optional.</t>
+          <t>This value set includes All LOINC codes defined as type "clinical," therefore excluding laboratory tests, survey instruments, and claims documents. This includes observables such as vital signs, hemodynamics, intake/output, EKG, obstetric ultrasound, and cardiac echo, and includes discrete and narrative diagnostic observations and reports.</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-patient</t>
+          <t>StructureDefinition/us-core-diagnosticreport-note</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>hl7.terminology.r4</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -9119,12 +9135,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-clinical-note-type</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-category</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9134,28 +9150,32 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.5</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.7</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>USCoreClinicalNoteType</t>
+          <t>USCoreDocumentReferenceCategory</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>US Core Clinical Note Type</t>
+          <t>US Core DocumentReference Category</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>The US Core Clinical Note Type Value Set is a 'starter set' of types supported for fetching and storing clinical notes.</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr"/>
+          <t>The US Core DocumentReferences Category Value Set is a 'starter set' of categories supported for fetching and storing clinical notes.</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>StructureDefinition/us-core-documentreference</t>
+        </is>
+      </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>Internal</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -9163,12 +9183,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-clinical-result-observation-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-type</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9178,32 +9198,32 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.6</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.8</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>USCoreClinicalResultObservationCategory</t>
+          <t>USCoreDocumentReferenceType</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>US Core Clinical Result Observation Category</t>
+          <t>US Core DocumentReference Type</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Used to classify the context of clinical result observations.</t>
+          <t>The US Core DocumentReference Type Value Set includes all LOINC values whose SCALE is "Doc" in the LOINC database and the HL7 v3 Code System NullFlavor concept 'unknown'</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-lab</t>
+          <t>StructureDefinition/us-core-documentreference</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>THO (V3),LOINC</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -9211,12 +9231,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-condition-code</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-goal-description</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9226,32 +9246,32 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.7</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.9</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>USCoreConditionCodes</t>
+          <t>USCoreGoalCodes</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>US Core Condition Codes</t>
+          <t>US Core Goal Codes</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>This describes the problem. Diagnosis/Problem List is broadly defined as a series of brief statements that catalog a patient's medical, nursing, dental, social, preventative and psychiatric events and issues that are relevant to that patient's healthcare (e.g., signs, symptoms, and defined conditions). ICD-10 is appropriate for Diagnosis information, and ICD-9 for historical information.</t>
+          <t>Concepts from SNOMED CT  and LOINC code systems that can be used to indicate the goal.</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-procedure,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-condition-encounter-diagnosis</t>
+          <t>StructureDefinition/us-core-goal</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>SCT,THO,hl7.terminology.r4</t>
+          <t>SCT,LOINC</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -9259,12 +9279,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-laboratory-test-codes</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9274,27 +9294,27 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.8</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.21</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>USCoreDiagnosticReportCategory</t>
+          <t>USCoreLaboratoryTestCodes</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>US Core Diagnostic Report Category Codes</t>
+          <t>US Core Laboratory Test Codes</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>The US Core Diagnostic Report Category Value Set is a 'starter set' of categories supported for fetching and Diagnostic Reports and notes.</t>
+          <t>Laboratory LOINC codes: From the introduction to August 2022 LOINC Users' guide; "The current scope of the existing laboratory portion of the LOINC  database includes all observations reported by clinical laboratories, including the specialty areas: chemistry, including therapeutic drug monitoring and toxicology; hematology; serology; blood bank; microbiology; cytology; surgical pathology; and fertility.</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-diagnosticreport-note</t>
+          <t>StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-observation-lab</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -9307,12 +9327,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-report-and-note-codes</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-narrative-status</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9322,32 +9342,32 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.9</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.10</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>USCoreNonLaboratoryCodes</t>
+          <t>NarrativeStatus</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>US Core Non Laboratory Codes</t>
+          <t>US Core Narrative Status</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>This value set includes All LOINC codes defined as type "clinical," therefore excluding laboratory tests, survey instruments, and claims documents. This includes observables such as vital signs, hemodynamics, intake/output, EKG, obstetric ultrasound, and cardiac echo, and includes discrete and narrative diagnostic observations and reports.</t>
+          <t>The US Core Narrative Status Value Set limits the text status for the resource narrative.</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-diagnosticreport-note</t>
+          <t>StructureDefinition/us-core-careplan</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9355,12 +9375,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-observation-smoking-status-status</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9370,32 +9390,32 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.10</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.11</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>USCoreDocumentReferenceCategory</t>
+          <t>USCoreObservationSmokingStatusStatus</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Category</t>
+          <t>US Core Status for Smoking Status Observation</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>The US Core DocumentReferences Category Value Set is a 'starter set' of categories supported for fetching and storing clinical notes.</t>
+          <t>Codes providing the status of an observation for smoking status. Constrained to `final`and `entered-in-error`.</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-documentreference</t>
+          <t>StructureDefinition/us-core-smokingstatus</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Internal</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9403,12 +9423,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-type</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-problem-or-health-concern</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9418,32 +9438,32 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.11</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.12</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>USCoreDocumentReferenceType</t>
+          <t>USCoreProblemOrHealthConcern</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Type</t>
+          <t>US Core Problem or Health Concern</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>The US Core DocumentReference Type Value Set includes all LOINC values whose SCALE is "Doc" in the LOINC database and the HL7 v3 Code System NullFlavor concept 'unknown'</t>
+          <t>Code set for category codes for *US Core Condition Problems and Health Concerns Profile* consisting of the concepts "problem" and "health-concern".</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-documentreference</t>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>THO (V3),LOINC</t>
+          <t>Internal,THO</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -9451,12 +9471,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-goal-description</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-procedure-code</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9466,32 +9486,32 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.12</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.13</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>USCoreGoalCodes</t>
+          <t>USCoreProcedureCodes</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>US Core Goal Codes</t>
+          <t>US Core Procedure Codes</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Concepts from SNOMED CT  and LOINC code systems that can be used to indicate the goal.</t>
+          <t>Concepts from CPT, SNOMED CT, HCPCS Level II Alphanumeric Codes, ICD-10-PCS,CDT and LOINC code systems that can be used to indicate the type of procedure performed.</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-goal</t>
+          <t>StructureDefinition/us-core-procedure,StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>SCT,LOINC</t>
+          <t>hl7.terminology,SCT,LOINC,Other</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9499,12 +9519,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-laboratory-test-codes</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-provenance-participant-type</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9514,32 +9534,32 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.25</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.14</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>USCoreLaboratoryTestCodes</t>
+          <t>USCoreProvenancePaticipantTypeCodes</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>US Core Laboratory Test Codes</t>
+          <t>US Core Provenance Participant Type Codes</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Laboratory LOINC codes: From the introduction to August 2022 LOINC Users' guide; "The current scope of the existing laboratory portion of the LOINC  database includes all observations reported by clinical laboratories, including the specialty areas: chemistry, including therapeutic drug monitoring and toxicology; hematology; serology; blood bank; microbiology; cytology; surgical pathology; and fertility.</t>
+          <t>The type of participation a provenance agent played for a given target.</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-observation-lab</t>
+          <t>StructureDefinition/us-core-provenance</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>Internal,THO</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9547,12 +9567,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-location-type</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-condition-category</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9562,41 +9582,41 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.13</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.15</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>USCoreLocationType</t>
+          <t>USCoreScreeningAssessmentConditionCategory</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>US Core Location Type</t>
+          <t>US Core Screening Assessment Condition Category</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Concepts representing locations and settings where healthcare services are provided.</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>StructureDefinition/us-core-location</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr"/>
+          <t>This value set consists of the single code "sdoh". It is the minimum value set of category codes used in the US Core Condition Problems and Health Concerns Profile that any conformant system **SHALL** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
       <c r="J196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-narrative-status</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-category</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9606,32 +9626,32 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.14</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.16</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>NarrativeStatus</t>
+          <t>USCoreScreeningAssessmentObservationCategory</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>US Core Narrative Status</t>
+          <t>US Core Screening Assessment Observation Category</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>The US Core Narrative Status Value Set limits the text status for the resource narrative.</t>
+          <t>This value set is the minimum value set of category codes used in the US Core Observation Screening Assessment and Simple Observation Profiles that any conformant system **SHALL** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-careplan</t>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-observation-screening-assessment</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>Internal,THO</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9639,12 +9659,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-observation-smoking-status-status</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-maximum-category</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9654,32 +9674,32 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.15</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.17</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>USCoreObservationSmokingStatusStatus</t>
+          <t>USCoreScreeningAssessmentObservationMaximumCategory</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>US Core Status for Smoking Status Observation</t>
+          <t>US Core Screening Assessment Observation Maximum Category</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Codes providing the status of an observation for smoking status. Constrained to `final`and `entered-in-error`.</t>
+          <t>This value set is a value set of category codes used in the US Core Observation Screening Assessment that any conformant system **SHOULD** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-smokingstatus</t>
+          <t>StructureDefinition/us-core-observation-screening-assessment</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>Internal,THO</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
@@ -9687,12 +9707,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-problem-or-health-concern</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-servicerequest-category</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9702,32 +9722,32 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.16</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.18</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>USCoreProblemOrHealthConcern</t>
+          <t>USCoreServiceRequestCategoryCodes</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>US Core Problem or Health Concern</t>
+          <t>US Core ServiceRequest Category Codes</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Code set for category codes for *US Core Condition Problems and Health Concerns Profile* consisting of the concepts "problem" and "health-concern".</t>
+          <t>A set of SNOMED CT and LOINC concepts to classify a requested service</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-condition-problems-health-concerns</t>
+          <t>StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Internal,THO</t>
+          <t>SCT,Internal</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
@@ -9735,12 +9755,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-procedure-code</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9750,32 +9770,32 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.17</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.19</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>USCoreProcedureCodes</t>
+          <t>USCoreSimpleObservationCategory</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>US Core Procedure Codes</t>
+          <t>US Core Simple Observation Category</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Concepts from CPT, SNOMED CT, HCPCS Level II Alphanumeric Codes, ICD-10-PCS,CDT and LOINC code systems that can be used to indicate the type of procedure performed.</t>
+          <t>This value set is a value set of category codes used in the US Core Simple Observation and Condition Problems and Health Concerns Profiles that any conformant system **SHOULD** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-procedure,StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-simple-observation</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>SCT,LOINC,hl7.terminology.r4,Other</t>
+          <t>Internal,THO</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -9783,12 +9803,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-provenance-participant-type</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-specimen-condition</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9798,76 +9818,70 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.18</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.20</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>USCoreProvenancePaticipantTypeCodes</t>
+          <t>USCoreSpecimenCondition</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>US Core Provenance Participant Type Codes</t>
+          <t>US Core Specimen Condition</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>The type of participation a provenance agent played for a given target.</t>
+          <t>This value set contains concepts the provide information regarding a specimen, including the container, that does not meet a laboratory’s criteria for acceptability.</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-provenance</t>
-        </is>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>Internal,THO</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-specimen</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-condition-category</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>8.0.0-ballot</t>
-        </is>
+          <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7900</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.19</t>
-        </is>
-      </c>
+      <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>USCoreScreeningAssessmentConditionCategory</t>
+          <t>PHVS_Industry_NAICS_Detail _ODH</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>US Core Screening Assessment Condition Category</t>
+          <t>Industry NAICS Detail (ODH)</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>This value set consists of the single code "sdoh". It is the minimum value set of category codes used in the US Core Condition Problems and Health Concerns Profile that any conformant system **SHALL** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr"/>
+          <t>The Industry NAICS Detail (ODH) value set is to be used to capture self-reported industry within electronic health information systems to support direct patient care, population health and public health activities.  Industry is described as the economic or business sector of a business or enterprise.  For more information, a mapping to 2012 Census Industry Codes, and tips on using this value set go to the Occupational Data for Health (ODH) Hot Topics section on the PHIN VADS home page.</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>StructureDefinition/us-core-observation-occupation</t>
+        </is>
+      </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Internal</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J202" t="inlineStr"/>
@@ -9875,43 +9889,41 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-category</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>8.0.0-ballot</t>
-        </is>
+          <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7901</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.20</t>
-        </is>
-      </c>
+      <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>USCoreScreeningAssessmentObservationCategory</t>
+          <t>PHVS_Occupation_ONETSOC_Detail_ODH</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>US Core Screening Assessment Observation Category</t>
+          <t>Occupation ONETSOC Detail (ODH)</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>This value set is the minimum value set of category codes used in the US Core Observation Screening Assessment and Simple Observation Profiles that any conformant system **SHALL** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
-        </is>
-      </c>
-      <c r="H203" t="inlineStr"/>
+          <t>The Occupation ONETSOC Detail (ODH) value set is to be used to capture self-reported occupation within electronic health information systems to support direct patient care, population health and public health activities.  Occupation is the type of work done by the subject.  It is based on the 2010 O*Net-SOC Classification System.  For more information, a mapping to 2010 Census Codes, and tips on using this value set go to the Occupational Data for Health (ODH) Hot Topics section on the PHIN VADS home page.</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>StructureDefinition/us-core-observation-occupation</t>
+        </is>
+      </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Internal,THO</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J203" t="inlineStr"/>
@@ -9919,12 +9931,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-maximum-category</t>
+          <t>http://terminology.hl7.org/ValueSet/Languages</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9932,34 +9944,30 @@
           <t>active</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.21</t>
-        </is>
-      </c>
+      <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>USCoreScreeningAssessmentObservationMaximumCategory</t>
+          <t>Languages</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>US Core Screening Assessment Observation Maximum Category</t>
+          <t>Languages</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>This value set is a value set of category codes used in the US Core Observation Screening Assessment that any conformant system **SHOULD** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
+          <t>This value set defines a set of codes for the representation of the names of languages. It uses the list of ISO 639-2 concepts using the ISO 639-1 2-digit code for a concept where possible and the 3-digit terminological code where there is no  2-digit code.</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-observation-screening-assessment</t>
+          <t>StructureDefinition/us-core-patient</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Internal,THO</t>
+          <t>hl7.terminology</t>
         </is>
       </c>
       <c r="J204" t="inlineStr"/>
@@ -9967,12 +9975,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-servicerequest-category</t>
+          <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9982,32 +9990,32 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.22</t>
+          <t>2.16.840.1.113883.21.40</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>USCoreServiceRequestCategoryCodes</t>
+          <t>Hl7VSReAdmissionIndicator</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Category Codes</t>
+          <t>hl7VS-re-admissionIndicator</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>A set of SNOMED CT and LOINC concepts to classify a requested service</t>
+          <t>Value Set of codes which are used to specify that a patient is being re-admitted to a healthcare facility from which they were discharged, and indicates the circumstances around such re-admission.</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-encounter</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>SCT,Internal</t>
+          <t>THO (V2)</t>
         </is>
       </c>
       <c r="J205" t="inlineStr"/>
@@ -10015,12 +10023,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
+          <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10030,32 +10038,32 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.23</t>
+          <t>2.16.840.1.113883.21.51</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>USCoreSimpleObservationCategory</t>
+          <t>Hl7VSBedStatus</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Category</t>
+          <t>hl7VS-bedStatus</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>This value set is a value set of category codes used in the US Core Simple Observation and Condition Problems and Health Concerns Profiles that any conformant system **SHOULD** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
+          <t>Value Set of codes that specify the state of a bed in an inpatient setting, and is used to determine if a patient may be assigned to it or not.</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-simple-observation</t>
+          <t>StructureDefinition/us-core-location</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Internal,THO</t>
+          <t>THO (V2)</t>
         </is>
       </c>
       <c r="J206" t="inlineStr"/>
@@ -10063,12 +10071,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-specimen-condition</t>
+          <t>http://terminology.hl7.org/ValueSet/v2-0371</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10078,22 +10086,22 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.24</t>
+          <t>2.16.840.1.113883.21.245</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>USCoreSpecimenCondition</t>
+          <t>Hl7VSAdditivePreservative</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>US Core Specimen Condition</t>
+          <t>hl7VS-additivePreservative</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>This value set contains concepts the provide information regarding a specimen, including the container, that does not meet a laboratory’s criteria for acceptability.</t>
+          <t>Concepts specifying any additive introduced to the specimen before or at the time of collection.  These additives may be introduced in order to preserve, maintain or enhance the particular nature or component of the specimen.  Used in Version 2 messaging in the SPM segment.</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10101,18 +10109,22 @@
           <t>StructureDefinition/us-core-specimen</t>
         </is>
       </c>
-      <c r="I207" t="inlineStr"/>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>THO (V2)</t>
+        </is>
+      </c>
       <c r="J207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
+          <t>http://terminology.hl7.org/ValueSet/v2-0493</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>8.0.0-ballot</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10122,32 +10134,32 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.40</t>
+          <t>2.16.840.1.113883.21.333</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>UspsTwoLetterAlphabeticCodes</t>
+          <t>Hl7VSSpecimenCondition</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>USPS Two Letter Alphabetic Codes</t>
+          <t>hl7VS-specimenCondition</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>This value set defines two letter USPS alphabetic codes.</t>
+          <t>Concepts of modes or states of being that describe the nature of a specimen.  Used in Version 2 messaging in the SPM segment.</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-location,StructureDefinition/us-core-jurisdiction,StructureDefinition/us-core-organization</t>
+          <t>ValueSet/us-core-specimen-condition</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>THO (V2)</t>
         </is>
       </c>
       <c r="J208" t="inlineStr"/>
@@ -10155,41 +10167,47 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7900</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>1</v>
+          <t>http://terminology.hl7.org/ValueSet/v2-0916</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2.0.0</t>
+        </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2.16.840.1.113883.21.440</t>
+        </is>
+      </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>PHVS_Industry_NAICS_Detail _ODH</t>
+          <t>Hl7VSRelevantClincialInformation</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Industry NAICS Detail (ODH)</t>
+          <t>hl7VS-relevantClincialInformation</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>The Industry NAICS Detail (ODH) value set is to be used to capture self-reported industry within electronic health information systems to support direct patient care, population health and public health activities.  Industry is described as the economic or business sector of a business or enterprise.  For more information, a mapping to 2012 Census Industry Codes, and tips on using this value set go to the Occupational Data for Health (ODH) Hot Topics section on the PHIN VADS home page.</t>
+          <t>Value Set of codes that specify additional clinical information about the patient or specimen to report the supporting and/or suspected diagnosis and clinical findings on requests for interpreted diagnostic studies.</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-observation-occupation</t>
+          <t>StructureDefinition/us-core-specimen</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>THO (V2)</t>
         </is>
       </c>
       <c r="J209" t="inlineStr"/>
@@ -10197,11 +10215,13 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7901</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>1</v>
+          <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>0360</t>
+        </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -10211,40 +10231,44 @@
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>PHVS_Occupation_ONETSOC_Detail_ODH</t>
+          <t>v2.0360.2.7</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Occupation ONETSOC Detail (ODH)</t>
+          <t>v2 table 0360</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>The Occupation ONETSOC Detail (ODH) value set is to be used to capture self-reported occupation within electronic health information systems to support direct patient care, population health and public health activities.  Occupation is the type of work done by the subject.  It is based on the 2010 O*Net-SOC Classification System.  For more information, a mapping to 2010 Census Codes, and tips on using this value set go to the Occupational Data for Health (ODH) Hot Topics section on the PHIN VADS home page.</t>
+          <t xml:space="preserve"> Version 2.7</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-observation-occupation</t>
+          <t>FHIR Value set/code system definition for HL7 v2 table 0360 ver 2.9 ( Degree/License/Certificate)</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>THO</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr"/>
+          <t>StructureDefinition/us-core-practitioner</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>THO (V2)</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2.0.0</t>
+          <t>3.0.0</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10252,34 +10276,30 @@
           <t>active</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.21.40</t>
-        </is>
-      </c>
+      <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Hl7VSReAdmissionIndicator</t>
+          <t>ActCode</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>hl7VS-re-admissionIndicator</t>
+          <t>v3 Code System ActCode</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Value Set of codes which are used to specify that a patient is being re-admitted to a healthcare facility from which they were discharged, and indicates the circumstances around such re-admission.</t>
+          <t>A code specifying the particular kind of Act that the Act-instance represents within its class.  Constraints:  The kind of Act (e.g. physical examination, serum potassium, inpatient encounter, charge financial transaction, etc.) is specified with a code from one of several, typically external, coding systems.  The coding system will depend on the class of Act, such as LOINC for observations, etc. Conceptually, the Act.code must be a specialization of the Act.classCode. This is why the structure of ActClass domain should be reflected in the superstructure of the ActCode domain and then individual codes or externally referenced vocabularies subordinated under these domains that reflect the ActClass structure. Act.classCode and Act.code are not modifiers of each other but the Act.code concept should really imply the Act.classCode concept. For a negative example, it is not appropriate to use an Act.code "potassium" together with and Act.classCode for "laboratory observation" to somehow mean "potassium laboratory observation" and then use the same Act.code for "potassium" together with Act.classCode for "medication" to mean "substitution of potassium". This mutually modifying use of Act.code and Act.classCode is not permitted.</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J211" t="inlineStr"/>
@@ -10287,12 +10307,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2.0.0</t>
+          <t>3.0.0</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10302,32 +10322,32 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.21.51</t>
+          <t>2.16.840.1.113883.1.11.13955</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Hl7VSBedStatus</t>
+          <t>ActEncounterCode</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>hl7VS-bedStatus</t>
+          <t>ActEncounterCode</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Value Set of codes that specify the state of a bed in an inpatient setting, and is used to determine if a patient may be assigned to it or not.</t>
+          <t>Domain provides codes that qualify the ActEncounterClass (ENC)</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-location</t>
+          <t>StructureDefinition/us-core-encounter</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J212" t="inlineStr"/>
@@ -10335,12 +10355,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-0371</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ActPharmacySupplyType</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2.0.0</t>
+          <t>3.0.0</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10350,32 +10370,32 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.21.245</t>
+          <t>2.16.840.1.113883.1.11.16208</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Hl7VSAdditivePreservative</t>
+          <t>ActPharmacySupplyType</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>hl7VS-additivePreservative</t>
+          <t>ActPharmacySupplyType</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Concepts specifying any additive introduced to the specimen before or at the time of collection.  These additives may be introduced in order to preserve, maintain or enhance the particular nature or component of the specimen.  Used in Version 2 messaging in the SPM segment.</t>
+          <t>Identifies types of dispensing events</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-specimen</t>
+          <t>StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J213" t="inlineStr"/>
@@ -10383,12 +10403,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-0493</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2.0.0</t>
+          <t>3.0.0</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10398,32 +10418,32 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.21.333</t>
+          <t>2.16.840.1.113883.1.11.16866</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Hl7VSSpecimenCondition</t>
+          <t>ActPriority</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>hl7VS-specimenCondition</t>
+          <t>ActPriority</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Concepts of modes or states of being that describe the nature of a specimen.  Used in Version 2 messaging in the SPM segment.</t>
+          <t>A code or set of codes (e.g., for routine, emergency,) specifying the urgency under which the Act happened, can happen, is happening, is intended to happen, or is requested/demanded to happen.    *Discussion:* This attribute is used in orders to indicate the ordered priority, and in event documentation it indicates the actual priority used to perform the act. In definition mood it indicates the available priorities.</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>ValueSet/us-core-specimen-condition</t>
+          <t>StructureDefinition/us-core-encounter</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J214" t="inlineStr"/>
@@ -10431,12 +10451,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-0916</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2.0.0</t>
+          <t>3.0.0</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10446,32 +10466,32 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.21.440</t>
+          <t>2.16.840.1.113883.1.11.16621</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Hl7VSRelevantClincialInformation</t>
+          <t>ActSubstanceAdminSubstitutionCode</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>hl7VS-relevantClincialInformation</t>
+          <t>ActSubstanceAdminSubstitutionCode</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Value Set of codes that specify additional clinical information about the patient or specimen to report the supporting and/or suspected diagnosis and clinical findings on requests for interpreted diagnostic studies.</t>
+          <t>***No description***</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-specimen</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J215" t="inlineStr"/>
@@ -10479,12 +10499,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-HL7FormatCodes</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>0360</t>
+          <t>2.1.0</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10492,47 +10512,47 @@
           <t>active</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2.16.840.1.113883.11.19752</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>v2.0360.2.7</t>
+          <t>HL7FormatCodes</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>v2 table 0360</t>
+          <t>HL7 ValueSet of Format Codes for use with Document Sharing</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Version 2.7</t>
+          <t>The HL7-FormatCodes value set is defined to be the set of FormatCode(s) defined by implementation guides published by HL7 and other SDOs. The use of a formatCode from the FormatCodes value set specifies the technical format that a document conforms to. The formatCode is a further specialization more detailed than the mime-type. The formatCode provides sufficient information to allow any potential document content consumer to know if it can process and/or display the content of the document based on the document encoding, structure and template conformance indicated by the formatCode. The set of formatCodes is intended to be extensible. The Content Logical Description is defined intentionally to permit formatCodes defined by other Standards Development Organizations to be added by inclusion of additional formatCode Code Systems.</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>FHIR Value set/code system definition for HL7 v2 table 0360 ver 2.9 ( Degree/License/Certificate)</t>
+          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitioner</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>THO (V2)</t>
-        </is>
-      </c>
+          <t>THO (V3),Other</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>3.0.0</t>
+          <t>3.1.0</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10540,25 +10560,29 @@
           <t>active</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2.16.840.1.113883.1.11.20448</t>
+        </is>
+      </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>ActCode</t>
+          <t>PurposeOfUse</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>v3 Code System ActCode</t>
+          <t>PurposeOfUse</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>A code specifying the particular kind of Act that the Act-instance represents within its class.  Constraints:  The kind of Act (e.g. physical examination, serum potassium, inpatient encounter, charge financial transaction, etc.) is specified with a code from one of several, typically external, coding systems.  The coding system will depend on the class of Act, such as LOINC for observations, etc. Conceptually, the Act.code must be a specialization of the Act.classCode. This is why the structure of ActClass domain should be reflected in the superstructure of the ActCode domain and then individual codes or externally referenced vocabularies subordinated under these domains that reflect the ActClass structure. Act.classCode and Act.code are not modifiers of each other but the Act.code concept should really imply the Act.classCode concept. For a negative example, it is not appropriate to use an Act.code "potassium" together with and Act.classCode for "laboratory observation" to somehow mean "potassium laboratory observation" and then use the same Act.code for "potassium" together with Act.classCode for "medication" to mean "substitution of potassium". This mutually modifying use of Act.code and Act.classCode is not permitted.</t>
+          <t>Supports communication of purpose of use at a general level.</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
+          <t>StructureDefinition/us-core-provenance</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -10571,7 +10595,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -10586,27 +10610,27 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.13955</t>
+          <t>2.16.840.1.113883.1.11.17660</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>ActEncounterCode</t>
+          <t>ServiceDeliveryLocationRoleType</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>ActEncounterCode</t>
+          <t>ServiceDeliveryLocationRoleType</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Domain provides codes that qualify the ActEncounterClass (ENC)</t>
+          <t>A role of a place that further classifies the setting (e.g., accident site, road side, work site, community location) in which services are delivered.</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>StructureDefinition/us-core-location,StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -10619,7 +10643,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ActPharmacySupplyType</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -10634,27 +10658,27 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.16208</t>
+          <t>2.16.840.1.113883.1.11.19377</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>ActPharmacySupplyType</t>
+          <t>SubstanceAdminSubstitutionReason</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>ActPharmacySupplyType</t>
+          <t>SubstanceAdminSubstitutionReason</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Identifies types of dispensing events</t>
+          <t>***No description***</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -10667,12 +10691,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-TribalEntityUS</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>3.0.0</t>
+          <t>4.0.0</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10682,27 +10706,27 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.16866</t>
+          <t>2.16.840.1.113883.1.11.11631</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>ActPriority</t>
+          <t>TribalEntityUS</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>ActPriority</t>
+          <t>TribalEntityUS</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>A code or set of codes (e.g., for routine, emergency,) specifying the urgency under which the Act happened, can happen, is happening, is intended to happen, or is requested/demanded to happen.    *Discussion:* This attribute is used in orders to indicate the ordered priority, and in event documentation it indicates the actual priority used to perform the act. In definition mood it indicates the available priorities.</t>
+          <t>INDIAN ENTITIES RECOGNIZED AND ELIGIBLE TO RECEIVE SERVICES FROM THE UNITED STATES BUREAU OF INDIAN AFFAIRS</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>StructureDefinition/us-core-tribal-affiliation</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -10715,7 +10739,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-USEncounterDischargeDisposition</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -10730,17 +10754,17 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.16621</t>
+          <t>2.16.840.1.113883.1.11.19453</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>ActSubstanceAdminSubstitutionCode</t>
+          <t>USEncounterDischargeDisposition</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>ActSubstanceAdminSubstitutionCode</t>
+          <t>USEncounterDischargeDisposition</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -10750,12 +10774,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-encounter</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>THO (V3)</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J221" t="inlineStr"/>
@@ -10763,12 +10787,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-HL7FormatCodes</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-UnitsOfMeasureCaseSensitive</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2.1.0</t>
+          <t>3.0.0</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10778,371 +10802,35 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.11.19752</t>
+          <t>2.16.840.1.113883.1.11.12839</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>HL7FormatCodes</t>
+          <t>UnitsOfMeasureCaseSensitive</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>HL7 ValueSet of Format Codes for use with Document Sharing</t>
+          <t>UnitsOfMeasureCaseSensitive</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>The HL7-FormatCodes value set is defined to be the set of FormatCode(s) defined by implementation guides published by HL7 and other SDOs. The use of a formatCode from the FormatCodes value set specifies the technical format that a document conforms to. The formatCode is a further specialization more detailed than the mime-type. The formatCode provides sufficient information to allow any potential document content consumer to know if it can process and/or display the content of the document based on the document encoding, structure and template conformance indicated by the formatCode. The set of formatCodes is intended to be extensible. The Content Logical Description is defined intentionally to permit formatCodes defined by other Standards Development Organizations to be added by inclusion of additional formatCode Code Systems.</t>
+          <t>**Description:** All units of measure.</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
+          <t>StructureDefinition/us-core-smokingstatus</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>THO (V3),Other</t>
+          <t>UCUM</t>
         </is>
       </c>
       <c r="J222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-HealthcareServiceLocation</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>4.0.0</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.1.11.20275</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>HealthcareServiceLocation</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>HealthcareServiceLocation</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>A comprehensive classification of locations and settings where healthcare services are provided. This value set is based on the CMS Place of Service code set NHSN location code system that has been developed over a number of years through CDCaTMs interaction with a variety of healthcare facilities and is intended to serve a variety of reporting needs where coding of healthcare service locations is required.  Excluded codes are those that do not represent an actual location where health care services can be delivered, IE: Float, or a location aggregation.</t>
-        </is>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>ValueSet/us-core-location-type</t>
-        </is>
-      </c>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>Internal,hl7.terminology.r4</t>
-        </is>
-      </c>
-      <c r="J223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>3.1.0</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.1.11.20448</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>PurposeOfUse</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>PurposeOfUse</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>Supports communication of purpose of use at a general level.</t>
-        </is>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>StructureDefinition/us-core-provenance</t>
-        </is>
-      </c>
-      <c r="I224" t="inlineStr">
-        <is>
-          <t>THO (V3)</t>
-        </is>
-      </c>
-      <c r="J224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>3.0.0</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.1.11.17660</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>ServiceDeliveryLocationRoleType</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>ServiceDeliveryLocationRoleType</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>A role of a place that further classifies the setting (e.g., accident site, road side, work site, community location) in which services are delivered.</t>
-        </is>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>ValueSet/us-core-location-type,StructureDefinition/us-core-servicerequest</t>
-        </is>
-      </c>
-      <c r="I225" t="inlineStr">
-        <is>
-          <t>THO (V3)</t>
-        </is>
-      </c>
-      <c r="J225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>3.0.0</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.1.11.19377</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>SubstanceAdminSubstitutionReason</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>SubstanceAdminSubstitutionReason</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>***No description***</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
-        </is>
-      </c>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>THO (V3)</t>
-        </is>
-      </c>
-      <c r="J226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-TribalEntityUS</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>4.0.0</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.1.11.11631</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>TribalEntityUS</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>TribalEntityUS</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>INDIAN ENTITIES RECOGNIZED AND ELIGIBLE TO RECEIVE SERVICES FROM THE UNITED STATES BUREAU OF INDIAN AFFAIRS</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>StructureDefinition/us-core-tribal-affiliation</t>
-        </is>
-      </c>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>THO (V3)</t>
-        </is>
-      </c>
-      <c r="J227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-USEncounterDischargeDisposition</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>3.0.0</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.1.11.19453</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>USEncounterDischargeDisposition</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>USEncounterDischargeDisposition</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>***No description***</t>
-        </is>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>StructureDefinition/us-core-encounter</t>
-        </is>
-      </c>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>THO</t>
-        </is>
-      </c>
-      <c r="J228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-UnitsOfMeasureCaseSensitive</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>3.0.0</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.1.11.12839</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>UnitsOfMeasureCaseSensitive</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>UnitsOfMeasureCaseSensitive</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>**Description:** All units of measure.</t>
-        </is>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>StructureDefinition/us-core-smokingstatus</t>
-        </is>
-      </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>UCUM</t>
-        </is>
-      </c>
-      <c r="J229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/input/images/tables/valueset-ref-all-list.xlsx
+++ b/input/images/tables/valueset-ref-all-list.xlsx
@@ -1333,11 +1333,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.26</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20250419</v>
+        <v>20240217</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1346,27 +1346,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.26</t>
+          <t>2.16.840.1.113762.1.4.1267.3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>HealthcareFacilityTypeSCT</t>
+          <t>SmokingStatusComprehensive</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Healthcare Facility type (SCT)</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>The SNOMED CT value set used for Healthcare Facility Type was originally defined by HITSP (2005–2010) in HITSP C80 Table 2-147. This updated value set, defined in April 2025, maintains the original scope but modernizes it as an intensionally defined set using active codes from the SNOMED CT "Site of care (environment)" hierarchy. Use of SNOMED CT for sites of care is required by DS2019-01, The Direct Standard Consensus Body.</t>
-        </is>
-      </c>
+          <t>Smoking status comprehensive</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-location</t>
+          <t>StructureDefinition/us-core-smokingstatus</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1379,11 +1375,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.3</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.31</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20240217</v>
+        <v>20250516</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1392,30 +1388,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.3</t>
+          <t>2.16.840.1.113762.1.4.1267.31</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SmokingStatusComprehensive</t>
+          <t>HealthcareServiceLocationTypeCombined</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Smoking status comprehensive</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>Healthcare Service Location Type Combined</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>This value set consolidates encounter type codes from the two code systems permitted by USCDI for representing encounter location, as specified in USCDI v5.(https://www.healthit.gov/isp/taxonomy/term/1336/uscdi-v5)</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-smokingstatus</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>SCT</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-location</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1459,11 +1455,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.1.11.20275</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.11.20.9.69.4</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>20240606</v>
+        <v>20250402</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1472,32 +1468,28 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.20275</t>
+          <t>2.16.840.1.113883.11.20.9.69.4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>HealthcareServiceLocation</t>
+          <t>AdvanceHealthcareDirectiveCategoriesLOINC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>HealthcareServiceLocation</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>A comprehensive classification of locations and settings where healthcare services are provided. This value set is based on the National Healthcare Safety Network (NHSN) location code system that has been developed over a number of years through CDC's interaction with a variety of healthcare facilities and is intended to serve a variety of reporting needs where coding of healthcare service locations is required. Value Set: HealthcareServiceLocation 2.16.840.1.113883.1.11.20275 DYNAMIC Code System(s): HealthcareServiceLocation 2.16.840.1.113883.6.259  Code Code System Print Name 1024-9 HealthcareServiceLocation Critical Care Unit 1117-1 HealthcareServiceLocation Family Medicine Clinic 1128-8 HealthcareServiceLocation Pediatric Clinic 1160-1 HealthcareServiceLocation Urgent Care Center</t>
-        </is>
-      </c>
+          <t>Advance Healthcare Directive Categories LOINC</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-location</t>
+          <t>StructureDefinition/us-core-adi-documentreference</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Internal</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1505,11 +1497,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.11.20.9.69.4</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.3.88.12.80.62</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20250402</v>
+        <v>20240322</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1518,23 +1510,23 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.11.20.9.69.4</t>
+          <t>2.16.840.1.113883.3.88.12.80.62</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>AdvanceHealthcareDirectiveCategoriesLOINC</t>
+          <t>VitalSignResultType</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Advance Healthcare Directive Categories LOINC</t>
+          <t>Vital Sign Result Type</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-bmi,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1547,11 +1539,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.3.88.12.80.62</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.2.575</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>20240322</v>
+        <v>20250419</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1560,36 +1552,36 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.3.88.12.80.62</t>
+          <t>2.16.840.1.113883.4.642.2.575</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>VitalSignResultType</t>
+          <t>RaceCategories</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vital Sign Result Type</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>Race Categories</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>The HL7 OID used in the US Core Implementation Guide value set (http://hl7.org/fhir/us/core/ValueSet/omb-ethnicity-category) has been retained here, as the value set content is identical. However, the preferred reference is now the VSAC-hosted version, since both US Core and C-CDA will reference this set going forward</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-vital-signs,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>LOINC</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-race</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.2.575</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.40.2.48.1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1602,27 +1594,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.2.575</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>RaceCategories</t>
+          <t>DetailedEthnicityIncludingAbsenceReasons</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Race Categories</t>
+          <t>Detailed Ethnicity Including Absence Reasons</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>The HL7 OID used in the US Core Implementation Guide value set (http://hl7.org/fhir/us/core/ValueSet/omb-ethnicity-category) has been retained here, as the value set content is identical. However, the preferred reference is now the VSAC-hosted version, since both US Core and C-CDA will reference this set going forward</t>
+          <t>This value set was replicated from US Core's Detailed Ethnicity Set (http://hl7.org/fhir/us/core/ValueSet/detailed-ethnicity) and reuses the HL7 provided OID as it retains the same scope.</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-race</t>
+          <t>StructureDefinition/us-core-ethnicity</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -1631,7 +1623,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.40.2.48.1</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.40.2.48.3</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1644,22 +1636,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.1</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>DetailedEthnicityIncludingAbsenceReasons</t>
+          <t>EthnicityCategories</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Detailed Ethnicity Including Absence Reasons</t>
+          <t>Ethnicity Categories</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>This value set was replicated from US Core's Detailed Ethnicity Set (http://hl7.org/fhir/us/core/ValueSet/detailed-ethnicity) and reuses the HL7 provided OID as it retains the same scope.</t>
+          <t>The HL7 OID used in the US Core Implementation Guide value set (http://hl7.org/fhir/us/core/ValueSet/omb-ethnicity-category) has been retained here, as the value set content is identical. However, the preferred reference is now the VSAC-hosted version, since both US Core and C-CDA will reference this set going forward. Additionally, the US Core IG-based value set does not currently support expansion, making the VSAC version more suitable for implementation.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1673,11 +1665,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.40.2.48.3</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.114222.4.11.1066</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20250419</v>
+        <v>20240606</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1686,40 +1678,44 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.3</t>
+          <t>2.16.840.1.114222.4.11.1066</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>EthnicityCategories</t>
+          <t>HealthcareProviderTaxonomy</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ethnicity Categories</t>
+          <t>Healthcare Provider Taxonomy</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>The HL7 OID used in the US Core Implementation Guide value set (http://hl7.org/fhir/us/core/ValueSet/omb-ethnicity-category) has been retained here, as the value set content is identical. However, the preferred reference is now the VSAC-hosted version, since both US Core and C-CDA will reference this set going forward. Additionally, the US Core IG-based value set does not currently support expansion, making the VSAC version more suitable for implementation.</t>
+          <t>Code system at http://www.nucc.org/index.php?option=com_content&amp;view=article&amp;id=14&amp;Itemid=125</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-ethnicity</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>StructureDefinition/us-core-practitionerrole</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.114222.4.11.1066</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.114222.4.11.3591</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>20240606</v>
+        <v>20250419</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1728,32 +1724,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.16.840.1.114222.4.11.1066</t>
+          <t>2.16.840.1.114222.4.11.3591</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>HealthcareProviderTaxonomy</t>
+          <t>PayerType</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Healthcare Provider Taxonomy</t>
+          <t>Payer Type</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Code system at http://www.nucc.org/index.php?option=com_content&amp;view=article&amp;id=14&amp;Itemid=125</t>
+          <t>2025 April version was changed to reduce the amount of granular vs higher level categories of insurance (payer) types. Note that the code system from where these codes are drawn is now owned by the CDC and not owned by NAHDO. CDC Contact: sopt@cdc.gov</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitionerrole</t>
+          <t>StructureDefinition/us-core-coverage</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Internal</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1761,45 +1757,47 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.114222.4.11.3591</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>20250419</v>
+          <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>4.0.1</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.16.840.1.114222.4.11.3591</t>
+          <t>2.16.840.1.113883.4.642.3.95</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PayerType</t>
+          <t>SNOMEDCTAdditionalDosageInstructions</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Payer Type</t>
+          <t>SNOMED CT Additional Dosage Instructions</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025 April version was changed to reduce the amount of granular vs higher level categories of insurance (payer) types. Note that the code system from where these codes are drawn is now owned by the CDC and not owned by NAHDO. CDC Contact: sopt@cdc.gov</t>
+          <t>This value set includes all SNOMED CT Additional Dosage Instructions.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-coverage</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Internal</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1807,7 +1805,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
+          <t>http://hl7.org/fhir/ValueSet/address-type</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1817,37 +1815,37 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.95</t>
+          <t>2.16.840.1.113883.4.642.3.69</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SNOMEDCTAdditionalDosageInstructions</t>
+          <t>AddressType</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SNOMED CT Additional Dosage Instructions</t>
+          <t>AddressType</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>This value set includes all SNOMED CT Additional Dosage Instructions.</t>
+          <t>The type of an address (physical / postal).</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-location,StructureDefinition/us-core-organization</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1855,7 +1853,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/address-type</t>
+          <t>http://hl7.org/fhir/ValueSet/address-use</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1870,22 +1868,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.69</t>
+          <t>2.16.840.1.113883.4.642.3.67</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>AddressType</t>
+          <t>AddressUse</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AddressType</t>
+          <t>AddressUse</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>The type of an address (physical / postal).</t>
+          <t>The use of an address.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1903,7 +1901,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/address-use</t>
+          <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1913,37 +1911,37 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.67</t>
+          <t>2.16.840.1.113883.4.642.3.97</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>AddressUse</t>
+          <t>SNOMEDCTAdministrationMethodCodes</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>AddressUse</t>
+          <t>SNOMED CT Administration Method Codes</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>The use of an address.</t>
+          <t>This value set includes some method codes from SNOMED CT - provided as an exemplar</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-location,StructureDefinition/us-core-organization</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -1951,7 +1949,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+          <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1961,37 +1959,37 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.97</t>
+          <t>2.16.840.1.113883.4.642.3.1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SNOMEDCTAdministrationMethodCodes</t>
+          <t>AdministrativeGender</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>SNOMED CT Administration Method Codes</t>
+          <t>AdministrativeGender</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>This value set includes some method codes from SNOMED CT - provided as an exemplar</t>
+          <t>The gender of a person used for administrative purposes.</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-relatedperson</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -1999,7 +1997,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
+          <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-category</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2009,32 +2007,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1</t>
+          <t>2.16.840.1.113883.4.642.3.133</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AdministrativeGender</t>
+          <t>AllergyIntoleranceCategory</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AdministrativeGender</t>
+          <t>AllergyIntoleranceCategory</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>The gender of a person used for administrative purposes.</t>
+          <t>Category of an identified substance associated with allergies or intolerances.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-relatedperson</t>
+          <t>StructureDefinition/us-core-allergyintolerance</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2047,7 +2045,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-category</t>
+          <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-criticality</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2062,22 +2060,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.133</t>
+          <t>2.16.840.1.113883.4.642.3.129</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceCategory</t>
+          <t>AllergyIntoleranceCriticality</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceCategory</t>
+          <t>AllergyIntoleranceCriticality</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Category of an identified substance associated with allergies or intolerances.</t>
+          <t>Estimate of the potential clinical harm, or seriousness, of a reaction to an identified substance.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2095,7 +2093,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-criticality</t>
+          <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-type</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2110,22 +2108,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.129</t>
+          <t>2.16.840.1.113883.4.642.3.131</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceCriticality</t>
+          <t>AllergyIntoleranceType</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceCriticality</t>
+          <t>AllergyIntoleranceType</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Estimate of the potential clinical harm, or seriousness, of a reaction to an identified substance.</t>
+          <t>Identification of the underlying physiological mechanism for a Reaction Risk.</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2143,7 +2141,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-type</t>
+          <t>http://hl7.org/fhir/ValueSet/allergyintolerance-clinical</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2158,22 +2156,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.131</t>
+          <t>2.16.840.1.113883.4.642.3.1372</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceType</t>
+          <t>AllergyIntoleranceClinicalStatusCodes</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceType</t>
+          <t>AllergyIntolerance Clinical Status Codes</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Identification of the underlying physiological mechanism for a Reaction Risk.</t>
+          <t>Preferred value set for AllergyIntolerance Clinical Status.</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2183,7 +2181,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2191,7 +2189,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/allergyintolerance-clinical</t>
+          <t>http://hl7.org/fhir/ValueSet/allergyintolerance-verification</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2206,22 +2204,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1372</t>
+          <t>2.16.840.1.113883.4.642.3.1370</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceClinicalStatusCodes</t>
+          <t>AllergyIntoleranceVerificationStatusCodes</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>AllergyIntolerance Clinical Status Codes</t>
+          <t>AllergyIntolerance Verification Status Codes</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Preferred value set for AllergyIntolerance Clinical Status.</t>
+          <t>Preferred value set for AllergyIntolerance Verification Status.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2239,7 +2237,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/allergyintolerance-verification</t>
+          <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2254,32 +2252,32 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1370</t>
+          <t>2.16.840.1.113883.4.642.3.346</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceVerificationStatusCodes</t>
+          <t>SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>AllergyIntolerance Verification Status Codes</t>
+          <t>SNOMED CT Anatomical Structure for Administration Site Codes</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Preferred value set for AllergyIntolerance Verification Status.</t>
+          <t>This value set includes Anatomical Structure codes from SNOMED CT - provided as an exemplar.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-allergyintolerance</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2287,7 +2285,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+          <t>http://hl7.org/fhir/ValueSet/body-site</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2302,27 +2300,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.346</t>
+          <t>2.16.840.1.113883.4.642.3.141</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</t>
+          <t>SNOMEDCTBodyStructures</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SNOMED CT Anatomical Structure for Administration Site Codes</t>
+          <t>SNOMED CT Body Structures</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>This value set includes Anatomical Structure codes from SNOMED CT - provided as an exemplar.</t>
+          <t>This value set includes all codes from [SNOMED CT](http://snomed.info/sct) where concept is-a 442083009 (Anatomical or acquired body site (body structure)).</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-specimen,StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-procedure,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-condition-encounter-diagnosis,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2335,7 +2333,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/body-site</t>
+          <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2345,37 +2343,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.141</t>
+          <t>2.16.840.1.113883.3.88.12.80.47</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SNOMEDCTBodyStructures</t>
+          <t>DocumentTypeValueSet</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SNOMED CT Body Structures</t>
+          <t>Document Type Value Set</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>This value set includes all codes from [SNOMED CT](http://snomed.info/sct) where concept is-a 442083009 (Anatomical or acquired body site (body structure)).</t>
+          <t>This is the code specifying the precise type of document (e.g. Pulmonary History and  Physical, Discharge Summary, Ultrasound Report, etc.). The Document Type value set includes all LOINC  values listed in HITSP C80 Table 2-144 Document Class Value Set Definition above used for Document Class,  and all LOINC values whose SCALE is DOC in the LOINC database.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-specimen,StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-procedure,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-condition-encounter-diagnosis,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
+          <t>OperationDefinition/docref</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2383,7 +2381,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
+          <t>http://hl7.org/fhir/ValueSet/c80-facilitycodes</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2398,32 +2396,32 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.3.88.12.80.47</t>
+          <t>2.16.840.1.113883.3.88.12.80.67</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>DocumentTypeValueSet</t>
+          <t>FacilityTypeCodeValueSet</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Document Type Value Set</t>
+          <t>Facility Type Code Value Set</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>This is the code specifying the precise type of document (e.g. Pulmonary History and  Physical, Discharge Summary, Ultrasound Report, etc.). The Document Type value set includes all LOINC  values listed in HITSP C80 Table 2-144 Document Class Value Set Definition above used for Document Class,  and all LOINC values whose SCALE is DOC in the LOINC database.</t>
+          <t>This is the code representing the type of organizational setting where the clinical encounter, service, interaction, or treatment occurred. The value set used for Healthcare Facility Type has been defined by HITSP to be the value set reproduced from HITSP C80 Table 2-147.</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>OperationDefinition/docref</t>
+          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2431,7 +2429,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/c80-facilitycodes</t>
+          <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2446,22 +2444,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.3.88.12.80.67</t>
+          <t>2.16.840.1.113883.3.88.12.80.72</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FacilityTypeCodeValueSet</t>
+          <t>PracticeSettingCodeValueSet</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Facility Type Code Value Set</t>
+          <t>Practice Setting Code Value Set</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>This is the code representing the type of organizational setting where the clinical encounter, service, interaction, or treatment occurred. The value set used for Healthcare Facility Type has been defined by HITSP to be the value set reproduced from HITSP C80 Table 2-147.</t>
+          <t>This is the code representing the clinical specialty of the clinician or provider who interacted with, treated, or provided a service to/for the patient. The value set used for clinical specialty has been limited by HITSP to the value set reproduced from HITSP C80 Table 2-149 Clinical Specialty Value Set Definition.</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2479,7 +2477,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+          <t>http://hl7.org/fhir/ValueSet/care-plan-activity-kind</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2489,37 +2487,37 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.3.88.12.80.72</t>
+          <t>2.16.840.1.113883.4.642.3.145</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PracticeSettingCodeValueSet</t>
+          <t>CarePlanActivityKind</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Practice Setting Code Value Set</t>
+          <t>Care Plan Activity Kind</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>This is the code representing the clinical specialty of the clinician or provider who interacted with, treated, or provided a service to/for the patient. The value set used for clinical specialty has been limited by HITSP to the value set reproduced from HITSP C80 Table 2-149 Clinical Specialty Value Set Definition.</t>
+          <t>Resource types defined as part of FHIR that can be represented as in-line definitions of a care plan activity.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
+          <t>StructureDefinition/us-core-careplan</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2527,7 +2525,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/care-plan-activity-kind</t>
+          <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2542,22 +2540,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.145</t>
+          <t>2.16.840.1.113883.4.642.3.149</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CarePlanActivityKind</t>
+          <t>CarePlanActivityOutcome</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Care Plan Activity Kind</t>
+          <t>Care Plan Activity Outcome</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Resource types defined as part of FHIR that can be represented as in-line definitions of a care plan activity.</t>
+          <t>Example codes indicating the outcome of a care plan activity. Note that these are in no way complete and might not even be appropriate for some uses.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2567,7 +2565,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2575,7 +2573,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome</t>
+          <t>http://hl7.org/fhir/ValueSet/care-plan-activity-status</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2590,22 +2588,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.149</t>
+          <t>2.16.840.1.113883.4.642.3.146</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CarePlanActivityOutcome</t>
+          <t>CarePlanActivityStatus</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Care Plan Activity Outcome</t>
+          <t>CarePlanActivityStatus</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Example codes indicating the outcome of a care plan activity. Note that these are in no way complete and might not even be appropriate for some uses.</t>
+          <t>Codes that reflect the current state of a care plan activity within its overall life cycle.</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2615,7 +2613,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2623,7 +2621,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/care-plan-activity-status</t>
+          <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2638,22 +2636,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.146</t>
+          <t>2.16.840.1.113883.4.642.3.148</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CarePlanActivityStatus</t>
+          <t>CarePlanCategory</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CarePlanActivityStatus</t>
+          <t>Care Plan Category</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Codes that reflect the current state of a care plan activity within its overall life cycle.</t>
+          <t>Example codes indicating the category a care plan falls within.  Note that these are in no way complete and might not even be appropriate for some uses.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2663,7 +2661,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2671,7 +2669,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
+          <t>http://hl7.org/fhir/ValueSet/care-plan-intent</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2686,22 +2684,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.148</t>
+          <t>2.16.840.1.113883.4.642.3.150</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CarePlanCategory</t>
+          <t>CarePlanIntent</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Care Plan Category</t>
+          <t>Care Plan Intent</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Example codes indicating the category a care plan falls within.  Note that these are in no way complete and might not even be appropriate for some uses.</t>
+          <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2711,7 +2709,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2719,7 +2717,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/care-plan-intent</t>
+          <t>http://hl7.org/fhir/ValueSet/care-team-category</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2734,32 +2732,32 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.150</t>
+          <t>2.16.840.1.113883.4.642.3.155</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>CarePlanIntent</t>
+          <t>CareTeamCategory</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Care Plan Intent</t>
+          <t>Care Team category</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
+          <t>Indicates the type of care team.</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-careplan</t>
+          <t>StructureDefinition/us-core-careteam</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2767,7 +2765,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/care-team-category</t>
+          <t>http://hl7.org/fhir/ValueSet/care-team-status</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2782,22 +2780,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.155</t>
+          <t>2.16.840.1.113883.4.642.3.153</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CareTeamCategory</t>
+          <t>CareTeamStatus</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Care Team category</t>
+          <t>CareTeamStatus</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Indicates the type of care team.</t>
+          <t>Indicates the status of the care team.</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2807,7 +2805,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2815,7 +2813,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/care-team-status</t>
+          <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2830,32 +2828,32 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.153</t>
+          <t>2.16.840.1.113883.4.642.3.232</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CareTeamStatus</t>
+          <t>SNOMEDCTClinicalFindings</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>CareTeamStatus</t>
+          <t>SNOMED CT Clinical Findings</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Indicates the status of the care team.</t>
+          <t>This value set includes all the "Clinical finding" [SNOMED CT](http://snomed.info/sct) codes - concepts where concept is-a 404684003 (Clinical finding (finding)).</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-careteam</t>
+          <t>StructureDefinition/us-core-diagnosticreport-note,StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-goal,StructureDefinition/us-core-careteam,StructureDefinition/us-core-careplan,StructureDefinition/us-core-allergyintolerance</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2863,7 +2861,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+          <t>http://hl7.org/fhir/ValueSet/common-tags</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2878,32 +2876,32 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.232</t>
+          <t>2.16.840.1.113883.4.642.3.79</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SNOMEDCTClinicalFindings</t>
+          <t>CommonTags</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SNOMED CT Clinical Findings</t>
+          <t>Common Tags</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>This value set includes all the "Clinical finding" [SNOMED CT](http://snomed.info/sct) codes - concepts where concept is-a 404684003 (Clinical finding (finding)).</t>
+          <t>Common Tag Codes defined by FHIR project</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-diagnosticreport-note,StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-careteam,StructureDefinition/us-core-goal,StructureDefinition/us-core-careplan,StructureDefinition/us-core-allergyintolerance</t>
+          <t>StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-encounter,StructureDefinition/us-core-observation-lab</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2911,7 +2909,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+          <t>http://hl7.org/fhir/ValueSet/composition-status</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2926,32 +2924,32 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.79</t>
+          <t>2.16.840.1.113883.4.642.3.241</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CommonTags</t>
+          <t>CompositionStatus</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Common Tags</t>
+          <t>CompositionStatus</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Common Tag Codes defined by FHIR project</t>
+          <t>The workflow/clinical status of the composition.</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-encounter,StructureDefinition/us-core-observation-lab</t>
+          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -2959,7 +2957,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/composition-status</t>
+          <t>http://hl7.org/fhir/ValueSet/condition-category</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2974,32 +2972,32 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.241</t>
+          <t>2.16.840.1.113883.4.642.3.162</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CompositionStatus</t>
+          <t>ConditionCategoryCodes</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>CompositionStatus</t>
+          <t>Condition Category Codes</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>The workflow/clinical status of the composition.</t>
+          <t>Preferred value set for Condition Categories.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-condition-encounter-diagnosis</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3007,7 +3005,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/condition-category</t>
+          <t>http://hl7.org/fhir/ValueSet/condition-clinical</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3022,22 +3020,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.162</t>
+          <t>2.16.840.1.113883.4.642.3.164</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ConditionCategoryCodes</t>
+          <t>ConditionClinicalStatusCodes</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Condition Category Codes</t>
+          <t>Condition Clinical Status Codes</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Preferred value set for Condition Categories.</t>
+          <t>Preferred value set for Condition Clinical Status.</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3055,7 +3053,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/condition-clinical</t>
+          <t>http://hl7.org/fhir/ValueSet/condition-code</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3070,32 +3068,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.164</t>
+          <t>2.16.840.1.113883.4.642.3.161</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ConditionClinicalStatusCodes</t>
+          <t>Condition/Problem/DiagnosisCodes</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Condition Clinical Status Codes</t>
+          <t>Condition/Problem/Diagnosis Codes</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Preferred value set for Condition Clinical Status.</t>
+          <t>Example value set for Condition/Problem/Diagnosis codes.</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-condition-encounter-diagnosis</t>
+          <t>StructureDefinition/us-core-procedure</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3103,7 +3101,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+          <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3118,27 +3116,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.161</t>
+          <t>2.16.840.1.113883.4.642.3.168</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Condition/Problem/DiagnosisCodes</t>
+          <t>Condition/DiagnosisSeverity</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Condition/Problem/Diagnosis Codes</t>
+          <t>Condition/Diagnosis Severity</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Example value set for Condition/Problem/Diagnosis codes.</t>
+          <t>Preferred value set for Condition/Diagnosis severity grading.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-procedure</t>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-condition-encounter-diagnosis</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3151,7 +3149,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
+          <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3166,22 +3164,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.168</t>
+          <t>2.16.840.1.113883.4.642.3.170</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Condition/DiagnosisSeverity</t>
+          <t>ConditionStage</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Condition/Diagnosis Severity</t>
+          <t>Condition Stage</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Preferred value set for Condition/Diagnosis severity grading.</t>
+          <t>Example value set for stages of cancer and other conditions.</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3199,7 +3197,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
+          <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3214,22 +3212,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.170</t>
+          <t>2.16.840.1.113883.4.642.3.171</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ConditionStage</t>
+          <t>ConditionStageType</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Condition Stage</t>
+          <t>Condition Stage Type</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Example value set for stages of cancer and other conditions.</t>
+          <t>Example value set for the type of stages of cancer and other conditions</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3247,7 +3245,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
+          <t>http://hl7.org/fhir/ValueSet/condition-ver-status</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3262,22 +3260,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.171</t>
+          <t>2.16.840.1.113883.4.642.3.166</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ConditionStageType</t>
+          <t>ConditionVerificationStatus</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Condition Stage Type</t>
+          <t>ConditionVerificationStatus</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Example value set for the type of stages of cancer and other conditions</t>
+          <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3287,7 +3285,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3295,7 +3293,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/condition-ver-status</t>
+          <t>http://hl7.org/fhir/ValueSet/contact-point-system</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3305,37 +3303,37 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.166</t>
+          <t>2.16.840.1.113883.4.642.3.71</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ConditionVerificationStatus</t>
+          <t>ContactPointSystem</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ConditionVerificationStatus</t>
+          <t>ContactPointSystem</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
+          <t>Telecommunications form for contact point.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-condition-encounter-diagnosis</t>
+          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-practitionerrole,StructureDefinition/us-core-organization</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3343,7 +3341,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/contact-point-system</t>
+          <t>http://hl7.org/fhir/ValueSet/contact-point-use</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3358,22 +3356,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.71</t>
+          <t>2.16.840.1.113883.4.642.3.73</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ContactPointSystem</t>
+          <t>ContactPointUse</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ContactPointSystem</t>
+          <t>ContactPointUse</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Telecommunications form for contact point.</t>
+          <t>Use of contact point.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3391,7 +3389,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/contact-point-use</t>
+          <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3401,37 +3399,37 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.73</t>
+          <t>2.16.840.1.113883.4.642.3.416</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ContactPointUse</t>
+          <t>ContactEntityType</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ContactPointUse</t>
+          <t>Contact entity type</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Use of contact point.</t>
+          <t>This example value set defines a set of codes that can be used to indicate the purpose for which you would contact a contact party.</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-practitionerrole,StructureDefinition/us-core-organization</t>
+          <t>StructureDefinition/us-core-organization</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3439,7 +3437,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+          <t>http://hl7.org/fhir/ValueSet/coverage-class</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3454,27 +3452,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.416</t>
+          <t>2.16.840.1.113883.4.642.3.1009</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ContactEntityType</t>
+          <t>CoverageClassCodes</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Contact entity type</t>
+          <t>Coverage Class Codes</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>This example value set defines a set of codes that can be used to indicate the purpose for which you would contact a contact party.</t>
+          <t>This value set includes Coverage Class codes.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-organization</t>
+          <t>StructureDefinition/us-core-coverage</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3487,7 +3485,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/coverage-class</t>
+          <t>http://hl7.org/fhir/ValueSet/coverage-copay-type</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3502,22 +3500,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1009</t>
+          <t>2.16.840.1.113883.4.642.3.527</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>CoverageClassCodes</t>
+          <t>CoverageCopayTypeCodes</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Coverage Class Codes</t>
+          <t>Coverage Copay Type Codes</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>This value set includes Coverage Class codes.</t>
+          <t>This value set includes sample Coverage Copayment Type codes.</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3535,7 +3533,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/coverage-copay-type</t>
+          <t>http://hl7.org/fhir/ValueSet/coverage-financial-exception</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3550,22 +3548,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.527</t>
+          <t>2.16.840.1.113883.4.642.3.1328</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CoverageCopayTypeCodes</t>
+          <t>ExampleCoverageFinancialExceptionCodes</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Coverage Copay Type Codes</t>
+          <t>Example Coverage Financial Exception Codes</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>This value set includes sample Coverage Copayment Type codes.</t>
+          <t>This value set includes Example Coverage Financial Exception Codes.</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3583,7 +3581,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/coverage-financial-exception</t>
+          <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3593,32 +3591,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1328</t>
+          <t>2.16.840.1.113883.4.642.3.5</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ExampleCoverageFinancialExceptionCodes</t>
+          <t>DataAbsentReason</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Example Coverage Financial Exception Codes</t>
+          <t>DataAbsentReason</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>This value set includes Example Coverage Financial Exception Codes.</t>
+          <t>Used to specify why the normally expected content of the data element is missing.</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-coverage</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3631,7 +3629,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/days-of-week</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3646,32 +3644,32 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.5</t>
+          <t>2.16.840.1.113883.4.642.3.512</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>DataAbsentReason</t>
+          <t>DaysOfWeek</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>DataAbsentReason</t>
+          <t>DaysOfWeek</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Used to specify why the normally expected content of the data element is missing.</t>
+          <t>The days of the week.</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-practitionerrole,StructureDefinition/us-core-location</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3679,7 +3677,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/days-of-week</t>
+          <t>http://hl7.org/fhir/ValueSet/device-action</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3689,37 +3687,37 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.512</t>
+          <t>2.16.840.1.113883.4.642.3.425</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DaysOfWeek</t>
+          <t>ProcedureDeviceActionCodes</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>DaysOfWeek</t>
+          <t>Procedure Device Action Codes</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>The days of the week.</t>
+          <t>Example codes indicating the change that happened to the device during the procedure.  Note that these are in no way complete and might not even be appropriate for some uses.</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitionerrole,StructureDefinition/us-core-location</t>
+          <t>StructureDefinition/us-core-procedure</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3727,7 +3725,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/device-action</t>
+          <t>http://hl7.org/fhir/ValueSet/device-kind</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3742,27 +3740,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.425</t>
+          <t>2.16.840.1.113883.4.642.3.208</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ProcedureDeviceActionCodes</t>
+          <t>FHIRDeviceTypes</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Procedure Device Action Codes</t>
+          <t>FHIR Device Types</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Example codes indicating the change that happened to the device during the procedure.  Note that these are in no way complete and might not even be appropriate for some uses.</t>
+          <t>Codes used to identify medical devices. Includes concepts from SNOMED CT (http://www.snomed.org/) where concept is-a 49062001 (Device)  and is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-procedure</t>
+          <t>StructureDefinition/us-core-implantable-device,StructureDefinition/us-core-procedure</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3775,7 +3773,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/device-kind</t>
+          <t>http://hl7.org/fhir/ValueSet/device-nametype</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3790,32 +3788,32 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.208</t>
+          <t>2.16.840.1.113883.4.642.3.1083</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FHIRDeviceTypes</t>
+          <t>DeviceNameType</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FHIR Device Types</t>
+          <t>DeviceNameType</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Codes used to identify medical devices. Includes concepts from SNOMED CT (http://www.snomed.org/) where concept is-a 49062001 (Device)  and is provided as a suggestive example.</t>
+          <t>The type of name the device is referred by.</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-implantable-device,StructureDefinition/us-core-procedure</t>
+          <t>StructureDefinition/us-core-implantable-device</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3823,7 +3821,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/device-nametype</t>
+          <t>http://hl7.org/fhir/ValueSet/device-status</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3838,22 +3836,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1083</t>
+          <t>2.16.840.1.113883.4.642.3.209</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>DeviceNameType</t>
+          <t>FHIRDeviceStatus</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>DeviceNameType</t>
+          <t>FHIRDeviceStatus</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>The type of name the device is referred by.</t>
+          <t>The availability status of the device.</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3871,7 +3869,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/device-status</t>
+          <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3886,22 +3884,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.209</t>
+          <t>2.16.840.1.113883.4.642.3.1081</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FHIRDeviceStatus</t>
+          <t>FHIRDeviceStatusReason</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>FHIRDeviceStatus</t>
+          <t>FHIRDeviceStatusReason</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>The availability status of the device.</t>
+          <t>The availability status reason of the device.</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3911,7 +3909,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3919,7 +3917,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3934,27 +3932,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1081</t>
+          <t>2.16.840.1.113883.4.642.3.49</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FHIRDeviceStatusReason</t>
+          <t>DiagnosisRole</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>FHIRDeviceStatusReason</t>
+          <t>DiagnosisRole</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>The availability status reason of the device.</t>
+          <t>This value set defines a set of codes that can be used to express the role of a diagnosis on the Encounter or EpisodeOfCare record.</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-implantable-device</t>
+          <t>StructureDefinition/us-core-encounter</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3967,7 +3965,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+          <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3982,32 +3980,32 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.49</t>
+          <t>2.16.840.1.113883.4.642.3.235</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>DiagnosisRole</t>
+          <t>DiagnosticReportStatus</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>DiagnosisRole</t>
+          <t>DiagnosticReportStatus</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to express the role of a diagnosis on the Encounter or EpisodeOfCare record.</t>
+          <t>The status of the diagnostic report.</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>StructureDefinition/us-core-diagnosticreport-note,StructureDefinition/us-core-diagnosticreport-lab</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4015,7 +4013,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
+          <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4030,22 +4028,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.235</t>
+          <t>2.16.840.1.113883.4.642.3.234</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>DiagnosticReportStatus</t>
+          <t>DiagnosticServiceSectionCodes</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>DiagnosticReportStatus</t>
+          <t>Diagnostic Service Section Codes</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>The status of the diagnostic report.</t>
+          <t>This value set includes all the codes in HL7 V2 table 0074.</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4055,7 +4053,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO (V2)</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4063,7 +4061,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+          <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4073,37 +4071,37 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.234</t>
+          <t>2.16.840.1.113883.3.88.12.80.46</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>DiagnosticServiceSectionCodes</t>
+          <t>DocumentClassValueSet</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Diagnostic Service Section Codes</t>
+          <t>Document Class Value Set</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>This value set includes all the codes in HL7 V2 table 0074.</t>
+          <t>This is the code specifying the high-level kind of document (e.g. Prescription, Discharge Summary, Report, etc.). Note: Class code for documents comes from LOINC, and is based upon one of the following:The type of service described by the document. It is described at a very high level in Section 7.3 of the LOINC Manual. The type study performed. It was determined by identifying modalities for study reports. The section of the chart where the document is placed. It was determined from the SETs created for Claims Attachment requests.</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-diagnosticreport-note,StructureDefinition/us-core-diagnosticreport-lab</t>
+          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4111,7 +4109,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+          <t>http://hl7.org/fhir/ValueSet/document-reference-status</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4121,27 +4119,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.3.88.12.80.46</t>
+          <t>2.16.840.1.113883.4.642.3.7</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>DocumentClassValueSet</t>
+          <t>DocumentReferenceStatus</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Document Class Value Set</t>
+          <t>DocumentReferenceStatus</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>This is the code specifying the high-level kind of document (e.g. Prescription, Discharge Summary, Report, etc.). Note: Class code for documents comes from LOINC, and is based upon one of the following:The type of service described by the document. It is described at a very high level in Section 7.3 of the LOINC Manual. The type study performed. It was determined by identifying modalities for study reports. The section of the chart where the document is placed. It was determined from the SETs created for Claims Attachment requests.</t>
+          <t>The status of the document reference.</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4151,7 +4149,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4159,7 +4157,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/document-reference-status</t>
+          <t>http://hl7.org/fhir/ValueSet/document-relationship-type</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4174,22 +4172,22 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.7</t>
+          <t>2.16.840.1.113883.4.642.3.244</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>DocumentReferenceStatus</t>
+          <t>DocumentRelationshipType</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>DocumentReferenceStatus</t>
+          <t>DocumentRelationshipType</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>The status of the document reference.</t>
+          <t>The type of relationship between documents.</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4207,7 +4205,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/document-relationship-type</t>
+          <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4222,32 +4220,32 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.244</t>
+          <t>2.16.840.1.113883.4.642.3.981</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>DocumentRelationshipType</t>
+          <t>DoseAndRateType</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>DocumentRelationshipType</t>
+          <t>DoseAndRateType</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>The type of relationship between documents.</t>
+          <t>The kind of dose or rate specified.</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4255,7 +4253,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
+          <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4270,27 +4268,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.981</t>
+          <t>2.16.840.1.113883.4.642.3.257</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>DoseAndRateType</t>
+          <t>AdmitSource</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>DoseAndRateType</t>
+          <t>Admit source</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>The kind of dose or rate specified.</t>
+          <t>This value set defines a set of codes that can be used to indicate from where the patient came in.</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-encounter</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4303,7 +4301,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
+          <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4318,22 +4316,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.257</t>
+          <t>2.16.840.1.113883.4.642.3.255</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>AdmitSource</t>
+          <t>Diet</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Admit source</t>
+          <t>Diet</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to indicate from where the patient came in.</t>
+          <t>This value set defines a set of codes that can be used to indicate dietary preferences or restrictions a patient may have.</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4351,7 +4349,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+          <t>http://hl7.org/fhir/ValueSet/encounter-location-status</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4366,22 +4364,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.255</t>
+          <t>2.16.840.1.113883.4.642.3.262</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Diet</t>
+          <t>EncounterLocationStatus</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Diet</t>
+          <t>EncounterLocationStatus</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to indicate dietary preferences or restrictions a patient may have.</t>
+          <t>The status of the location.</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4391,7 +4389,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4399,7 +4397,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/encounter-location-status</t>
+          <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4414,22 +4412,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.262</t>
+          <t>2.16.840.1.113883.4.642.3.250</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>EncounterLocationStatus</t>
+          <t>ParticipantType</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>EncounterLocationStatus</t>
+          <t>Participant type</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>The status of the location.</t>
+          <t>This value set defines a set of codes that can be used to indicate how an individual participates in an encounter.</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4439,7 +4437,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO (V3),THO</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -4447,7 +4445,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+          <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4462,22 +4460,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.250</t>
+          <t>2.16.840.1.113883.4.642.3.261</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ParticipantType</t>
+          <t>EncounterReasonCodes</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Participant type</t>
+          <t>Encounter Reason Codes</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to indicate how an individual participates in an encounter.</t>
+          <t>This examples value set defines the set of codes that can be used to indicate reasons for an encounter.</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4487,7 +4485,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>THO (V3),THO</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4495,7 +4493,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4510,22 +4508,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.261</t>
+          <t>2.16.840.1.113883.4.642.3.253</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>EncounterReasonCodes</t>
+          <t>SpecialArrangements</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Encounter Reason Codes</t>
+          <t>Special arrangements</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>This examples value set defines the set of codes that can be used to indicate reasons for an encounter.</t>
+          <t>This value set defines a set of codes that can be used to indicate the kinds of special arrangements in place for a patients visit.</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4535,7 +4533,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4543,7 +4541,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+          <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4558,22 +4556,22 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.253</t>
+          <t>2.16.840.1.113883.4.642.3.252</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SpecialArrangements</t>
+          <t>SpecialCourtesy</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Special arrangements</t>
+          <t>Special courtesy</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to indicate the kinds of special arrangements in place for a patients visit.</t>
+          <t>This value set defines a set of codes that can be used to indicate special courtesies provided to the patient.</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4583,7 +4581,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4591,7 +4589,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+          <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4606,22 +4604,22 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.252</t>
+          <t>2.16.840.1.113883.4.642.3.246</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SpecialCourtesy</t>
+          <t>EncounterStatus</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Special courtesy</t>
+          <t>EncounterStatus</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to indicate special courtesies provided to the patient.</t>
+          <t>Current state of the encounter.</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4631,7 +4629,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>THO (V3)</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4639,7 +4637,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
+          <t>http://hl7.org/fhir/ValueSet/event-status</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4654,27 +4652,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.246</t>
+          <t>2.16.840.1.113883.4.642.3.109</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>EncounterStatus</t>
+          <t>EventStatus</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>EncounterStatus</t>
+          <t>EventStatus</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Current state of the encounter.</t>
+          <t>Codes identifying the lifecycle stage of an event.</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>StructureDefinition/us-core-procedure</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4687,7 +4685,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/event-status</t>
+          <t>http://hl7.org/fhir/ValueSet/fm-status</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4702,27 +4700,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.109</t>
+          <t>2.16.840.1.113883.4.642.3.592</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>EventStatus</t>
+          <t>FinancialResourceStatusCodes</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>EventStatus</t>
+          <t>Financial Resource Status Codes</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Codes identifying the lifecycle stage of an event.</t>
+          <t>This value set includes Status codes.</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-procedure</t>
+          <t>StructureDefinition/us-core-coverage</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4735,7 +4733,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/fm-status</t>
+          <t>http://hl7.org/fhir/ValueSet/goal-achievement</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4750,32 +4748,32 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.592</t>
+          <t>2.16.840.1.113883.4.642.3.1374</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>FinancialResourceStatusCodes</t>
+          <t>GoalAchievementStatus</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Financial Resource Status Codes</t>
+          <t>Goal achievement status</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>This value set includes Status codes.</t>
+          <t>Describes the progression, or lack thereof, towards the goal against the target.</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-coverage</t>
+          <t>StructureDefinition/us-core-goal</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4783,7 +4781,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/goal-achievement</t>
+          <t>http://hl7.org/fhir/ValueSet/goal-category</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4798,22 +4796,22 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1374</t>
+          <t>2.16.840.1.113883.4.642.3.275</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>GoalAchievementStatus</t>
+          <t>GoalCategory</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Goal achievement status</t>
+          <t>Goal category</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Describes the progression, or lack thereof, towards the goal against the target.</t>
+          <t>Example codes for grouping goals to use for filtering or presentation.</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4831,7 +4829,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/goal-category</t>
+          <t>http://hl7.org/fhir/ValueSet/goal-priority</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4846,22 +4844,22 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.275</t>
+          <t>2.16.840.1.113883.4.642.3.273</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>GoalCategory</t>
+          <t>GoalPriority</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Goal category</t>
+          <t>Goal priority</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Example codes for grouping goals to use for filtering or presentation.</t>
+          <t>Indicates the level of importance associated with reaching or sustaining a goal.</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4879,7 +4877,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/goal-priority</t>
+          <t>http://hl7.org/fhir/ValueSet/goal-start-event</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4894,22 +4892,22 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.273</t>
+          <t>2.16.840.1.113883.4.642.3.279</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>GoalPriority</t>
+          <t>GoalStartEvent</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Goal priority</t>
+          <t>Goal start event</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Indicates the level of importance associated with reaching or sustaining a goal.</t>
+          <t>Identifies types of events that might trigger the start of a goal.</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4919,7 +4917,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4927,7 +4925,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/goal-start-event</t>
+          <t>http://hl7.org/fhir/ValueSet/goal-status</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4942,22 +4940,22 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.279</t>
+          <t>2.16.840.1.113883.4.642.3.271</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>GoalStartEvent</t>
+          <t>GoalLifecycleStatus</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Goal start event</t>
+          <t>GoalLifecycleStatus</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Identifies types of events that might trigger the start of a goal.</t>
+          <t>Codes that reflect the current state of a goal and whether the goal is still being targeted.</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4967,7 +4965,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -4975,7 +4973,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/goal-status</t>
+          <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4985,37 +4983,37 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.271</t>
+          <t>2.16.840.1.113883.4.642.3.45</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>GoalLifecycleStatus</t>
+          <t>Identifier Type Codes</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>GoalLifecycleStatus</t>
+          <t>IdentifierType</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Codes that reflect the current state of a goal and whether the goal is still being targeted.</t>
+          <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-goal</t>
+          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-encounter,StructureDefinition/us-core-coverage,StructureDefinition/us-core-organization</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO (V2)</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -5023,7 +5021,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+          <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5038,22 +5036,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.45</t>
+          <t>2.16.840.1.113883.4.642.3.57</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Identifier Type Codes</t>
+          <t>IdentifierUse</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>IdentifierType</t>
+          <t>IdentifierUse</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+          <t>Identifies the purpose for this identifier, if known .</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5063,7 +5061,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5071,7 +5069,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5081,37 +5079,37 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.57</t>
+          <t>2.16.840.1.113883.4.642.3.995</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>IdentifierUse</t>
+          <t>ImmunizationFunctionCodes</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>IdentifierUse</t>
+          <t>Immunization Function Codes</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Identifies the purpose for this identifier, if known .</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the function a practitioner or organization may play in the immunization event. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-encounter,StructureDefinition/us-core-coverage,StructureDefinition/us-core-organization</t>
+          <t>StructureDefinition/us-core-immunization</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO (V2)</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5119,7 +5117,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5134,22 +5132,22 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.995</t>
+          <t>2.16.840.1.113883.4.642.3.293</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ImmunizationFunctionCodes</t>
+          <t>ImmunizationFundingSource</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Immunization Function Codes</t>
+          <t>Immunization Funding Source</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the function a practitioner or organization may play in the immunization event. This value set is provided as a suggestive example.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the source of the vaccine administered. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5159,7 +5157,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5167,7 +5165,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5182,22 +5180,22 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.293</t>
+          <t>2.16.840.1.113883.4.642.3.296</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ImmunizationFundingSource</t>
+          <t>ImmunizationOriginCodes</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Immunization Funding Source</t>
+          <t>Immunization Origin Codes</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the source of the vaccine administered. This value set is provided as a suggestive example.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the source of the data when the report of the immunization event is not based on information from the person, entity or organization who administered the vaccine. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5215,7 +5213,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5230,22 +5228,22 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.296</t>
+          <t>2.16.840.1.113883.4.642.3.291</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ImmunizationOriginCodes</t>
+          <t>ImmunizationProgramEligibility</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Immunization Origin Codes</t>
+          <t>Immunization Program Eligibility</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the source of the data when the report of the immunization event is not based on information from the person, entity or organization who administered the vaccine. This value set is provided as a suggestive example.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the patient's eligibility for a vaccination program. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5263,7 +5261,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5278,22 +5276,22 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.291</t>
+          <t>2.16.840.1.113883.4.642.3.290</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ImmunizationProgramEligibility</t>
+          <t>ImmunizationReasonCodes</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Immunization Program Eligibility</t>
+          <t>Immunization Reason Codes</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the patient's eligibility for a vaccination program. This value set is provided as a suggestive example.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the reason why a dose of vaccine was administered. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5303,7 +5301,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5311,7 +5309,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5326,22 +5324,22 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.290</t>
+          <t>2.16.840.1.113883.4.642.3.289</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ImmunizationReasonCodes</t>
+          <t>ImmunizationRouteCodes</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Immunization Reason Codes</t>
+          <t>Immunization Route Codes</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the reason why a dose of vaccine was administered. This value set is provided as a suggestive example.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the administrative routes used during vaccination. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5351,7 +5349,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5359,7 +5357,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5374,22 +5372,22 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.289</t>
+          <t>2.16.840.1.113883.4.642.3.288</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ImmunizationRouteCodes</t>
+          <t>CodesForImmunizationSiteOfAdministration</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Immunization Route Codes</t>
+          <t>Codes for Immunization Site of Administration</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the administrative routes used during vaccination. This value set is provided as a suggestive example.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the body site where the vaccination occurred. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5407,7 +5405,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-status</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5422,22 +5420,22 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.288</t>
+          <t>2.16.840.1.113883.4.642.3.295</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>CodesForImmunizationSiteOfAdministration</t>
+          <t>ImmunizationStatusCodes</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Codes for Immunization Site of Administration</t>
+          <t>Immunization Status Codes</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the body site where the vaccination occurred. This value set is provided as a suggestive example.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the current status of the administered dose of vaccine.</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5447,7 +5445,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>THO (V3)</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5455,7 +5453,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-status</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5470,22 +5468,22 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.295</t>
+          <t>2.16.840.1.113883.4.642.3.992</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ImmunizationStatusCodes</t>
+          <t>ImmunizationStatusReasonCodes</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Immunization Status Codes</t>
+          <t>Immunization Status Reason Codes</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the current status of the administered dose of vaccine.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the reason why a dose of vaccine was not administered. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5495,7 +5493,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO (V3),SCT</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5503,7 +5501,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5518,22 +5516,22 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.992</t>
+          <t>2.16.840.1.113883.4.642.3.993</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ImmunizationStatusReasonCodes</t>
+          <t>ImmunizationSubpotentReason</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Immunization Status Reason Codes</t>
+          <t>Immunization Subpotent Reason</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the reason why a dose of vaccine was not administered. This value set is provided as a suggestive example.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the reason why a dose is considered to be subpotent. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5543,7 +5541,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>THO (V3),SCT</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5551,7 +5549,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-target-disease</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5566,22 +5564,22 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.993</t>
+          <t>2.16.840.1.113883.4.642.3.1047</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ImmunizationSubpotentReason</t>
+          <t>ImmunizationTargetDiseaseCodes</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Immunization Subpotent Reason</t>
+          <t>Immunization Target Disease Codes</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the reason why a dose is considered to be subpotent. This value set is provided as a suggestive example.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the disease that the dose is being administered against. This value set is provided as a suggestive example and includes the SNOMED CT concepts from the 64572001 (Disease) hierarchy.</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5591,7 +5589,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5599,7 +5597,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-target-disease</t>
+          <t>http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5614,32 +5612,32 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1047</t>
+          <t>2.16.840.1.113883.4.642.3.20</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ImmunizationTargetDiseaseCodes</t>
+          <t>CommonLanguages</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Immunization Target Disease Codes</t>
+          <t>Common Languages</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the disease that the dose is being administered against. This value set is provided as a suggestive example and includes the SNOMED CT concepts from the 64572001 (Disease) hierarchy.</t>
+          <t>This value set includes common codes from BCP-47 (http://tools.ietf.org/html/bcp47)</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-immunization</t>
+          <t>StructureDefinition/us-core-specimen,StructureDefinition/us-core-documentreference,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-procedure,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-careplan,StructureDefinition/us-core-organization,StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-practitioner,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-practitionerrole,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-patient,StructureDefinition/us-core-provenance,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-questionnaireresponse,StructureDefinition/us-core-condition-encounter-diagnosis,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-implantable-device,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-medicationdispense,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-encounter,StructureDefinition/us-core-bmi,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-coverage,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-diagnosticreport-note,StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-medication,StructureDefinition/us-core-careteam,StructureDefinition/us-core-goal,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-relatedperson,StructureDefinition/us-core-immunization,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-location,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-allergyintolerance,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.terminology</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5647,7 +5645,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/languages</t>
+          <t>http://hl7.org/fhir/ValueSet/link-type</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5657,37 +5655,37 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.20</t>
+          <t>2.16.840.1.113883.4.642.3.423</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>CommonLanguages</t>
+          <t>LinkType</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Common Languages</t>
+          <t>LinkType</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>This value set includes common codes from BCP-47 (http://tools.ietf.org/html/bcp47)</t>
+          <t>The type of link between this patient resource and another patient resource.</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-specimen,StructureDefinition/us-core-documentreference,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-procedure,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-careplan,StructureDefinition/us-core-organization,StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-practitioner,StructureDefinition/us-core-practitionerrole,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-patient,StructureDefinition/us-core-provenance,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-questionnaireresponse,StructureDefinition/us-core-condition-encounter-diagnosis,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-implantable-device,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-medicationdispense,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-encounter,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-coverage,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-diagnosticreport-note,StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medication,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-goal,StructureDefinition/us-core-careteam,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-immunization,StructureDefinition/us-core-relatedperson,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-location,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-allergyintolerance,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-patient</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>hl7.terminology</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5695,7 +5693,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/link-type</t>
+          <t>http://hl7.org/fhir/ValueSet/location-mode</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5705,32 +5703,32 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.423</t>
+          <t>2.16.840.1.113883.4.642.3.330</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>LinkType</t>
+          <t>LocationMode</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>LinkType</t>
+          <t>LocationMode</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>The type of link between this patient resource and another patient resource.</t>
+          <t>Indicates whether a resource instance represents a specific location or a class of locations.</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-patient</t>
+          <t>StructureDefinition/us-core-location</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -5743,7 +5741,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/location-mode</t>
+          <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5758,32 +5756,32 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.330</t>
+          <t>2.16.840.1.113883.4.642.3.328</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>LocationMode</t>
+          <t>LocationType</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>LocationMode</t>
+          <t>Location type</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Indicates whether a resource instance represents a specific location or a class of locations.</t>
+          <t>This example value set defines a set of codes that can be used to indicate the physical form of the Location.</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-location</t>
+          <t>StructureDefinition/us-core-encounter,StructureDefinition/us-core-location</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5791,7 +5789,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+          <t>http://hl7.org/fhir/ValueSet/location-status</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5806,32 +5804,32 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.328</t>
+          <t>2.16.840.1.113883.4.642.3.332</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>LocationType</t>
+          <t>LocationStatus</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Location type</t>
+          <t>LocationStatus</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>This example value set defines a set of codes that can be used to indicate the physical form of the Location.</t>
+          <t>Indicates whether the location is still in use.</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter,StructureDefinition/us-core-location</t>
+          <t>StructureDefinition/us-core-location</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5839,7 +5837,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/location-status</t>
+          <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5854,32 +5852,32 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.332</t>
+          <t>2.16.840.1.113883.4.642.3.169</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>LocationStatus</t>
+          <t>ManifestationAndSymptomCodes</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>LocationStatus</t>
+          <t>Manifestation and Symptom Codes</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Indicates whether the location is still in use.</t>
+          <t>Example value set for Manifestation and Symptom codes.</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-location</t>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-condition-encounter-diagnosis</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5887,7 +5885,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
+          <t>http://hl7.org/fhir/ValueSet/marital-status</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5897,37 +5895,37 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.169</t>
+          <t>2.16.840.1.113883.4.642.3.29</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ManifestationAndSymptomCodes</t>
+          <t>Marital Status Codes</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Manifestation and Symptom Codes</t>
+          <t>MaritalStatus</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Example value set for Manifestation and Symptom codes.</t>
+          <t>This value set defines the set of codes that can be used to indicate the marital status of a person.</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-condition-encounter-diagnosis</t>
+          <t>StructureDefinition/us-core-patient</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5935,7 +5933,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+          <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5945,37 +5943,37 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.29</t>
+          <t>2.16.840.1.113883.4.642.3.96</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Marital Status Codes</t>
+          <t>SNOMEDCTMedicationAsNeededReasonCodes</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>MaritalStatus</t>
+          <t>SNOMED CT Medication As Needed Reason Codes</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>This value set defines the set of codes that can be used to indicate the marital status of a person.</t>
+          <t>This value set includes all clinical findings from SNOMED CT - provided as an exemplar value set.</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-patient</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense,StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>THO (V3)</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5983,7 +5981,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5998,27 +5996,27 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.96</t>
+          <t>2.16.840.1.113883.4.642.3.375</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SNOMEDCTMedicationAsNeededReasonCodes</t>
+          <t>SNOMEDCTMedicationCodes</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>SNOMED CT Medication As Needed Reason Codes</t>
+          <t>SNOMED CT Medication Codes</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>This value set includes all clinical findings from SNOMED CT - provided as an exemplar value set.</t>
+          <t>This value set includes all drug or medicament substance codes and all pharmaceutical/biologic products from SNOMED CT - provided as an exemplar value set.</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense,StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-careplan</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6031,7 +6029,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+          <t>http://hl7.org/fhir/ValueSet/medication-form-codes</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6046,27 +6044,27 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.375</t>
+          <t>2.16.840.1.113883.4.642.3.374</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SNOMEDCTMedicationCodes</t>
+          <t>SNOMEDCTFormCodes</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>SNOMED CT Medication Codes</t>
+          <t>SNOMED CT Form Codes</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>This value set includes all drug or medicament substance codes and all pharmaceutical/biologic products from SNOMED CT - provided as an exemplar value set.</t>
+          <t>This value set includes all dose form codes from SNOMED CT - provided as an exemplar.</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-careplan</t>
+          <t>StructureDefinition/us-core-medication</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6079,7 +6077,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medication-form-codes</t>
+          <t>http://hl7.org/fhir/ValueSet/medication-status</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6094,22 +6092,22 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.374</t>
+          <t>2.16.840.1.113883.4.642.3.376</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SNOMEDCTFormCodes</t>
+          <t>Medication Status Codes</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>SNOMED CT Form Codes</t>
+          <t>Medication  status  codes</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>This value set includes all dose form codes from SNOMED CT - provided as an exemplar.</t>
+          <t>Medication Status Codes</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6119,7 +6117,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -6127,7 +6125,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medication-status</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationdispense-category</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6142,32 +6140,32 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.376</t>
+          <t>2.16.840.1.113883.4.642.3.1314</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Medication Status Codes</t>
+          <t>MedicationDispense Category Codes</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Medication  status  codes</t>
+          <t>Medication dispense  category  codes</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Medication Status Codes</t>
+          <t>MedicationDispense Category Codes</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medication</t>
+          <t>StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -6175,7 +6173,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationdispense-category</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationdispense-performer-function</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6190,22 +6188,22 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1314</t>
+          <t>2.16.840.1.113883.4.642.3.1318</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MedicationDispense Category Codes</t>
+          <t>MedicationDispense Performer Function Codes</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Medication dispense  category  codes</t>
+          <t>Medication dispense  performer  function  codes</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>MedicationDispense Category Codes</t>
+          <t>MedicationDispense Performer Function Codes</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6223,7 +6221,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationdispense-performer-function</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationdispense-status</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6238,22 +6236,22 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1318</t>
+          <t>2.16.840.1.113883.4.642.3.1312</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MedicationDispense Performer Function Codes</t>
+          <t>MedicationDispense Status Codes</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Medication dispense  performer  function  codes</t>
+          <t>Medication dispense  status  codes</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>MedicationDispense Performer Function Codes</t>
+          <t>MedicationDispense Status Codes</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6271,7 +6269,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationdispense-status</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6286,17 +6284,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1312</t>
+          <t>2.16.840.1.113883.4.642.3.1316</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MedicationDispense Status Codes</t>
+          <t>MedicationDispense Status Reason Codes</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Medication dispense  status  codes</t>
+          <t>Medication dispense  status  reason  codes</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6319,7 +6317,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6334,27 +6332,27 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1316</t>
+          <t>2.16.840.1.113883.4.642.3.1322</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MedicationDispense Status Reason Codes</t>
+          <t>medicationRequest Category Codes</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Medication dispense  status  reason  codes</t>
+          <t>Medication request  category  codes</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>MedicationDispense Status Codes</t>
+          <t>MedicationRequest Category Codes</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-medicationrequest</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6367,7 +6365,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6382,22 +6380,22 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1322</t>
+          <t>2.16.840.1.113883.4.642.3.1326</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>medicationRequest Category Codes</t>
+          <t>medicationRequest Course of Therapy Codes</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Medication request  category  codes</t>
+          <t>Medication request  course of  therapy  codes</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>MedicationRequest Category Codes</t>
+          <t>MedicationRequest Course of Therapy Codes</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6415,7 +6413,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationrequest-intent</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6430,22 +6428,22 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1326</t>
+          <t>2.16.840.1.113883.4.642.3.1321</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>medicationRequest Course of Therapy Codes</t>
+          <t>medicationRequest Intent</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Medication request  course of  therapy  codes</t>
+          <t>Medication request  intent</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>MedicationRequest Course of Therapy Codes</t>
+          <t>MedicationRequest Intent Codes</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6455,7 +6453,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -6463,7 +6461,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationrequest-intent</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationrequest-status</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6478,22 +6476,22 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1321</t>
+          <t>2.16.840.1.113883.4.642.3.1320</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>medicationRequest Intent</t>
+          <t>medicationrequest Status</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Medication request  intent</t>
+          <t>Medicationrequest  status</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>MedicationRequest Intent Codes</t>
+          <t>MedicationRequest Status Codes</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6511,7 +6509,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationrequest-status</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6526,22 +6524,22 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1320</t>
+          <t>2.16.840.1.113883.4.642.3.1324</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>medicationrequest Status</t>
+          <t>medicationRequest Status Reason Codes</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Medicationrequest  status</t>
+          <t>Medication request  status  reason  codes</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>MedicationRequest Status Codes</t>
+          <t>MedicationRequest Status Reason Codes</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6551,7 +6549,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6559,7 +6557,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/mimetypes</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6569,37 +6567,37 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1324</t>
+          <t>2.16.840.1.113883.4.642.3.1024</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>medicationRequest Status Reason Codes</t>
+          <t>Mime Types</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Medication request  status  reason  codes</t>
+          <t>MimeType</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>MedicationRequest Status Reason Codes</t>
+          <t>This value set includes all possible codes from BCP-13 (http://tools.ietf.org/html/bcp13)</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest</t>
+          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6607,7 +6605,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/mimetypes</t>
+          <t>http://hl7.org/fhir/ValueSet/name-use</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -6622,32 +6620,32 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1024</t>
+          <t>2.16.840.1.113883.4.642.3.65</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Mime Types</t>
+          <t>NameUse</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>MimeType</t>
+          <t>NameUse</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>This value set includes all possible codes from BCP-13 (http://tools.ietf.org/html/bcp13)</t>
+          <t>The use of a human name.</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
+          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6655,7 +6653,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/name-use</t>
+          <t>http://hl7.org/fhir/ValueSet/observation-category</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6665,37 +6663,37 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.65</t>
+          <t>2.16.840.1.113883.4.642.3.403</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>NameUse</t>
+          <t>ObservationCategoryCodes</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>NameUse</t>
+          <t>Observation Category Codes</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>The use of a human name.</t>
+          <t>Observation Category codes.</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-body-height,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6703,7 +6701,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+          <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6718,32 +6716,32 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.403</t>
+          <t>2.16.840.1.113883.4.642.3.396</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ObservationCategoryCodes</t>
+          <t>LOINCCodes</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Observation Category Codes</t>
+          <t>LOINC Codes</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Observation Category codes.</t>
+          <t>This value set includes all LOINC codes</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-vital-signs,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-body-height,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-goal,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-smokingstatus</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -6751,7 +6749,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+          <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6761,37 +6759,37 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.396</t>
+          <t>2.16.840.1.113883.4.642.3.399</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>LOINCCodes</t>
+          <t>ObservationInterpretationCodes</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>LOINC Codes</t>
+          <t>Observation Interpretation Codes</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>This value set includes all LOINC codes</t>
+          <t>A categorical assessment, providing a rough qualitative interpretation of the observation value,    such as “normal”/ “abnormal”,”low” / “high”, “better” / “worse”, “susceptible” / “resistant”, “expected”/ “not expected”.    The value set is intended to be for ANY use where coded representation of an interpretation is needed.             Notes:          This is being communicated in v2.x in OBX-8 (Observation Interpretation), in v3 in ObservationInterpretation (CWE) in R1 (Representative Realm) and in FHIR in    Observation.interpretation. Historically these values come from the laboratory domain, and these codes are extensively    used. The value set binding is extensible, so codes outside the value set that are needed for interpretation concepts    (i.e. particular meanings) that are not included in the value set can be used, and these new codes may also be added to    the value set and published in a future version.</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-goal,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-smokingstatus</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -6799,7 +6797,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6809,37 +6807,37 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.399</t>
+          <t>2.16.840.1.113883.4.642.3.395</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ObservationInterpretationCodes</t>
+          <t>ObservationMethods</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Observation Interpretation Codes</t>
+          <t>Observation Methods</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>A categorical assessment, providing a rough qualitative interpretation of the observation value,    such as “normal”/ “abnormal”,”low” / “high”, “better” / “worse”, “susceptible” / “resistant”, “expected”/ “not expected”.    The value set is intended to be for ANY use where coded representation of an interpretation is needed.             Notes:          This is being communicated in v2.x in OBX-8 (Observation Interpretation), in v3 in ObservationInterpretation (CWE) in R1 (Representative Realm) and in FHIR in    Observation.interpretation. Historically these values come from the laboratory domain, and these codes are extensively    used. The value set binding is extensible, so codes outside the value set that are needed for interpretation concepts    (i.e. particular meanings) that are not included in the value set can be used, and these new codes may also be added to    the value set and published in a future version.</t>
+          <t>Observation Method codes from [SNOMED CT](http://snomed.info/sct) where concept is-a 272394005 (Technique (qualifier value)) or is-a 129264002 (Action (qualifier value)) or is-a 386053000 (Evaluation procedure(procedure))</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>THO (V3)</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6847,7 +6845,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+          <t>http://hl7.org/fhir/ValueSet/observation-status</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6857,37 +6855,37 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.395</t>
+          <t>2.16.840.1.113883.4.642.3.400</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ObservationMethods</t>
+          <t>ObservationStatus</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Observation Methods</t>
+          <t>ObservationStatus</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Observation Method codes from [SNOMED CT](http://snomed.info/sct) where concept is-a 272394005 (Technique (qualifier value)) or is-a 129264002 (Action (qualifier value)) or is-a 386053000 (Evaluation procedure(procedure))</t>
+          <t>Codes providing the status of an observation.</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6895,7 +6893,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+          <t>http://hl7.org/fhir/ValueSet/organization-type</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6905,37 +6903,37 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.400</t>
+          <t>2.16.840.1.113883.4.642.3.414</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ObservationStatus</t>
+          <t>OrganizationType</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ObservationStatus</t>
+          <t>Organization type</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Codes providing the status of an observation.</t>
+          <t>This example value set defines a set of codes that can be used to indicate a type of organization.</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-organization</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -6943,7 +6941,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/organization-type</t>
+          <t>http://hl7.org/fhir/ValueSet/participant-role</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6958,32 +6956,32 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.414</t>
+          <t>2.16.840.1.113883.4.642.3.152</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>OrganizationType</t>
+          <t>ParticipantRoles</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Organization type</t>
+          <t>Participant Roles</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>This example value set defines a set of codes that can be used to indicate a type of organization.</t>
+          <t>Roles of participants that may be included in a care team.  Defined as: Is a Person, Healthcare professional (occupation) or Healthcare related organization (qualifier value).</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-organization</t>
+          <t>StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -6991,7 +6989,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+          <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7001,37 +6999,37 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.152</t>
+          <t>2.16.840.1.113883.4.642.3.1130</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ParticipantRoles</t>
+          <t>PatientContactRelationship</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Participant Roles</t>
+          <t xml:space="preserve">Patient Contact Relationship </t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Roles of participants that may be included in a care team.  Defined as: Is a Person, Healthcare professional (occupation) or Healthcare related organization (qualifier value).</t>
+          <t>The nature of the relationship between the patient and the contact person.</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-patient</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO (V2)</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -7039,7 +7037,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+          <t>http://hl7.org/fhir/ValueSet/performer-role</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7049,37 +7047,37 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1130</t>
+          <t>2.16.840.1.113883.4.642.3.433</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>PatientContactRelationship</t>
+          <t>ProcedurePerformerRoleCodes</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Patient Contact Relationship </t>
+          <t>Procedure Performer Role Codes</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>The nature of the relationship between the patient and the contact person.</t>
+          <t>This example value set defines the set of codes that can be used to indicate a role of a procedure performer.</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-patient</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-procedure</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -7087,7 +7085,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+          <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7102,27 +7100,27 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.433</t>
+          <t>2.16.840.1.113883.4.642.3.430</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ProcedurePerformerRoleCodes</t>
+          <t>ProcedureCategoryCodes(SNOMEDCT)</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Procedure Performer Role Codes</t>
+          <t>Procedure Category Codes (SNOMED CT)</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>This example value set defines the set of codes that can be used to indicate a role of a procedure performer.</t>
+          <t>Procedure Category code: A selection of relevant SNOMED CT codes.</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-procedure</t>
+          <t>StructureDefinition/us-core-procedure</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7135,7 +7133,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
+          <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7150,27 +7148,27 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.430</t>
+          <t>2.16.840.1.113883.4.642.3.427</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ProcedureCategoryCodes(SNOMEDCT)</t>
+          <t>ProcedureCodes(SNOMEDCT)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Procedure Category Codes (SNOMED CT)</t>
+          <t>Procedure Codes (SNOMED CT)</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Procedure Category code: A selection of relevant SNOMED CT codes.</t>
+          <t>Procedure Code: All SNOMED CT procedure codes.</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-procedure</t>
+          <t>StructureDefinition/us-core-careplan</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7183,7 +7181,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+          <t>http://hl7.org/fhir/ValueSet/procedure-followup</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7198,27 +7196,27 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.427</t>
+          <t>2.16.840.1.113883.4.642.3.429</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ProcedureCodes(SNOMEDCT)</t>
+          <t>ProcedureFollowUpCodes(SNOMEDCT)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Procedure Codes (SNOMED CT)</t>
+          <t>Procedure Follow up Codes (SNOMED CT)</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Procedure Code: All SNOMED CT procedure codes.</t>
+          <t>Procedure follow up codes: A selection of SNOMED CT codes relevant to procedure follow up.</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-careplan</t>
+          <t>StructureDefinition/us-core-procedure</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7231,7 +7229,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/procedure-followup</t>
+          <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7241,27 +7239,27 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.429</t>
+          <t>2.16.840.1.113883.4.642.3.431</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ProcedureFollowUpCodes(SNOMEDCT)</t>
+          <t>ProcedureNotPerformedReason(SNOMED-CT)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Procedure Follow up Codes (SNOMED CT)</t>
+          <t>Procedure Not Performed Reason (SNOMED-CT)</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Procedure follow up codes: A selection of SNOMED CT codes relevant to procedure follow up.</t>
+          <t>Situation codes describing the reason that a procedure, which might otherwise be expected, was not performed, or a procedure that was started and was not completed. Consists of SNOMED CT codes, children of procedure contraindicated (183932001), procedure discontinued (416406003), procedure not done (416237000), procedure not indicated (428119001), procedure not offered (416064006), procedure not wanted (416432009), procedure refused (183944003), and procedure stopped (394908001).</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7279,7 +7277,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7289,27 +7287,27 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.431</t>
+          <t>2.16.840.1.113883.4.642.3.428</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ProcedureNotPerformedReason(SNOMED-CT)</t>
+          <t>ProcedureOutcomeCodes(SNOMEDCT)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Procedure Not Performed Reason (SNOMED-CT)</t>
+          <t>Procedure Outcome Codes (SNOMED CT)</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Situation codes describing the reason that a procedure, which might otherwise be expected, was not performed, or a procedure that was started and was not completed. Consists of SNOMED CT codes, children of procedure contraindicated (183932001), procedure discontinued (416406003), procedure not done (416237000), procedure not indicated (428119001), procedure not offered (416064006), procedure not wanted (416432009), procedure refused (183944003), and procedure stopped (394908001).</t>
+          <t>Procedure Outcome code: A selection of relevant SNOMED CT codes.</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7327,7 +7325,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
+          <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7342,32 +7340,32 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.428</t>
+          <t>2.16.840.1.113883.4.642.3.438</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ProcedureOutcomeCodes(SNOMEDCT)</t>
+          <t>ProvenanceActivityType</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Procedure Outcome Codes (SNOMED CT)</t>
+          <t>Provenance activity type</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Procedure Outcome code: A selection of relevant SNOMED CT codes.</t>
+          <t>This value set contains representative Activity Type codes, which includes codes from the HL7 DocumentCompletion, ActStatus, and DataOperations code system, W3C PROV-DM and PROV-N concepts and display names, several HL7 Lifecycle Event codes for which there are agreed upon definitions, and non-duplicated codes from the HL7 Security and Privacy Ontology Operations codes.</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-procedure</t>
+          <t>StructureDefinition/us-core-provenance</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7375,7 +7373,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
+          <t>http://hl7.org/fhir/ValueSet/provenance-entity-role</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7390,22 +7388,22 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.438</t>
+          <t>2.16.840.1.113883.4.642.3.436</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ProvenanceActivityType</t>
+          <t>ProvenanceEntityRole</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Provenance activity type</t>
+          <t>ProvenanceEntityRole</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>This value set contains representative Activity Type codes, which includes codes from the HL7 DocumentCompletion, ActStatus, and DataOperations code system, W3C PROV-DM and PROV-N concepts and display names, several HL7 Lifecycle Event codes for which there are agreed upon definitions, and non-duplicated codes from the HL7 Security and Privacy Ontology Operations codes.</t>
+          <t>How an entity was used in an activity.</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7415,7 +7413,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>THO (V3)</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7423,7 +7421,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/provenance-entity-role</t>
+          <t>http://hl7.org/fhir/ValueSet/quantity-comparator</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7433,32 +7431,32 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.436</t>
+          <t>2.16.840.1.113883.4.642.3.59</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ProvenanceEntityRole</t>
+          <t>QuantityComparator</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>ProvenanceEntityRole</t>
+          <t>QuantityComparator</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>How an entity was used in an activity.</t>
+          <t>How the Quantity should be understood and represented.</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-provenance</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-bmi,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7471,7 +7469,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/quantity-comparator</t>
+          <t>http://hl7.org/fhir/ValueSet/questionnaire-answers</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7481,37 +7479,37 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.59</t>
+          <t>2.16.840.1.113883.4.642.3.446</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>QuantityComparator</t>
+          <t>QuestionnaireAnswerCodes</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>QuantityComparator</t>
+          <t>Questionnaire Answer Codes</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>How the Quantity should be understood and represented.</t>
+          <t>Example list of codes for answers to questions. (Not complete or necessarily appropriate.)</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-questionnaireresponse</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7519,7 +7517,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/questionnaire-answers</t>
+          <t>http://hl7.org/fhir/ValueSet/questionnaire-answers-status</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7534,22 +7532,22 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.446</t>
+          <t>required</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>QuestionnaireAnswerCodes</t>
+          <t>QuestionnaireResponseStatus</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Questionnaire Answer Codes</t>
+          <t>QuestionnaireResponseStatus</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Example list of codes for answers to questions. (Not complete or necessarily appropriate.)</t>
+          <t>Lifecycle status of the questionnaire response.</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7559,7 +7557,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7567,7 +7565,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/questionnaire-answers-status</t>
+          <t>http://hl7.org/fhir/ValueSet/reaction-event-severity</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -7582,27 +7580,27 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>2.16.840.1.113883.4.642.3.135</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>QuestionnaireResponseStatus</t>
+          <t>AllergyIntoleranceSeverity</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>QuestionnaireResponseStatus</t>
+          <t>AllergyIntoleranceSeverity</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Lifecycle status of the questionnaire response.</t>
+          <t>Clinical assessment of the severity of a reaction event as a whole, potentially considering multiple different manifestations.</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-questionnaireresponse</t>
+          <t>StructureDefinition/us-core-allergyintolerance</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -7615,7 +7613,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/reaction-event-severity</t>
+          <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -7630,32 +7628,32 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.135</t>
+          <t>2.16.840.1.113883.4.642.3.407</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceSeverity</t>
+          <t>ObservationReferenceRangeAppliesToCodes</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceSeverity</t>
+          <t>Observation Reference Range Applies To Codes</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Clinical assessment of the severity of a reaction event as a whole, potentially considering multiple different manifestations.</t>
+          <t>This value set defines a set of codes that can be used to indicate the particular target population the reference range applies to.</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-allergyintolerance</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -7663,7 +7661,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -7678,32 +7676,32 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.407</t>
+          <t>2.16.840.1.113883.4.642.3.397</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ObservationReferenceRangeAppliesToCodes</t>
+          <t>ObservationReferenceRangeMeaningCodes</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Observation Reference Range Applies To Codes</t>
+          <t>Observation Reference Range Meaning Codes</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to indicate the particular target population the reference range applies to.</t>
+          <t>This value set defines a set of codes that can be used to indicate the meaning/use of a reference range for a particular target population.</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7711,7 +7709,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -7726,32 +7724,32 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.397</t>
+          <t>2.16.840.1.113883.4.642.3.449</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ObservationReferenceRangeMeaningCodes</t>
+          <t>PatientRelationshipType</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Observation Reference Range Meaning Codes</t>
+          <t>Patient relationship type</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to indicate the meaning/use of a reference range for a particular target population.</t>
+          <t>A set of codes that can be used to indicate the relationship between a Patient and a Related Person.</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-relatedperson</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>THO (V3),THO (V2)</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7759,7 +7757,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype</t>
+          <t>http://hl7.org/fhir/ValueSet/request-intent</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -7774,32 +7772,32 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.449</t>
+          <t>2.16.840.1.113883.4.642.3.113</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>PatientRelationshipType</t>
+          <t>RequestIntent</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Patient relationship type</t>
+          <t>RequestIntent</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>A set of codes that can be used to indicate the relationship between a Patient and a Related Person.</t>
+          <t>Codes indicating the degree of authority/intentionality associated with a request.</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-relatedperson</t>
+          <t>StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>THO (V3),THO (V2)</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7807,7 +7805,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/request-intent</t>
+          <t>http://hl7.org/fhir/ValueSet/request-priority</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -7822,27 +7820,27 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.113</t>
+          <t>2.16.840.1.113883.4.642.3.115</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>RequestIntent</t>
+          <t>RequestPriority</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>RequestIntent</t>
+          <t>Request priority</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Codes indicating the degree of authority/intentionality associated with a request.</t>
+          <t>The clinical priority of a diagnostic order.</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -7855,7 +7853,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/request-priority</t>
+          <t>http://hl7.org/fhir/ValueSet/request-status</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -7870,27 +7868,27 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.115</t>
+          <t>2.16.840.1.113883.4.642.3.111</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>RequestPriority</t>
+          <t>RequestStatus</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Request priority</t>
+          <t>RequestStatus</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>The clinical priority of a diagnostic order.</t>
+          <t>Codes identifying the lifecycle stage of a request.</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-careplan,StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -7903,7 +7901,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/request-status</t>
+          <t>http://hl7.org/fhir/ValueSet/resource-types</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -7913,32 +7911,32 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.111</t>
+          <t>2.16.840.1.113883.4.642.3.27</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>RequestStatus</t>
+          <t>ResourceType</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>RequestStatus</t>
+          <t>ResourceType</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Codes identifying the lifecycle stage of a request.</t>
+          <t>One of the resource types defined as part of this version of FHIR.</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-careplan,StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-provenance</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -7951,7 +7949,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+          <t>http://hl7.org/fhir/ValueSet/route-codes</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7961,37 +7959,37 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.27</t>
+          <t>2.16.840.1.113883.4.642.3.98</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>ResourceType</t>
+          <t>SNOMEDCTRouteCodes</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>ResourceType</t>
+          <t>SNOMED CT Route Codes</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>One of the resource types defined as part of this version of FHIR.</t>
+          <t>This value set includes all Route codes from SNOMED CT - provided as an exemplar.</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-provenance</t>
+          <t>StructureDefinition/us-core-allergyintolerance</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -7999,7 +7997,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+          <t>http://hl7.org/fhir/ValueSet/security-labels</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8009,45 +8007,41 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.98</t>
+          <t>2.16.840.1.113883.4.642.3.47</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>SNOMEDCTRouteCodes</t>
+          <t>All Security Labels</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>SNOMED CT Route Codes</t>
+          <t>SecurityLabels</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>This value set includes all Route codes from SNOMED CT - provided as an exemplar.</t>
+          <t>A single value set for all security labels defined by FHIR.</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-allergyintolerance</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>SCT</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-documentreference,StructureDefinition/us-core-encounter,StructureDefinition/us-core-observation-lab</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+          <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8057,41 +8051,45 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.47</t>
+          <t>2.16.840.1.113883.4.642.3.978</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>All Security Labels</t>
+          <t>SecurityRoleType</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>SecurityLabels</t>
+          <t>SecurityRoleType</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>A single value set for all security labels defined by FHIR.</t>
+          <t>This example FHIR value set is comprised of example Actor Type codes, which can be used to value FHIR agents, actors, and other role         elements such as those specified in financial transactions. The FHIR Actor value set is based on    DICOM Audit Message, C402;   ASTM Standard, E1762-95 [2013]; selected codes and          derived actor roles from HL7 RoleClass OID 2.16.840.1.113883.5.110;    HL7 Role Code 2.16.840.1.113883.5.111, including AgentRoleType;          HL7 ParticipationType OID: 2.16.840.1.113883.5.90; and    HL7 ParticipationFunction codes OID: 2.16.840.1.113883.5.88.           This value set includes, by reference, role codes from external code systems: NUCC Health Care Provider Taxonomy OID: 2.16.840.1.113883.6.101;          North American Industry Classification System [NAICS]OID: 2.16.840.1.113883.6.85; IndustryClassificationSystem 2.16.840.1.113883.1.11.16039;          and US Census Occupation Code OID: 2.16.840.1.113883.6.243 for relevant recipient or custodian codes not included in this value set.            If no source is indicated in the definition comments, then these are example FHIR codes.          It can be extended with appropriate roles described by SNOMED as well as those described in the HL7 Role Based Access Control Catalog and the          HL7 Healthcare (Security and Privacy) Access Control Catalog.            In Role-Based Access Control (RBAC), permissions are operations on an object that a user wishes to access. Permissions are grouped into roles.          A role characterizes the functions a user is allowed to perform. Roles are assigned to users. If the user's role has the appropriate permissions          to access an object, then that user is granted access to the object. FHIR readily enables RBAC, as FHIR Resources are object types and the CRUDE          events (the FHIR equivalent to permissions in the RBAC scheme) are operations on those objects.          In Attribute-Based Access Control (ABAC), a user requests to perform operations on objects. That user's access request is granted or denied          based on a set of access control policies that are specified in terms of attributes and conditions. FHIR readily enables ABAC, as instances of          a Resource in FHIR (again, Resources are object types) can have attributes associated with them. These attributes include security tags,          environment conditions, and a host of user and object characteristics, which are the same attributes as those used in ABAC. Attributes help          define the access control policies that determine the operations a user may perform on a Resource (in FHIR) or object (in ABAC). For example,          a tag (or attribute) may specify that the identified Resource (object) is not to be further disclosed without explicit consent from the patient.</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-documentreference,StructureDefinition/us-core-encounter,StructureDefinition/us-core-observation-lab</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr"/>
+          <t>StructureDefinition/us-core-provenance</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>THO (V3),THO,DICOM</t>
+        </is>
+      </c>
       <c r="J164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
+          <t>http://hl7.org/fhir/ValueSet/service-type</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8106,32 +8104,32 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.978</t>
+          <t>2.16.840.1.113883.4.642.3.518</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>SecurityRoleType</t>
+          <t>ServiceType</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>SecurityRoleType</t>
+          <t>Service type</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>This example FHIR value set is comprised of example Actor Type codes, which can be used to value FHIR agents, actors, and other role         elements such as those specified in financial transactions. The FHIR Actor value set is based on    DICOM Audit Message, C402;   ASTM Standard, E1762-95 [2013]; selected codes and          derived actor roles from HL7 RoleClass OID 2.16.840.1.113883.5.110;    HL7 Role Code 2.16.840.1.113883.5.111, including AgentRoleType;          HL7 ParticipationType OID: 2.16.840.1.113883.5.90; and    HL7 ParticipationFunction codes OID: 2.16.840.1.113883.5.88.           This value set includes, by reference, role codes from external code systems: NUCC Health Care Provider Taxonomy OID: 2.16.840.1.113883.6.101;          North American Industry Classification System [NAICS]OID: 2.16.840.1.113883.6.85; IndustryClassificationSystem 2.16.840.1.113883.1.11.16039;          and US Census Occupation Code OID: 2.16.840.1.113883.6.243 for relevant recipient or custodian codes not included in this value set.            If no source is indicated in the definition comments, then these are example FHIR codes.          It can be extended with appropriate roles described by SNOMED as well as those described in the HL7 Role Based Access Control Catalog and the          HL7 Healthcare (Security and Privacy) Access Control Catalog.            In Role-Based Access Control (RBAC), permissions are operations on an object that a user wishes to access. Permissions are grouped into roles.          A role characterizes the functions a user is allowed to perform. Roles are assigned to users. If the user's role has the appropriate permissions          to access an object, then that user is granted access to the object. FHIR readily enables RBAC, as FHIR Resources are object types and the CRUDE          events (the FHIR equivalent to permissions in the RBAC scheme) are operations on those objects.          In Attribute-Based Access Control (ABAC), a user requests to perform operations on objects. That user's access request is granted or denied          based on a set of access control policies that are specified in terms of attributes and conditions. FHIR readily enables ABAC, as instances of          a Resource in FHIR (again, Resources are object types) can have attributes associated with them. These attributes include security tags,          environment conditions, and a host of user and object characteristics, which are the same attributes as those used in ABAC. Attributes help          define the access control policies that determine the operations a user may perform on a Resource (in FHIR) or object (in ABAC). For example,          a tag (or attribute) may specify that the identified Resource (object) is not to be further disclosed without explicit consent from the patient.</t>
+          <t>This value set defines an example set of codes of service-types.</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-provenance</t>
+          <t>StructureDefinition/us-core-encounter</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>THO (V3),THO,DICOM</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -8139,7 +8137,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/service-type</t>
+          <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8154,32 +8152,32 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.518</t>
+          <t>2.16.840.1.113883.4.642.3.434</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ServiceType</t>
+          <t>ServiceRequestCategoryCodes</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Service type</t>
+          <t>Service Request Category Codes</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>This value set defines an example set of codes of service-types.</t>
+          <t>An example value set of SNOMED CT concepts that can classify a requested service</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>ValueSet/us-core-servicerequest-category,StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -8187,7 +8185,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+          <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8202,27 +8200,27 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.434</t>
+          <t>2.16.840.1.113883.4.642.3.435</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ServiceRequestCategoryCodes</t>
+          <t>ServiceRequestOrderDetailsCodes</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Service Request Category Codes</t>
+          <t>Service Request Order Details Codes</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>An example value set of SNOMED CT concepts that can classify a requested service</t>
+          <t>An example value set of Codified order entry details concepts.  These concepts only make sense in the context of what is being ordered.  This example is for a patient ventilation order</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>ValueSet/us-core-servicerequest-category,StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -8235,7 +8233,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+          <t>http://hl7.org/fhir/ValueSet/specimen-collection-method</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8250,27 +8248,27 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.435</t>
+          <t>2.16.840.1.113883.4.642.3.468</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ServiceRequestOrderDetailsCodes</t>
+          <t>FHIRSpecimenCollectionMethod</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Service Request Order Details Codes</t>
+          <t>FHIR Specimen Collection Method</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>An example value set of Codified order entry details concepts.  These concepts only make sense in the context of what is being ordered.  This example is for a patient ventilation order</t>
+          <t xml:space="preserve"> This example value set defines a set of codes that can be used to indicate the method by which a specimen was collected.</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-specimen</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -8283,7 +8281,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/specimen-collection-method</t>
+          <t>http://hl7.org/fhir/ValueSet/specimen-container-type</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8298,22 +8296,22 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.468</t>
+          <t>2.16.840.1.113883.4.642.3.470</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>FHIRSpecimenCollectionMethod</t>
+          <t>SpecimenContainerType</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>FHIR Specimen Collection Method</t>
+          <t>Specimen Container Type</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This example value set defines a set of codes that can be used to indicate the method by which a specimen was collected.</t>
+          <t>Checks on the patient prior specimen collection. All SNOMED CT concepts descendants of 706041008 |Device for body fluid and tissue collection/transfer/processing (physical object)|</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8331,7 +8329,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/specimen-container-type</t>
+          <t>http://hl7.org/fhir/ValueSet/specimen-processing-procedure</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8346,22 +8344,22 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.470</t>
+          <t>2.16.840.1.113883.4.642.3.469</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>SpecimenContainerType</t>
+          <t>SpecimenProcessingProcedure</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Specimen Container Type</t>
+          <t>Specimen processing procedure</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Checks on the patient prior specimen collection. All SNOMED CT concepts descendants of 706041008 |Device for body fluid and tissue collection/transfer/processing (physical object)|</t>
+          <t>The technique that is used to perform the process or preserve the specimen.</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8371,7 +8369,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO (V2)</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8379,7 +8377,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/specimen-processing-procedure</t>
+          <t>http://hl7.org/fhir/ValueSet/specimen-status</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8394,22 +8392,22 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.469</t>
+          <t>2.16.840.1.113883.4.642.3.471</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>SpecimenProcessingProcedure</t>
+          <t>SpecimenStatus</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Specimen processing procedure</t>
+          <t>SpecimenStatus</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>The technique that is used to perform the process or preserve the specimen.</t>
+          <t>Codes providing the status/availability of a specimen.</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8419,7 +8417,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8427,7 +8425,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/specimen-status</t>
+          <t>http://hl7.org/fhir/ValueSet/subscriber-relationship</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -8442,32 +8440,32 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.471</t>
+          <t>2.16.840.1.113883.4.642.3.1385</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>SpecimenStatus</t>
+          <t>SubscriberRelationshipCodes</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>SpecimenStatus</t>
+          <t>SubscriberPolicyholder Relationship Codes</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Codes providing the status/availability of a specimen.</t>
+          <t>This value set includes codes for the relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-specimen</t>
+          <t>StructureDefinition/us-core-coverage</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8475,7 +8473,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/subscriber-relationship</t>
+          <t>http://hl7.org/fhir/ValueSet/substance-code</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -8490,32 +8488,32 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1385</t>
+          <t>2.16.840.1.113883.4.642.3.473</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>SubscriberRelationshipCodes</t>
+          <t>SubstanceCode</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>SubscriberPolicyholder Relationship Codes</t>
+          <t>Substance Code</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>This value set includes codes for the relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
+          <t>This value set contains concept codes for specific substances. It includes codes from [SNOMED](http://snomed.info/sct) where concept is-a 105590001 (Substance (substance)) and where concept is-a 373873005 (Pharmaceutical / biologic product (product))</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-coverage</t>
+          <t>StructureDefinition/us-core-allergyintolerance</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8523,7 +8521,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/substance-code</t>
+          <t>http://hl7.org/fhir/ValueSet/ucum-bodylength</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -8538,32 +8536,32 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.473</t>
+          <t>2.16.840.1.113883.4.642.3.958</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>SubstanceCode</t>
+          <t>BodyLengthUnits</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Substance Code</t>
+          <t>Body Length Units</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>This value set contains concept codes for specific substances. It includes codes from [SNOMED](http://snomed.info/sct) where concept is-a 105590001 (Substance (substance)) and where concept is-a 373873005 (Pharmaceutical / biologic product (product))</t>
+          <t>UCUM units for recording body length measures such as height and head circumference</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-allergyintolerance</t>
+          <t>StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>UCUM</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8571,7 +8569,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/ucum-bodylength</t>
+          <t>http://hl7.org/fhir/ValueSet/ucum-bodytemp</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -8586,27 +8584,27 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.958</t>
+          <t>2.16.840.1.113883.4.642.3.957</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>BodyLengthUnits</t>
+          <t>BodyTemperatureUnits</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Body Length Units</t>
+          <t>Body Temperature Units</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>UCUM units for recording body length measures such as height and head circumference</t>
+          <t>UCUM units for recording Body Temperature</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height</t>
+          <t>StructureDefinition/us-core-body-temperature</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -8619,7 +8617,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/ucum-bodytemp</t>
+          <t>http://hl7.org/fhir/ValueSet/ucum-bodyweight</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -8634,27 +8632,27 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.957</t>
+          <t>2.16.840.1.113883.4.642.3.956</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>BodyTemperatureUnits</t>
+          <t>BodyWeightUnits</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Body Temperature Units</t>
+          <t>Body Weight Units</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>UCUM units for recording Body Temperature</t>
+          <t>UCUM units for recording Body Weight</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-body-temperature</t>
+          <t>StructureDefinition/us-core-body-weight</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -8667,7 +8665,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/ucum-bodyweight</t>
+          <t>http://hl7.org/fhir/ValueSet/ucum-common</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -8680,29 +8678,21 @@
           <t>draft</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.4.642.3.956</t>
-        </is>
-      </c>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>BodyWeightUnits</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Body Weight Units</t>
-        </is>
-      </c>
+          <t>Common UCUM units</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr">
         <is>
-          <t>UCUM units for recording Body Weight</t>
+          <t>Commonly encountered UCUM units (for purposes of helping populate look ups.</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-body-weight</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -8715,7 +8705,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/ucum-common</t>
+          <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -8728,21 +8718,29 @@
           <t>draft</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2.16.840.1.113883.4.642.3.955</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Common UCUM units</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr"/>
+          <t>VitalSignsUnits</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Vital Signs Units</t>
+        </is>
+      </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Commonly encountered UCUM units (for purposes of helping populate look ups.</t>
+          <t>Common UCUM units for recording Vital Signs</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-bmi,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -8755,7 +8753,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common</t>
+          <t>http://hl7.org/fhir/ValueSet/udi-entry-type</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -8770,32 +8768,32 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.955</t>
+          <t>2.16.840.1.113883.4.642.3.211</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>VitalSignsUnits</t>
+          <t>UDIEntryType</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Vital Signs Units</t>
+          <t>UDIEntryType</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Common UCUM units for recording Vital Signs</t>
+          <t>Codes to identify how UDI data was entered.</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-vital-signs,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-implantable-device</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>UCUM</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8803,47 +8801,43 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/udi-entry-type</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-clinical-note-type</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>4.0.1</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.211</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.1</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>UDIEntryType</t>
+          <t>USCoreClinicalNoteType</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>UDIEntryType</t>
+          <t>US Core Clinical Note Type</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Codes to identify how UDI data was entered.</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>StructureDefinition/us-core-implantable-device</t>
-        </is>
-      </c>
+          <t>The US Core Clinical Note Type Value Set is a 'starter set' of types supported for fetching and storing clinical notes.</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8851,7 +8845,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-clinical-note-type</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-clinical-result-observation-category</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -8866,28 +8860,32 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.1</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.2</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>USCoreClinicalNoteType</t>
+          <t>USCoreClinicalResultObservationCategory</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>US Core Clinical Note Type</t>
+          <t>US Core Clinical Result Observation Category</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>The US Core Clinical Note Type Value Set is a 'starter set' of types supported for fetching and storing clinical notes.</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr"/>
+          <t>Used to classify the context of clinical result observations.</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-observation-clinical-result</t>
+        </is>
+      </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8895,7 +8893,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-clinical-result-observation-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-condition-code</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -8910,32 +8908,32 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.2</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.16</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>USCoreClinicalResultObservationCategory</t>
+          <t>USCoreConditionCodes</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>US Core Clinical Result Observation Category</t>
+          <t>US Core Condition Codes</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Used to classify the context of clinical result observations.</t>
+          <t>This describes the problem. Diagnosis/Problem List is broadly defined as a series of brief statements that catalog a patient's medical, nursing, dental, social, preventative and psychiatric events and issues that are relevant to that patient's healthcare (e.g., signs, symptoms, and defined conditions). ICD-10 is appropriate for Diagnosis information, and ICD-9 for historical information.</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-lab</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-procedure,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-condition-encounter-diagnosis</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.terminology,SCT,THO</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -8943,7 +8941,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-condition-code</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-condition-code-current</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -8958,32 +8956,32 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.4</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.3</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>USCoreConditionCodes</t>
+          <t>USCoreConditionCodesCurrent</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>US Core Condition Codes</t>
+          <t>US Core Condition Codes Current</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>This describes the problem. Diagnosis/Problem List is broadly defined as a series of brief statements that catalog a patient's medical, nursing, dental, social, preventative and psychiatric events and issues that are relevant to that patient's healthcare (e.g., signs, symptoms, and defined conditions). ICD-10 is appropriate for Diagnosis information, and ICD-9 for historical information.</t>
+          <t>This valueset is defined the same as the [US Core Condition Codes](ValueSet-us-core-condition-code.html) value set except it excludes ICD-9-CM codes. It us used for encoding newly recorded, non-legacy problem list items, health concerns and diagnosis using SNOMED CT and ICD-10-CM per USCDI requirements.</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-procedure,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-condition-encounter-diagnosis</t>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-condition-encounter-diagnosis</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>hl7.terminology,SCT,THO</t>
+          <t>hl7.terminology,SCT</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8991,7 +8989,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-condition-code-current</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-category</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9006,32 +9004,32 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.3</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.4</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>USCoreConditionCodesCurrent</t>
+          <t>USCoreDiagnosticReportCategory</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>US Core Condition Codes Current</t>
+          <t>US Core Diagnostic Report Category Codes</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>This valueset is defined the same as the [US Core Condition Codes](ValueSet-us-core-condition-code.html) value set except it excludes ICD-9-CM codes. It us used for encoding newly recorded, non-legacy problem list items, health concerns and diagnosis using SNOMED CT and ICD-10-CM per USCDI requirements.</t>
+          <t>The US Core Diagnostic Report Category Value Set is a 'starter set' of categories supported for fetching and Diagnostic Reports and notes.</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-condition-encounter-diagnosis</t>
+          <t>StructureDefinition/us-core-diagnosticreport-note</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>hl7.terminology,SCT</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -9039,7 +9037,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-report-and-note-codes</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -9059,17 +9057,17 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>USCoreDiagnosticReportCategory</t>
+          <t>USCoreNonLaboratoryCodes</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>US Core Diagnostic Report Category Codes</t>
+          <t>US Core Non Laboratory Codes</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>The US Core Diagnostic Report Category Value Set is a 'starter set' of categories supported for fetching and Diagnostic Reports and notes.</t>
+          <t>This value set includes All LOINC codes defined as type "clinical," therefore excluding laboratory tests, survey instruments, and claims documents. This includes observables such as vital signs, hemodynamics, intake/output, EKG, obstetric ultrasound, and cardiac echo, and includes discrete and narrative diagnostic observations and reports.</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9087,7 +9085,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-report-and-note-codes</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-category</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9107,27 +9105,27 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>USCoreNonLaboratoryCodes</t>
+          <t>USCoreDocumentReferenceCategory</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>US Core Non Laboratory Codes</t>
+          <t>US Core DocumentReference Category</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>This value set includes All LOINC codes defined as type "clinical," therefore excluding laboratory tests, survey instruments, and claims documents. This includes observables such as vital signs, hemodynamics, intake/output, EKG, obstetric ultrasound, and cardiac echo, and includes discrete and narrative diagnostic observations and reports.</t>
+          <t>The US Core DocumentReferences Category Value Set is a 'starter set' of categories supported for fetching and storing clinical notes.</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-diagnosticreport-note</t>
+          <t>StructureDefinition/us-core-documentreference</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>Internal</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -9135,7 +9133,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-type</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9155,17 +9153,17 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>USCoreDocumentReferenceCategory</t>
+          <t>USCoreDocumentReferenceType</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Category</t>
+          <t>US Core DocumentReference Type</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>The US Core DocumentReferences Category Value Set is a 'starter set' of categories supported for fetching and storing clinical notes.</t>
+          <t>The US Core DocumentReference Type Value Set includes all LOINC values whose SCALE is "Doc" in the LOINC database and the HL7 v3 Code System NullFlavor concept 'unknown'</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9175,7 +9173,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Internal</t>
+          <t>THO (V3),LOINC</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -9183,7 +9181,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-type</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-goal-description</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9198,32 +9196,32 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.8</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.17</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>USCoreDocumentReferenceType</t>
+          <t>USCoreGoalCodes</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Type</t>
+          <t>US Core Goal Codes</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>The US Core DocumentReference Type Value Set includes all LOINC values whose SCALE is "Doc" in the LOINC database and the HL7 v3 Code System NullFlavor concept 'unknown'</t>
+          <t>Concepts from SNOMED CT  and LOINC code systems that can be used to indicate the goal.</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-documentreference</t>
+          <t>StructureDefinition/us-core-goal</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>THO (V3),LOINC</t>
+          <t>SCT,LOINC</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -9231,7 +9229,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-goal-description</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-laboratory-test-codes</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9246,32 +9244,32 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.9</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.18</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>USCoreGoalCodes</t>
+          <t>USCoreLaboratoryTestCodes</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>US Core Goal Codes</t>
+          <t>US Core Laboratory Test Codes</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Concepts from SNOMED CT  and LOINC code systems that can be used to indicate the goal.</t>
+          <t>Laboratory LOINC codes: From the introduction to August 2022 LOINC Users' guide; "The current scope of the existing laboratory portion of the LOINC  database includes all observations reported by clinical laboratories, including the specialty areas: chemistry, including therapeutic drug monitoring and toxicology; hematology; serology; blood bank; microbiology; cytology; surgical pathology; and fertility.</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-goal</t>
+          <t>StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-observation-lab</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>SCT,LOINC</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -9279,7 +9277,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-laboratory-test-codes</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-narrative-status</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -9294,32 +9292,32 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.21</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.8</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>USCoreLaboratoryTestCodes</t>
+          <t>NarrativeStatus</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>US Core Laboratory Test Codes</t>
+          <t>US Core Narrative Status</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Laboratory LOINC codes: From the introduction to August 2022 LOINC Users' guide; "The current scope of the existing laboratory portion of the LOINC  database includes all observations reported by clinical laboratories, including the specialty areas: chemistry, including therapeutic drug monitoring and toxicology; hematology; serology; blood bank; microbiology; cytology; surgical pathology; and fertility.</t>
+          <t>The US Core Narrative Status Value Set limits the text status for the resource narrative.</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-observation-lab</t>
+          <t>StructureDefinition/us-core-careplan</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9327,7 +9325,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-narrative-status</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-observation-smoking-status-status</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9342,27 +9340,27 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.10</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.9</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>NarrativeStatus</t>
+          <t>USCoreObservationSmokingStatusStatus</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>US Core Narrative Status</t>
+          <t>US Core Status for Smoking Status Observation</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>The US Core Narrative Status Value Set limits the text status for the resource narrative.</t>
+          <t>Codes providing the status of an observation for smoking status. Constrained to `final`and `entered-in-error`.</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-careplan</t>
+          <t>StructureDefinition/us-core-smokingstatus</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -9375,7 +9373,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-observation-smoking-status-status</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-problem-or-health-concern</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -9390,32 +9388,32 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.11</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.19</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>USCoreObservationSmokingStatusStatus</t>
+          <t>USCoreProblemOrHealthConcern</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>US Core Status for Smoking Status Observation</t>
+          <t>US Core Problem or Health Concern</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Codes providing the status of an observation for smoking status. Constrained to `final`and `entered-in-error`.</t>
+          <t>Code set for category codes for *US Core Condition Problems and Health Concerns Profile* consisting of the concepts "problem" and "health-concern".</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-smokingstatus</t>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>Internal,THO</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9423,7 +9421,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-problem-or-health-concern</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-procedure-code</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -9438,32 +9436,32 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.12</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.20</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>USCoreProblemOrHealthConcern</t>
+          <t>USCoreProcedureCodes</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>US Core Problem or Health Concern</t>
+          <t>US Core Procedure Codes</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Code set for category codes for *US Core Condition Problems and Health Concerns Profile* consisting of the concepts "problem" and "health-concern".</t>
+          <t>Concepts from CPT, SNOMED CT, HCPCS Level II Alphanumeric Codes, ICD-10-PCS,CDT and LOINC code systems that can be used to indicate the type of procedure performed.</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-condition-problems-health-concerns</t>
+          <t>StructureDefinition/us-core-procedure,StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Internal,THO</t>
+          <t>hl7.terminology,SCT,LOINC,Other</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -9471,7 +9469,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-procedure-code</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-provenance-participant-type</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -9486,32 +9484,32 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.13</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.10</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>USCoreProcedureCodes</t>
+          <t>USCoreProvenancePaticipantTypeCodes</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>US Core Procedure Codes</t>
+          <t>US Core Provenance Participant Type Codes</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Concepts from CPT, SNOMED CT, HCPCS Level II Alphanumeric Codes, ICD-10-PCS,CDT and LOINC code systems that can be used to indicate the type of procedure performed.</t>
+          <t>The type of participation a provenance agent played for a given target.</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-procedure,StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-provenance</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>hl7.terminology,SCT,LOINC,Other</t>
+          <t>Internal,THO</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9519,7 +9517,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-provenance-participant-type</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-condition-category</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -9534,32 +9532,28 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.14</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.11</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>USCoreProvenancePaticipantTypeCodes</t>
+          <t>USCoreScreeningAssessmentConditionCategory</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>US Core Provenance Participant Type Codes</t>
+          <t>US Core Screening Assessment Condition Category</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>The type of participation a provenance agent played for a given target.</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>StructureDefinition/us-core-provenance</t>
-        </is>
-      </c>
+          <t>This value set consists of the single code "sdoh". It is the minimum value set of category codes used in the US Core Condition Problems and Health Concerns Profile that any conformant system **SHALL** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Internal,THO</t>
+          <t>Internal</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9567,7 +9561,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-condition-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-category</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -9582,28 +9576,32 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.15</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.12</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>USCoreScreeningAssessmentConditionCategory</t>
+          <t>USCoreScreeningAssessmentObservationCategory</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>US Core Screening Assessment Condition Category</t>
+          <t>US Core Screening Assessment Observation Category</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>This value set consists of the single code "sdoh". It is the minimum value set of category codes used in the US Core Condition Problems and Health Concerns Profile that any conformant system **SHALL** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr"/>
+          <t>This value set is the minimum value set of category codes used in the US Core Observation Screening Assessment and Simple Observation Profiles that any conformant system **SHALL** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-observation-screening-assessment</t>
+        </is>
+      </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Internal</t>
+          <t>Internal,THO</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -9611,7 +9609,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-maximum-category</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -9626,27 +9624,27 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.16</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.13</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>USCoreScreeningAssessmentObservationCategory</t>
+          <t>USCoreScreeningAssessmentObservationMaximumCategory</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>US Core Screening Assessment Observation Category</t>
+          <t>US Core Screening Assessment Observation Maximum Category</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>This value set is the minimum value set of category codes used in the US Core Observation Screening Assessment and Simple Observation Profiles that any conformant system **SHALL** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
+          <t>This value set is a value set of category codes used in the US Core Observation Screening Assessment that any conformant system **SHOULD** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-observation-screening-assessment</t>
+          <t>StructureDefinition/us-core-observation-screening-assessment</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -9659,7 +9657,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-maximum-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-servicerequest-category</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -9674,32 +9672,32 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.17</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.21</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>USCoreScreeningAssessmentObservationMaximumCategory</t>
+          <t>USCoreServiceRequestCategoryCodes</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>US Core Screening Assessment Observation Maximum Category</t>
+          <t>US Core ServiceRequest Category Codes</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>This value set is a value set of category codes used in the US Core Observation Screening Assessment that any conformant system **SHOULD** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
+          <t>A set of SNOMED CT and LOINC concepts to classify a requested service</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-observation-screening-assessment</t>
+          <t>StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Internal,THO</t>
+          <t>SCT,Internal</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
@@ -9707,7 +9705,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-servicerequest-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -9722,32 +9720,32 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.18</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.14</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>USCoreServiceRequestCategoryCodes</t>
+          <t>USCoreSimpleObservationCategory</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Category Codes</t>
+          <t>US Core Simple Observation Category</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>A set of SNOMED CT and LOINC concepts to classify a requested service</t>
+          <t>This value set is a value set of category codes used in the US Core Simple Observation and Condition Problems and Health Concerns Profiles that any conformant system **SHOULD** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-simple-observation</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>SCT,Internal</t>
+          <t>Internal,THO</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
@@ -9755,7 +9753,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-specimen-condition</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -9770,84 +9768,78 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.19</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.15</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>USCoreSimpleObservationCategory</t>
+          <t>USCoreSpecimenCondition</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Category</t>
+          <t>US Core Specimen Condition</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>This value set is a value set of category codes used in the US Core Simple Observation and Condition Problems and Health Concerns Profiles that any conformant system **SHOULD** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
+          <t>This value set contains concepts the provide information regarding a specimen, including the container, that does not meet a laboratory’s criteria for acceptability.</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-simple-observation</t>
-        </is>
-      </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>Internal,THO</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-specimen</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-specimen-condition</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>8.0.0</t>
-        </is>
+          <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7900</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.20</t>
-        </is>
-      </c>
+      <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>USCoreSpecimenCondition</t>
+          <t>PHVS_Industry_NAICS_Detail _ODH</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>US Core Specimen Condition</t>
+          <t>Industry NAICS Detail (ODH)</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>This value set contains concepts the provide information regarding a specimen, including the container, that does not meet a laboratory’s criteria for acceptability.</t>
+          <t>The Industry NAICS Detail (ODH) value set is to be used to capture self-reported industry within electronic health information systems to support direct patient care, population health and public health activities.  Industry is described as the economic or business sector of a business or enterprise.  For more information, a mapping to 2012 Census Industry Codes, and tips on using this value set go to the Occupational Data for Health (ODH) Hot Topics section on the PHIN VADS home page.</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-specimen</t>
-        </is>
-      </c>
-      <c r="I201" t="inlineStr"/>
+          <t>StructureDefinition/us-core-observation-occupation</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>THO</t>
+        </is>
+      </c>
       <c r="J201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7900</t>
+          <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7901</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -9861,17 +9853,17 @@
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>PHVS_Industry_NAICS_Detail _ODH</t>
+          <t>PHVS_Occupation_ONETSOC_Detail_ODH</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Industry NAICS Detail (ODH)</t>
+          <t>Occupation ONETSOC Detail (ODH)</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>The Industry NAICS Detail (ODH) value set is to be used to capture self-reported industry within electronic health information systems to support direct patient care, population health and public health activities.  Industry is described as the economic or business sector of a business or enterprise.  For more information, a mapping to 2012 Census Industry Codes, and tips on using this value set go to the Occupational Data for Health (ODH) Hot Topics section on the PHIN VADS home page.</t>
+          <t>The Occupation ONETSOC Detail (ODH) value set is to be used to capture self-reported occupation within electronic health information systems to support direct patient care, population health and public health activities.  Occupation is the type of work done by the subject.  It is based on the 2010 O*Net-SOC Classification System.  For more information, a mapping to 2010 Census Codes, and tips on using this value set go to the Occupational Data for Health (ODH) Hot Topics section on the PHIN VADS home page.</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -9889,11 +9881,13 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7901</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>1</v>
+          <t>http://terminology.hl7.org/ValueSet/CMSPlaceOfServiceCodes</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1.0.0</t>
+        </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -9903,27 +9897,27 @@
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>PHVS_Occupation_ONETSOC_Detail_ODH</t>
+          <t>CMSPlaceOfServiceCodes</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Occupation ONETSOC Detail (ODH)</t>
+          <t>CMS Place of Service Codes (POS)</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>The Occupation ONETSOC Detail (ODH) value set is to be used to capture self-reported occupation within electronic health information systems to support direct patient care, population health and public health activities.  Occupation is the type of work done by the subject.  It is based on the 2010 O*Net-SOC Classification System.  For more information, a mapping to 2010 Census Codes, and tips on using this value set go to the Occupational Data for Health (ODH) Hot Topics section on the PHIN VADS home page.</t>
+          <t>This is the all codes value set for the CMS POS code system.</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-observation-occupation</t>
+          <t>StructureDefinition/us-core-location</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.terminology.r4</t>
         </is>
       </c>
       <c r="J203" t="inlineStr"/>
@@ -9975,12 +9969,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
+          <t>http://terminology.hl7.org/ValueSet/USPS-State</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2.0.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9988,34 +9982,30 @@
           <t>active</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.21.40</t>
-        </is>
-      </c>
+      <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Hl7VSReAdmissionIndicator</t>
+          <t>UspsTwoLetterAlphabeticCodes</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>hl7VS-re-admissionIndicator</t>
+          <t>USPS Two Letter Alphabetic Codes</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Value Set of codes which are used to specify that a patient is being re-admitted to a healthcare facility from which they were discharged, and indicates the circumstances around such re-admission.</t>
+          <t>This value set defines two letter USPS alphabetic codes.</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-location,StructureDefinition/us-core-organization,StructureDefinition/us-core-jurisdiction</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>hl7.terminology.r4</t>
         </is>
       </c>
       <c r="J205" t="inlineStr"/>
@@ -10023,7 +10013,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
+          <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -10038,27 +10028,27 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.21.51</t>
+          <t>2.16.840.1.113883.21.40</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Hl7VSBedStatus</t>
+          <t>Hl7VSReAdmissionIndicator</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>hl7VS-bedStatus</t>
+          <t>hl7VS-re-admissionIndicator</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Value Set of codes that specify the state of a bed in an inpatient setting, and is used to determine if a patient may be assigned to it or not.</t>
+          <t>Value Set of codes which are used to specify that a patient is being re-admitted to a healthcare facility from which they were discharged, and indicates the circumstances around such re-admission.</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-location</t>
+          <t>StructureDefinition/us-core-encounter</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -10071,7 +10061,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-0371</t>
+          <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -10086,27 +10076,27 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.21.245</t>
+          <t>2.16.840.1.113883.21.51</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Hl7VSAdditivePreservative</t>
+          <t>Hl7VSBedStatus</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>hl7VS-additivePreservative</t>
+          <t>hl7VS-bedStatus</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Concepts specifying any additive introduced to the specimen before or at the time of collection.  These additives may be introduced in order to preserve, maintain or enhance the particular nature or component of the specimen.  Used in Version 2 messaging in the SPM segment.</t>
+          <t>Value Set of codes that specify the state of a bed in an inpatient setting, and is used to determine if a patient may be assigned to it or not.</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-specimen</t>
+          <t>StructureDefinition/us-core-location</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -10119,7 +10109,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-0493</t>
+          <t>http://terminology.hl7.org/ValueSet/v2-0371</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -10134,27 +10124,27 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.21.333</t>
+          <t>2.16.840.1.113883.21.245</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Hl7VSSpecimenCondition</t>
+          <t>Hl7VSAdditivePreservative</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>hl7VS-specimenCondition</t>
+          <t>hl7VS-additivePreservative</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Concepts of modes or states of being that describe the nature of a specimen.  Used in Version 2 messaging in the SPM segment.</t>
+          <t>Concepts specifying any additive introduced to the specimen before or at the time of collection.  These additives may be introduced in order to preserve, maintain or enhance the particular nature or component of the specimen.  Used in Version 2 messaging in the SPM segment.</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>ValueSet/us-core-specimen-condition</t>
+          <t>StructureDefinition/us-core-specimen</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -10167,7 +10157,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-0916</t>
+          <t>http://terminology.hl7.org/ValueSet/v2-0493</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -10182,27 +10172,27 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.21.440</t>
+          <t>2.16.840.1.113883.21.333</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Hl7VSRelevantClincialInformation</t>
+          <t>Hl7VSSpecimenCondition</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>hl7VS-relevantClincialInformation</t>
+          <t>hl7VS-specimenCondition</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Value Set of codes that specify additional clinical information about the patient or specimen to report the supporting and/or suspected diagnosis and clinical findings on requests for interpreted diagnostic studies.</t>
+          <t>Concepts of modes or states of being that describe the nature of a specimen.  Used in Version 2 messaging in the SPM segment.</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-specimen</t>
+          <t>ValueSet/us-core-specimen-condition</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -10215,12 +10205,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
+          <t>http://terminology.hl7.org/ValueSet/v2-0916</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>0360</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10228,47 +10218,47 @@
           <t>active</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2.16.840.1.113883.21.440</t>
+        </is>
+      </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>v2.0360.2.7</t>
+          <t>Hl7VSRelevantClincialInformation</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>v2 table 0360</t>
+          <t>hl7VS-relevantClincialInformation</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Version 2.7</t>
+          <t>Value Set of codes that specify additional clinical information about the patient or specimen to report the supporting and/or suspected diagnosis and clinical findings on requests for interpreted diagnostic studies.</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>FHIR Value set/code system definition for HL7 v2 table 0360 ver 2.9 ( Degree/License/Certificate)</t>
+          <t>StructureDefinition/us-core-specimen</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitioner</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
           <t>THO (V2)</t>
         </is>
       </c>
+      <c r="J210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
+          <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>3.0.0</t>
+          <t>0360</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10279,35 +10269,39 @@
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ActCode</t>
+          <t>v2.0360.2.7</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>v3 Code System ActCode</t>
+          <t>v2 table 0360</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>A code specifying the particular kind of Act that the Act-instance represents within its class.  Constraints:  The kind of Act (e.g. physical examination, serum potassium, inpatient encounter, charge financial transaction, etc.) is specified with a code from one of several, typically external, coding systems.  The coding system will depend on the class of Act, such as LOINC for observations, etc. Conceptually, the Act.code must be a specialization of the Act.classCode. This is why the structure of ActClass domain should be reflected in the superstructure of the ActCode domain and then individual codes or externally referenced vocabularies subordinated under these domains that reflect the ActClass structure. Act.classCode and Act.code are not modifiers of each other but the Act.code concept should really imply the Act.classCode concept. For a negative example, it is not appropriate to use an Act.code "potassium" together with and Act.classCode for "laboratory observation" to somehow mean "potassium laboratory observation" and then use the same Act.code for "potassium" together with Act.classCode for "medication" to mean "substitution of potassium". This mutually modifying use of Act.code and Act.classCode is not permitted.</t>
+          <t xml:space="preserve"> Version 2.7</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
+          <t>FHIR Value set/code system definition for HL7 v2 table 0360 ver 2.9 ( Degree/License/Certificate)</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>THO (V3)</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr"/>
+          <t>StructureDefinition/us-core-practitioner</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>THO (V2)</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -10320,29 +10314,25 @@
           <t>active</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.1.11.13955</t>
-        </is>
-      </c>
+      <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ActEncounterCode</t>
+          <t>ActCode</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>ActEncounterCode</t>
+          <t>v3 Code System ActCode</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Domain provides codes that qualify the ActEncounterClass (ENC)</t>
+          <t>A code specifying the particular kind of Act that the Act-instance represents within its class.  Constraints:  The kind of Act (e.g. physical examination, serum potassium, inpatient encounter, charge financial transaction, etc.) is specified with a code from one of several, typically external, coding systems.  The coding system will depend on the class of Act, such as LOINC for observations, etc. Conceptually, the Act.code must be a specialization of the Act.classCode. This is why the structure of ActClass domain should be reflected in the superstructure of the ActCode domain and then individual codes or externally referenced vocabularies subordinated under these domains that reflect the ActClass structure. Act.classCode and Act.code are not modifiers of each other but the Act.code concept should really imply the Act.classCode concept. For a negative example, it is not appropriate to use an Act.code "potassium" together with and Act.classCode for "laboratory observation" to somehow mean "potassium laboratory observation" and then use the same Act.code for "potassium" together with Act.classCode for "medication" to mean "substitution of potassium". This mutually modifying use of Act.code and Act.classCode is not permitted.</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -10355,7 +10345,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ActPharmacySupplyType</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -10370,27 +10360,27 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.16208</t>
+          <t>2.16.840.1.113883.1.11.13955</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ActPharmacySupplyType</t>
+          <t>ActEncounterCode</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>ActPharmacySupplyType</t>
+          <t>ActEncounterCode</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Identifies types of dispensing events</t>
+          <t>Domain provides codes that qualify the ActEncounterClass (ENC)</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-encounter</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -10403,7 +10393,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ActPharmacySupplyType</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -10418,27 +10408,27 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.16866</t>
+          <t>2.16.840.1.113883.1.11.16208</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>ActPriority</t>
+          <t>ActPharmacySupplyType</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>ActPriority</t>
+          <t>ActPharmacySupplyType</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>A code or set of codes (e.g., for routine, emergency,) specifying the urgency under which the Act happened, can happen, is happening, is intended to happen, or is requested/demanded to happen.    *Discussion:* This attribute is used in orders to indicate the ordered priority, and in event documentation it indicates the actual priority used to perform the act. In definition mood it indicates the available priorities.</t>
+          <t>Identifies types of dispensing events</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -10451,7 +10441,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -10466,27 +10456,27 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.16621</t>
+          <t>2.16.840.1.113883.1.11.16866</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>ActSubstanceAdminSubstitutionCode</t>
+          <t>ActPriority</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>ActSubstanceAdminSubstitutionCode</t>
+          <t>ActPriority</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>***No description***</t>
+          <t>A code or set of codes (e.g., for routine, emergency,) specifying the urgency under which the Act happened, can happen, is happening, is intended to happen, or is requested/demanded to happen.    *Discussion:* This attribute is used in orders to indicate the ordered priority, and in event documentation it indicates the actual priority used to perform the act. In definition mood it indicates the available priorities.</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-encounter</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -10499,12 +10489,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-HL7FormatCodes</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2.1.0</t>
+          <t>3.0.0</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10514,32 +10504,32 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.11.19752</t>
+          <t>2.16.840.1.113883.1.11.16621</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>HL7FormatCodes</t>
+          <t>ActSubstanceAdminSubstitutionCode</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>HL7 ValueSet of Format Codes for use with Document Sharing</t>
+          <t>ActSubstanceAdminSubstitutionCode</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>The HL7-FormatCodes value set is defined to be the set of FormatCode(s) defined by implementation guides published by HL7 and other SDOs. The use of a formatCode from the FormatCodes value set specifies the technical format that a document conforms to. The formatCode is a further specialization more detailed than the mime-type. The formatCode provides sufficient information to allow any potential document content consumer to know if it can process and/or display the content of the document based on the document encoding, structure and template conformance indicated by the formatCode. The set of formatCodes is intended to be extensible. The Content Logical Description is defined intentionally to permit formatCodes defined by other Standards Development Organizations to be added by inclusion of additional formatCode Code Systems.</t>
+          <t>***No description***</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>THO (V3),Other</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J216" t="inlineStr"/>
@@ -10547,12 +10537,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-HL7FormatCodes</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>3.1.0</t>
+          <t>2.1.0</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10562,32 +10552,32 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.20448</t>
+          <t>2.16.840.1.113883.11.19752</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>PurposeOfUse</t>
+          <t>HL7FormatCodes</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>PurposeOfUse</t>
+          <t>HL7 ValueSet of Format Codes for use with Document Sharing</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Supports communication of purpose of use at a general level.</t>
+          <t>The HL7-FormatCodes value set is defined to be the set of FormatCode(s) defined by implementation guides published by HL7 and other SDOs. The use of a formatCode from the FormatCodes value set specifies the technical format that a document conforms to. The formatCode is a further specialization more detailed than the mime-type. The formatCode provides sufficient information to allow any potential document content consumer to know if it can process and/or display the content of the document based on the document encoding, structure and template conformance indicated by the formatCode. The set of formatCodes is intended to be extensible. The Content Logical Description is defined intentionally to permit formatCodes defined by other Standards Development Organizations to be added by inclusion of additional formatCode Code Systems.</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-provenance</t>
+          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>THO (V3)</t>
+          <t>THO (V3),Other</t>
         </is>
       </c>
       <c r="J217" t="inlineStr"/>
@@ -10595,12 +10585,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>3.0.0</t>
+          <t>3.1.0</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10610,27 +10600,27 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.17660</t>
+          <t>2.16.840.1.113883.1.11.20448</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>ServiceDeliveryLocationRoleType</t>
+          <t>PurposeOfUse</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>ServiceDeliveryLocationRoleType</t>
+          <t>PurposeOfUse</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>A role of a place that further classifies the setting (e.g., accident site, road side, work site, community location) in which services are delivered.</t>
+          <t>Supports communication of purpose of use at a general level.</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-location,StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-provenance</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -10643,7 +10633,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -10658,27 +10648,27 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.19377</t>
+          <t>2.16.840.1.113883.1.11.17660</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>SubstanceAdminSubstitutionReason</t>
+          <t>ServiceDeliveryLocationRoleType</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>SubstanceAdminSubstitutionReason</t>
+          <t>ServiceDeliveryLocationRoleType</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>***No description***</t>
+          <t>A role of a place that further classifies the setting (e.g., accident site, road side, work site, community location) in which services are delivered.</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-location,StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -10691,12 +10681,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-TribalEntityUS</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>4.0.0</t>
+          <t>3.0.0</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10706,27 +10696,27 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.11631</t>
+          <t>2.16.840.1.113883.1.11.19377</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>TribalEntityUS</t>
+          <t>SubstanceAdminSubstitutionReason</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>TribalEntityUS</t>
+          <t>SubstanceAdminSubstitutionReason</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>INDIAN ENTITIES RECOGNIZED AND ELIGIBLE TO RECEIVE SERVICES FROM THE UNITED STATES BUREAU OF INDIAN AFFAIRS</t>
+          <t>***No description***</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-tribal-affiliation</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -10739,12 +10729,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-USEncounterDischargeDisposition</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-TribalEntityUS</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>3.0.0</t>
+          <t>4.0.0</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10754,32 +10744,32 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.19453</t>
+          <t>2.16.840.1.113883.1.11.11631</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>USEncounterDischargeDisposition</t>
+          <t>TribalEntityUS</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>USEncounterDischargeDisposition</t>
+          <t>TribalEntityUS</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>***No description***</t>
+          <t>INDIAN ENTITIES RECOGNIZED AND ELIGIBLE TO RECEIVE SERVICES FROM THE UNITED STATES BUREAU OF INDIAN AFFAIRS</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>StructureDefinition/us-core-tribal-affiliation</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J221" t="inlineStr"/>
@@ -10787,50 +10777,98 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
+          <t>http://terminology.hl7.org/ValueSet/v3-USEncounterDischargeDisposition</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>3.0.0</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2.16.840.1.113883.1.11.19453</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>USEncounterDischargeDisposition</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>USEncounterDischargeDisposition</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>***No description***</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>StructureDefinition/us-core-encounter</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>THO</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
           <t>http://terminology.hl7.org/ValueSet/v3-UnitsOfMeasureCaseSensitive</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>3.0.0</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="D223" t="inlineStr">
         <is>
           <t>2.16.840.1.113883.1.11.12839</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>UnitsOfMeasureCaseSensitive</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F223" t="inlineStr">
         <is>
           <t>UnitsOfMeasureCaseSensitive</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>**Description:** All units of measure.</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
+      <c r="H223" t="inlineStr">
         <is>
           <t>StructureDefinition/us-core-smokingstatus</t>
         </is>
       </c>
-      <c r="I222" t="inlineStr">
+      <c r="I223" t="inlineStr">
         <is>
           <t>UCUM</t>
         </is>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/input/images/tables/valueset-ref-all-list.xlsx
+++ b/input/images/tables/valueset-ref-all-list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="valueset-ref-all-list.csv" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="valueset-ref-all-list.csv" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -588,7 +588,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-sex</t>
+          <t>StructureDefinition/us-core-individual-sex</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -967,11 +967,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1240.8</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1240.3</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20231025</v>
+        <v>20230628</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -980,27 +980,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1240.8</t>
+          <t>2.16.840.1.113762.1.4.1240.3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MedicationAdherence</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Medication Adherence</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>This value set may change until publication of USCDI V4 representation in US Core and C-CDA is published in 2024</t>
+          <t>Created specifically to support United States USCDI v3 data element "Sex"</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medication-adherence</t>
+          <t>StructureDefinition/us-core-sex</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1009,11 +1009,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1247.71</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1240.8</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20241214</v>
+        <v>20231025</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1022,23 +1022,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1247.71</t>
+          <t>2.16.840.1.113762.1.4.1240.8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SocialDeterminantsOfHealthGoals</t>
+          <t>MedicationAdherence</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Social Determinants of Health Goals</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>Medication Adherence</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>This value set may change until publication of USCDI V4 representation in US Core and C-CDA is published in 2024</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-goal</t>
+          <t>StructureDefinition/us-core-medication-adherence</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1047,11 +1051,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.11</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1247.71</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20240329</v>
+        <v>20241214</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1060,23 +1064,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.11</t>
+          <t>2.16.840.1.113762.1.4.1247.71</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>InformationSourceForMedicationAdherence</t>
+          <t>SocialDeterminantsOfHealthGoals</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Information Source for Medication Adherence</t>
+          <t>Social Determinants of Health Goals</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medication-adherence</t>
+          <t>StructureDefinition/us-core-goal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1085,11 +1089,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.13</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.11</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20241008</v>
+        <v>20240329</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1098,44 +1102,36 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.13</t>
+          <t>2.16.840.1.113762.1.4.1267.11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ScreeningAndAssessmentSurveyCodes</t>
+          <t>InformationSourceForMedicationAdherence</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Screening and Assessment Survey Codes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>All LOINC survey codes</t>
-        </is>
-      </c>
+          <t>Information Source for Medication Adherence</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-observation-screening-assessment</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>LOINC</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-medication-adherence</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.16</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.13</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20241005</v>
+        <v>20241008</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1144,36 +1140,44 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.16</t>
+          <t>2.16.840.1.113762.1.4.1267.13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AnswerSetWithYesNoAndUnknowns</t>
+          <t>ScreeningAndAssessmentSurveyCodes</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Answer Set with Yes No and Unknowns</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Screening and Assessment Survey Codes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>All LOINC survey codes</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-interpreter-needed,StructureDefinition/us-core-observation-adi-documentation</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>StructureDefinition/us-core-observation-screening-assessment</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>LOINC</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.22</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.16</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20241015</v>
+        <v>20241005</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1182,23 +1186,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.22</t>
+          <t>2.16.840.1.113762.1.4.1267.16</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>RouteOfAdministrationOfTherapeuticAgents</t>
+          <t>AnswerSetWithYesNoAndUnknowns</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Route of Administration of Therapeutic Agents</t>
+          <t>Answer Set with Yes No and Unknowns</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-interpreter-needed,StructureDefinition/us-core-observation-adi-documentation</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1207,11 +1211,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.23</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.22</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20250510</v>
+        <v>20241015</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1220,23 +1224,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.23</t>
+          <t>2.16.840.1.113762.1.4.1267.22</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EncounterType</t>
+          <t>RouteOfAdministrationOfTherapeuticAgents</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Encounter Type</t>
+          <t>Route of Administration of Therapeutic Agents</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1245,11 +1249,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.24</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.23</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20241105</v>
+        <v>20250510</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1258,44 +1262,36 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.24</t>
+          <t>2.16.840.1.113762.1.4.1267.23</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SpecimenConditionSCT</t>
+          <t>EncounterType</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Specimen Condition SCT</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>This Specimen Condition SCT value set is an enumerated list created by the HL7 Orders and Observation WG’s lab subgroup to complement, without overlapping, the HL7 Specimen Condition value set (http://terminology.hl7.org/ValueSet/v2-0493). It is designed for use with the FHIR R4 Specimen Resource (https://hl7.org/fhir/R4/specimen.html), which has an extensible binding to the HL7 Specimen Condition value set. It can be used elsewhere and will be used in C-CDA. CAVEAT: 20 Additional codes will be added to this set (keeping the same scope) after the next publication of SCT in March 2025</t>
-        </is>
-      </c>
+          <t>Encounter Type</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ValueSet/us-core-specimen-condition</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>SCT</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-encounter</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.25</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.24</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20250419</v>
+        <v>20241105</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1304,40 +1300,44 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.25</t>
+          <t>2.16.840.1.113762.1.4.1267.24</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DetailedRaceIncludingAbsenceReasons</t>
+          <t>SpecimenConditionSCT</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Detailed race including absence reasons.</t>
+          <t>Specimen Condition SCT</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>This value set is based on the US Core Detailed Race value set (http://hl7.org/fhir/us/core/ValueSet/detailed-race) but assigned a new OID due to its slightly different scope. It includes the CDCREC code 2131-1 (Other Race) in place of the HL7 nullFlavor code "OTH" (Other)</t>
+          <t>This Specimen Condition SCT value set is an enumerated list created by the HL7 Orders and Observation WG’s lab subgroup to complement, without overlapping, the HL7 Specimen Condition value set (http://terminology.hl7.org/ValueSet/v2-0493). It is designed for use with the FHIR R4 Specimen Resource (https://hl7.org/fhir/R4/specimen.html), which has an extensible binding to the HL7 Specimen Condition value set. It can be used elsewhere and will be used in C-CDA. CAVEAT: 20 Additional codes will be added to this set (keeping the same scope) after the next publication of SCT in March 2025</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-race</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>ValueSet/us-core-specimen-condition</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>SCT</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.3</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.25</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20240217</v>
+        <v>20250419</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1346,40 +1346,40 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.3</t>
+          <t>2.16.840.1.113762.1.4.1267.25</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SmokingStatusComprehensive</t>
+          <t>DetailedRaceIncludingAbsenceReasons</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Smoking status comprehensive</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>Detailed race including absence reasons.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>This value set is based on the US Core Detailed Race value set (http://hl7.org/fhir/us/core/ValueSet/detailed-race) but assigned a new OID due to its slightly different scope. It includes the CDCREC code 2131-1 (Other Race) in place of the HL7 nullFlavor code "OTH" (Other)</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-smokingstatus</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>SCT</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-race</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.31</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.3</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20250516</v>
+        <v>20240217</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1388,40 +1388,40 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.31</t>
+          <t>2.16.840.1.113762.1.4.1267.3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>HealthcareServiceLocationTypeCombined</t>
+          <t>SmokingStatusComprehensive</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Healthcare Service Location Type Combined</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>This value set consolidates encounter type codes from the two code systems permitted by USCDI for representing encounter location, as specified in USCDI v5.(https://www.healthit.gov/isp/taxonomy/term/1336/uscdi-v5)</t>
-        </is>
-      </c>
+          <t>Smoking status comprehensive</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-location</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>StructureDefinition/us-core-smokingstatus</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>SCT</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.6</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.31</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20240222</v>
+        <v>20250516</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1430,23 +1430,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.16.840.1.113762.1.4.1267.6</t>
+          <t>2.16.840.1.113762.1.4.1267.31</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SmokingStatusType</t>
+          <t>HealthcareServiceLocationTypeCombined</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Smoking Status Type</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>Healthcare Service Location Type Combined</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>This value set consolidates encounter type codes from the two code systems permitted by USCDI for representing encounter location, as specified in USCDI v5.(https://www.healthit.gov/isp/taxonomy/term/1336/uscdi-v5)</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-smokingstatus</t>
+          <t>StructureDefinition/us-core-location</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1455,11 +1459,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.11.20.9.69.4</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.6</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>20250402</v>
+        <v>20240222</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1468,40 +1472,36 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.11.20.9.69.4</t>
+          <t>2.16.840.1.113762.1.4.1267.6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AdvanceHealthcareDirectiveCategoriesLOINC</t>
+          <t>SmokingStatusType</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Advance Healthcare Directive Categories LOINC</t>
+          <t>Smoking Status Type</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>LOINC</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-smokingstatus</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.3.88.12.80.62</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.11.20.9.69.4</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20240322</v>
+        <v>20250402</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1510,23 +1510,23 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.3.88.12.80.62</t>
+          <t>2.16.840.1.113883.11.20.9.69.4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>VitalSignResultType</t>
+          <t>AdvanceHealthcareDirectiveCategoriesLOINC</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vital Sign Result Type</t>
+          <t>Advance Healthcare Directive Categories LOINC</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-bmi,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-adi-documentreference</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1539,11 +1539,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.2.575</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.3.88.12.80.62</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>20250419</v>
+        <v>20240322</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1552,36 +1552,36 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.2.575</t>
+          <t>2.16.840.1.113883.3.88.12.80.62</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>RaceCategories</t>
+          <t>VitalSignResultType</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Race Categories</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>The HL7 OID used in the US Core Implementation Guide value set (http://hl7.org/fhir/us/core/ValueSet/omb-ethnicity-category) has been retained here, as the value set content is identical. However, the preferred reference is now the VSAC-hosted version, since both US Core and C-CDA will reference this set going forward</t>
-        </is>
-      </c>
+          <t>Vital Sign Result Type</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-race</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>LOINC</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.40.2.48.1</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.2.575</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1594,27 +1594,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.1</t>
+          <t>2.16.840.1.113883.4.642.2.575</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DetailedEthnicityIncludingAbsenceReasons</t>
+          <t>RaceCategories</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Detailed Ethnicity Including Absence Reasons</t>
+          <t>Race Categories</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>This value set was replicated from US Core's Detailed Ethnicity Set (http://hl7.org/fhir/us/core/ValueSet/detailed-ethnicity) and reuses the HL7 provided OID as it retains the same scope.</t>
+          <t>The HL7 OID used in the US Core Implementation Guide value set (http://hl7.org/fhir/us/core/ValueSet/omb-ethnicity-category) has been retained here, as the value set content is identical. However, the preferred reference is now the VSAC-hosted version, since both US Core and C-CDA will reference this set going forward</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-ethnicity</t>
+          <t>StructureDefinition/us-core-race</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -1623,7 +1623,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.40.2.48.3</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.40.2.48.1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1636,22 +1636,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.3</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EthnicityCategories</t>
+          <t>DetailedEthnicityIncludingAbsenceReasons</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ethnicity Categories</t>
+          <t>Detailed Ethnicity Including Absence Reasons</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>The HL7 OID used in the US Core Implementation Guide value set (http://hl7.org/fhir/us/core/ValueSet/omb-ethnicity-category) has been retained here, as the value set content is identical. However, the preferred reference is now the VSAC-hosted version, since both US Core and C-CDA will reference this set going forward. Additionally, the US Core IG-based value set does not currently support expansion, making the VSAC version more suitable for implementation.</t>
+          <t>This value set was replicated from US Core's Detailed Ethnicity Set (http://hl7.org/fhir/us/core/ValueSet/detailed-ethnicity) and reuses the HL7 provided OID as it retains the same scope.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1665,11 +1665,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.114222.4.11.1066</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.40.2.48.3</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20240606</v>
+        <v>20250419</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1678,44 +1678,40 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.16.840.1.114222.4.11.1066</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>HealthcareProviderTaxonomy</t>
+          <t>EthnicityCategories</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Healthcare Provider Taxonomy</t>
+          <t>Ethnicity Categories</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Code system at http://www.nucc.org/index.php?option=com_content&amp;view=article&amp;id=14&amp;Itemid=125</t>
+          <t>The HL7 OID used in the US Core Implementation Guide value set (http://hl7.org/fhir/us/core/ValueSet/omb-ethnicity-category) has been retained here, as the value set content is identical. However, the preferred reference is now the VSAC-hosted version, since both US Core and C-CDA will reference this set going forward. Additionally, the US Core IG-based value set does not currently support expansion, making the VSAC version more suitable for implementation.</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitionerrole</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-ethnicity</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.114222.4.11.3591</t>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.114222.4.11.1066</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>20250419</v>
+        <v>20240606</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1724,32 +1720,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.16.840.1.114222.4.11.3591</t>
+          <t>2.16.840.1.114222.4.11.1066</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PayerType</t>
+          <t>HealthcareProviderTaxonomy</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Payer Type</t>
+          <t>Healthcare Provider Taxonomy</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025 April version was changed to reduce the amount of granular vs higher level categories of insurance (payer) types. Note that the code system from where these codes are drawn is now owned by the CDC and not owned by NAHDO. CDC Contact: sopt@cdc.gov</t>
+          <t>Code system at http://www.nucc.org/index.php?option=com_content&amp;view=article&amp;id=14&amp;Itemid=125</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-coverage</t>
+          <t>StructureDefinition/us-core-practitionerrole</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Internal</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1757,47 +1753,45 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>4.0.1</t>
-        </is>
+          <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.114222.4.11.3591</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>20250419</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.95</t>
+          <t>2.16.840.1.114222.4.11.3591</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SNOMEDCTAdditionalDosageInstructions</t>
+          <t>PayerType</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SNOMED CT Additional Dosage Instructions</t>
+          <t>Payer Type</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>This value set includes all SNOMED CT Additional Dosage Instructions.</t>
+          <t>2025 April version was changed to reduce the amount of granular vs higher level categories of insurance (payer) types. Note that the code system from where these codes are drawn is now owned by the CDC and not owned by NAHDO. CDC Contact: sopt@cdc.gov</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-coverage</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>Internal</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1805,7 +1799,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/address-type</t>
+          <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1815,37 +1809,37 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.69</t>
+          <t>2.16.840.1.113883.4.642.3.95</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>AddressType</t>
+          <t>SNOMEDCTAdditionalDosageInstructions</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AddressType</t>
+          <t>SNOMED CT Additional Dosage Instructions</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>The type of an address (physical / postal).</t>
+          <t>This value set includes all SNOMED CT Additional Dosage Instructions.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-location,StructureDefinition/us-core-organization</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1853,7 +1847,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/address-use</t>
+          <t>http://hl7.org/fhir/ValueSet/address-type</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1868,22 +1862,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.67</t>
+          <t>2.16.840.1.113883.4.642.3.69</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>AddressUse</t>
+          <t>AddressType</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AddressUse</t>
+          <t>AddressType</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>The use of an address.</t>
+          <t>The type of an address (physical / postal).</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1901,7 +1895,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+          <t>http://hl7.org/fhir/ValueSet/address-use</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1911,37 +1905,37 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.97</t>
+          <t>2.16.840.1.113883.4.642.3.67</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SNOMEDCTAdministrationMethodCodes</t>
+          <t>AddressUse</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>SNOMED CT Administration Method Codes</t>
+          <t>AddressUse</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>This value set includes some method codes from SNOMED CT - provided as an exemplar</t>
+          <t>The use of an address.</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-location,StructureDefinition/us-core-organization</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -1949,7 +1943,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
+          <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1959,37 +1953,37 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1</t>
+          <t>2.16.840.1.113883.4.642.3.97</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AdministrativeGender</t>
+          <t>SNOMEDCTAdministrationMethodCodes</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>AdministrativeGender</t>
+          <t>SNOMED CT Administration Method Codes</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>The gender of a person used for administrative purposes.</t>
+          <t>This value set includes some method codes from SNOMED CT - provided as an exemplar</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-relatedperson</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -1997,7 +1991,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-category</t>
+          <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2007,32 +2001,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.133</t>
+          <t>2.16.840.1.113883.4.642.3.1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceCategory</t>
+          <t>AdministrativeGender</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceCategory</t>
+          <t>AdministrativeGender</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Category of an identified substance associated with allergies or intolerances.</t>
+          <t>The gender of a person used for administrative purposes.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-allergyintolerance</t>
+          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-relatedperson</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2045,7 +2039,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-criticality</t>
+          <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-category</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2060,22 +2054,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.129</t>
+          <t>2.16.840.1.113883.4.642.3.133</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceCriticality</t>
+          <t>AllergyIntoleranceCategory</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceCriticality</t>
+          <t>AllergyIntoleranceCategory</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Estimate of the potential clinical harm, or seriousness, of a reaction to an identified substance.</t>
+          <t>Category of an identified substance associated with allergies or intolerances.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2093,7 +2087,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-type</t>
+          <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-criticality</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2108,22 +2102,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.131</t>
+          <t>2.16.840.1.113883.4.642.3.129</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceType</t>
+          <t>AllergyIntoleranceCriticality</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceType</t>
+          <t>AllergyIntoleranceCriticality</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Identification of the underlying physiological mechanism for a Reaction Risk.</t>
+          <t>Estimate of the potential clinical harm, or seriousness, of a reaction to an identified substance.</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2141,7 +2135,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/allergyintolerance-clinical</t>
+          <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-type</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2156,22 +2150,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1372</t>
+          <t>2.16.840.1.113883.4.642.3.131</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceClinicalStatusCodes</t>
+          <t>AllergyIntoleranceType</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>AllergyIntolerance Clinical Status Codes</t>
+          <t>AllergyIntoleranceType</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Preferred value set for AllergyIntolerance Clinical Status.</t>
+          <t>Identification of the underlying physiological mechanism for a Reaction Risk.</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2181,7 +2175,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2189,7 +2183,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/allergyintolerance-verification</t>
+          <t>http://hl7.org/fhir/ValueSet/allergyintolerance-clinical</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2204,22 +2198,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1370</t>
+          <t>2.16.840.1.113883.4.642.3.1372</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceVerificationStatusCodes</t>
+          <t>AllergyIntoleranceClinicalStatusCodes</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>AllergyIntolerance Verification Status Codes</t>
+          <t>AllergyIntolerance Clinical Status Codes</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Preferred value set for AllergyIntolerance Verification Status.</t>
+          <t>Preferred value set for AllergyIntolerance Clinical Status.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2237,7 +2231,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+          <t>http://hl7.org/fhir/ValueSet/allergyintolerance-verification</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2252,32 +2246,32 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.346</t>
+          <t>2.16.840.1.113883.4.642.3.1370</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</t>
+          <t>AllergyIntoleranceVerificationStatusCodes</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SNOMED CT Anatomical Structure for Administration Site Codes</t>
+          <t>AllergyIntolerance Verification Status Codes</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>This value set includes Anatomical Structure codes from SNOMED CT - provided as an exemplar.</t>
+          <t>Preferred value set for AllergyIntolerance Verification Status.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-allergyintolerance</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2285,7 +2279,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/body-site</t>
+          <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2300,27 +2294,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.141</t>
+          <t>2.16.840.1.113883.4.642.3.346</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SNOMEDCTBodyStructures</t>
+          <t>SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SNOMED CT Body Structures</t>
+          <t>SNOMED CT Anatomical Structure for Administration Site Codes</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>This value set includes all codes from [SNOMED CT](http://snomed.info/sct) where concept is-a 442083009 (Anatomical or acquired body site (body structure)).</t>
+          <t>This value set includes Anatomical Structure codes from SNOMED CT - provided as an exemplar.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-specimen,StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-procedure,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-condition-encounter-diagnosis,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2333,7 +2327,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
+          <t>http://hl7.org/fhir/ValueSet/body-site</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2343,37 +2337,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.3.88.12.80.47</t>
+          <t>2.16.840.1.113883.4.642.3.141</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>DocumentTypeValueSet</t>
+          <t>SNOMEDCTBodyStructures</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Document Type Value Set</t>
+          <t>SNOMED CT Body Structures</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>This is the code specifying the precise type of document (e.g. Pulmonary History and  Physical, Discharge Summary, Ultrasound Report, etc.). The Document Type value set includes all LOINC  values listed in HITSP C80 Table 2-144 Document Class Value Set Definition above used for Document Class,  and all LOINC values whose SCALE is DOC in the LOINC database.</t>
+          <t>This value set includes all codes from [SNOMED CT](http://snomed.info/sct) where concept is-a 442083009 (Anatomical or acquired body site (body structure)).</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>OperationDefinition/docref</t>
+          <t>StructureDefinition/us-core-specimen,StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-procedure,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-condition-encounter-diagnosis,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2381,7 +2375,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/c80-facilitycodes</t>
+          <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2396,32 +2390,32 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.3.88.12.80.67</t>
+          <t>2.16.840.1.113883.3.88.12.80.47</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FacilityTypeCodeValueSet</t>
+          <t>DocumentTypeValueSet</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Facility Type Code Value Set</t>
+          <t>Document Type Value Set</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>This is the code representing the type of organizational setting where the clinical encounter, service, interaction, or treatment occurred. The value set used for Healthcare Facility Type has been defined by HITSP to be the value set reproduced from HITSP C80 Table 2-147.</t>
+          <t>This is the code specifying the precise type of document (e.g. Pulmonary History and  Physical, Discharge Summary, Ultrasound Report, etc.). The Document Type value set includes all LOINC  values listed in HITSP C80 Table 2-144 Document Class Value Set Definition above used for Document Class,  and all LOINC values whose SCALE is DOC in the LOINC database.</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
+          <t>OperationDefinition/docref</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2429,7 +2423,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+          <t>http://hl7.org/fhir/ValueSet/c80-facilitycodes</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2444,22 +2438,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.3.88.12.80.72</t>
+          <t>2.16.840.1.113883.3.88.12.80.67</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>PracticeSettingCodeValueSet</t>
+          <t>FacilityTypeCodeValueSet</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Practice Setting Code Value Set</t>
+          <t>Facility Type Code Value Set</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>This is the code representing the clinical specialty of the clinician or provider who interacted with, treated, or provided a service to/for the patient. The value set used for clinical specialty has been limited by HITSP to the value set reproduced from HITSP C80 Table 2-149 Clinical Specialty Value Set Definition.</t>
+          <t>This is the code representing the type of organizational setting where the clinical encounter, service, interaction, or treatment occurred. The value set used for Healthcare Facility Type has been defined by HITSP to be the value set reproduced from HITSP C80 Table 2-147.</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2477,7 +2471,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/care-plan-activity-kind</t>
+          <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2487,37 +2481,37 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.145</t>
+          <t>2.16.840.1.113883.3.88.12.80.72</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CarePlanActivityKind</t>
+          <t>PracticeSettingCodeValueSet</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Care Plan Activity Kind</t>
+          <t>Practice Setting Code Value Set</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Resource types defined as part of FHIR that can be represented as in-line definitions of a care plan activity.</t>
+          <t>This is the code representing the clinical specialty of the clinician or provider who interacted with, treated, or provided a service to/for the patient. The value set used for clinical specialty has been limited by HITSP to the value set reproduced from HITSP C80 Table 2-149 Clinical Specialty Value Set Definition.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-careplan</t>
+          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2525,7 +2519,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome</t>
+          <t>http://hl7.org/fhir/ValueSet/care-plan-activity-kind</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2540,22 +2534,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.149</t>
+          <t>2.16.840.1.113883.4.642.3.145</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CarePlanActivityOutcome</t>
+          <t>CarePlanActivityKind</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Care Plan Activity Outcome</t>
+          <t>Care Plan Activity Kind</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Example codes indicating the outcome of a care plan activity. Note that these are in no way complete and might not even be appropriate for some uses.</t>
+          <t>Resource types defined as part of FHIR that can be represented as in-line definitions of a care plan activity.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2565,7 +2559,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2573,7 +2567,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/care-plan-activity-status</t>
+          <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2588,22 +2582,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.146</t>
+          <t>2.16.840.1.113883.4.642.3.149</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CarePlanActivityStatus</t>
+          <t>CarePlanActivityOutcome</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>CarePlanActivityStatus</t>
+          <t>Care Plan Activity Outcome</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Codes that reflect the current state of a care plan activity within its overall life cycle.</t>
+          <t>Example codes indicating the outcome of a care plan activity. Note that these are in no way complete and might not even be appropriate for some uses.</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2613,7 +2607,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2621,7 +2615,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
+          <t>http://hl7.org/fhir/ValueSet/care-plan-activity-status</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2636,22 +2630,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.148</t>
+          <t>2.16.840.1.113883.4.642.3.146</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CarePlanCategory</t>
+          <t>CarePlanActivityStatus</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Care Plan Category</t>
+          <t>CarePlanActivityStatus</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Example codes indicating the category a care plan falls within.  Note that these are in no way complete and might not even be appropriate for some uses.</t>
+          <t>Codes that reflect the current state of a care plan activity within its overall life cycle.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2661,7 +2655,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2669,7 +2663,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/care-plan-intent</t>
+          <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2684,22 +2678,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.150</t>
+          <t>2.16.840.1.113883.4.642.3.148</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CarePlanIntent</t>
+          <t>CarePlanCategory</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Care Plan Intent</t>
+          <t>Care Plan Category</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
+          <t>Example codes indicating the category a care plan falls within.  Note that these are in no way complete and might not even be appropriate for some uses.</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2709,7 +2703,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2717,7 +2711,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/care-team-category</t>
+          <t>http://hl7.org/fhir/ValueSet/care-plan-intent</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2732,32 +2726,32 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.155</t>
+          <t>2.16.840.1.113883.4.642.3.150</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>CareTeamCategory</t>
+          <t>CarePlanIntent</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Care Team category</t>
+          <t>Care Plan Intent</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Indicates the type of care team.</t>
+          <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-careteam</t>
+          <t>StructureDefinition/us-core-careplan</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2765,7 +2759,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/care-team-status</t>
+          <t>http://hl7.org/fhir/ValueSet/care-team-category</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2780,22 +2774,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.153</t>
+          <t>2.16.840.1.113883.4.642.3.155</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CareTeamStatus</t>
+          <t>CareTeamCategory</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CareTeamStatus</t>
+          <t>Care Team category</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Indicates the status of the care team.</t>
+          <t>Indicates the type of care team.</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2805,7 +2799,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2813,7 +2807,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+          <t>http://hl7.org/fhir/ValueSet/care-team-status</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2828,32 +2822,32 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.232</t>
+          <t>2.16.840.1.113883.4.642.3.153</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SNOMEDCTClinicalFindings</t>
+          <t>CareTeamStatus</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>SNOMED CT Clinical Findings</t>
+          <t>CareTeamStatus</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>This value set includes all the "Clinical finding" [SNOMED CT](http://snomed.info/sct) codes - concepts where concept is-a 404684003 (Clinical finding (finding)).</t>
+          <t>Indicates the status of the care team.</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-diagnosticreport-note,StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-goal,StructureDefinition/us-core-careteam,StructureDefinition/us-core-careplan,StructureDefinition/us-core-allergyintolerance</t>
+          <t>StructureDefinition/us-core-careteam</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2861,7 +2855,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+          <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2876,32 +2870,32 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.79</t>
+          <t>2.16.840.1.113883.4.642.3.232</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CommonTags</t>
+          <t>SNOMEDCTClinicalFindings</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Common Tags</t>
+          <t>SNOMED CT Clinical Findings</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Common Tag Codes defined by FHIR project</t>
+          <t>This value set includes all the "Clinical finding" [SNOMED CT](http://snomed.info/sct) codes - concepts where concept is-a 404684003 (Clinical finding (finding)).</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-encounter,StructureDefinition/us-core-observation-lab</t>
+          <t>StructureDefinition/us-core-diagnosticreport-note,StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-goal,StructureDefinition/us-core-careteam,StructureDefinition/us-core-careplan,StructureDefinition/us-core-allergyintolerance</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2909,7 +2903,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/composition-status</t>
+          <t>http://hl7.org/fhir/ValueSet/common-tags</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2924,32 +2918,32 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.241</t>
+          <t>2.16.840.1.113883.4.642.3.79</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CompositionStatus</t>
+          <t>CommonTags</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CompositionStatus</t>
+          <t>Common Tags</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>The workflow/clinical status of the composition.</t>
+          <t>Common Tag Codes defined by FHIR project</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
+          <t>StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-encounter,StructureDefinition/us-core-observation-lab</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -2957,7 +2951,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/condition-category</t>
+          <t>http://hl7.org/fhir/ValueSet/composition-status</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2972,32 +2966,32 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.162</t>
+          <t>2.16.840.1.113883.4.642.3.241</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ConditionCategoryCodes</t>
+          <t>CompositionStatus</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Condition Category Codes</t>
+          <t>CompositionStatus</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Preferred value set for Condition Categories.</t>
+          <t>The workflow/clinical status of the composition.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-condition-encounter-diagnosis</t>
+          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3005,7 +2999,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/condition-clinical</t>
+          <t>http://hl7.org/fhir/ValueSet/condition-category</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3020,22 +3014,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.164</t>
+          <t>2.16.840.1.113883.4.642.3.162</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ConditionClinicalStatusCodes</t>
+          <t>ConditionCategoryCodes</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Condition Clinical Status Codes</t>
+          <t>Condition Category Codes</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Preferred value set for Condition Clinical Status.</t>
+          <t>Preferred value set for Condition Categories.</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3053,7 +3047,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+          <t>http://hl7.org/fhir/ValueSet/condition-clinical</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3068,32 +3062,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.161</t>
+          <t>2.16.840.1.113883.4.642.3.164</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Condition/Problem/DiagnosisCodes</t>
+          <t>ConditionClinicalStatusCodes</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Condition/Problem/Diagnosis Codes</t>
+          <t>Condition Clinical Status Codes</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Example value set for Condition/Problem/Diagnosis codes.</t>
+          <t>Preferred value set for Condition Clinical Status.</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-procedure</t>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-condition-encounter-diagnosis</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3101,7 +3095,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
+          <t>http://hl7.org/fhir/ValueSet/condition-code</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3116,27 +3110,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.168</t>
+          <t>2.16.840.1.113883.4.642.3.161</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Condition/DiagnosisSeverity</t>
+          <t>Condition/Problem/DiagnosisCodes</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Condition/Diagnosis Severity</t>
+          <t>Condition/Problem/Diagnosis Codes</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Preferred value set for Condition/Diagnosis severity grading.</t>
+          <t>Example value set for Condition/Problem/Diagnosis codes.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-condition-encounter-diagnosis</t>
+          <t>StructureDefinition/us-core-procedure</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3149,7 +3143,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
+          <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3164,22 +3158,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.170</t>
+          <t>2.16.840.1.113883.4.642.3.168</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ConditionStage</t>
+          <t>Condition/DiagnosisSeverity</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Condition Stage</t>
+          <t>Condition/Diagnosis Severity</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Example value set for stages of cancer and other conditions.</t>
+          <t>Preferred value set for Condition/Diagnosis severity grading.</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3197,7 +3191,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
+          <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3212,22 +3206,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.171</t>
+          <t>2.16.840.1.113883.4.642.3.170</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ConditionStageType</t>
+          <t>ConditionStage</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Condition Stage Type</t>
+          <t>Condition Stage</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Example value set for the type of stages of cancer and other conditions</t>
+          <t>Example value set for stages of cancer and other conditions.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3245,7 +3239,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/condition-ver-status</t>
+          <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3260,22 +3254,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.166</t>
+          <t>2.16.840.1.113883.4.642.3.171</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ConditionVerificationStatus</t>
+          <t>ConditionStageType</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ConditionVerificationStatus</t>
+          <t>Condition Stage Type</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
+          <t>Example value set for the type of stages of cancer and other conditions</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3285,7 +3279,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3293,7 +3287,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/contact-point-system</t>
+          <t>http://hl7.org/fhir/ValueSet/condition-ver-status</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3303,37 +3297,37 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.71</t>
+          <t>2.16.840.1.113883.4.642.3.166</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ContactPointSystem</t>
+          <t>ConditionVerificationStatus</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ContactPointSystem</t>
+          <t>ConditionVerificationStatus</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Telecommunications form for contact point.</t>
+          <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-practitionerrole,StructureDefinition/us-core-organization</t>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-condition-encounter-diagnosis</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3341,7 +3335,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/contact-point-use</t>
+          <t>http://hl7.org/fhir/ValueSet/contact-point-system</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3356,22 +3350,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.73</t>
+          <t>2.16.840.1.113883.4.642.3.71</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ContactPointUse</t>
+          <t>ContactPointSystem</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ContactPointUse</t>
+          <t>ContactPointSystem</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Use of contact point.</t>
+          <t>Telecommunications form for contact point.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3389,7 +3383,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+          <t>http://hl7.org/fhir/ValueSet/contact-point-use</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3399,37 +3393,37 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.416</t>
+          <t>2.16.840.1.113883.4.642.3.73</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ContactEntityType</t>
+          <t>ContactPointUse</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Contact entity type</t>
+          <t>ContactPointUse</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>This example value set defines a set of codes that can be used to indicate the purpose for which you would contact a contact party.</t>
+          <t>Use of contact point.</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-organization</t>
+          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-practitionerrole,StructureDefinition/us-core-organization</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3437,7 +3431,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/coverage-class</t>
+          <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3452,27 +3446,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1009</t>
+          <t>2.16.840.1.113883.4.642.3.416</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CoverageClassCodes</t>
+          <t>ContactEntityType</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Coverage Class Codes</t>
+          <t>Contact entity type</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>This value set includes Coverage Class codes.</t>
+          <t>This example value set defines a set of codes that can be used to indicate the purpose for which you would contact a contact party.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-coverage</t>
+          <t>StructureDefinition/us-core-organization</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3485,7 +3479,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/coverage-copay-type</t>
+          <t>http://hl7.org/fhir/ValueSet/coverage-class</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3500,22 +3494,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.527</t>
+          <t>2.16.840.1.113883.4.642.3.1009</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>CoverageCopayTypeCodes</t>
+          <t>CoverageClassCodes</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Coverage Copay Type Codes</t>
+          <t>Coverage Class Codes</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>This value set includes sample Coverage Copayment Type codes.</t>
+          <t>This value set includes Coverage Class codes.</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3533,7 +3527,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/coverage-financial-exception</t>
+          <t>http://hl7.org/fhir/ValueSet/coverage-copay-type</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3548,22 +3542,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1328</t>
+          <t>2.16.840.1.113883.4.642.3.527</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ExampleCoverageFinancialExceptionCodes</t>
+          <t>CoverageCopayTypeCodes</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Example Coverage Financial Exception Codes</t>
+          <t>Coverage Copay Type Codes</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>This value set includes Example Coverage Financial Exception Codes.</t>
+          <t>This value set includes sample Coverage Copayment Type codes.</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3581,7 +3575,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/coverage-financial-exception</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3591,32 +3585,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.5</t>
+          <t>2.16.840.1.113883.4.642.3.1328</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>DataAbsentReason</t>
+          <t>ExampleCoverageFinancialExceptionCodes</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>DataAbsentReason</t>
+          <t>Example Coverage Financial Exception Codes</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Used to specify why the normally expected content of the data element is missing.</t>
+          <t>This value set includes Example Coverage Financial Exception Codes.</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-coverage</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3629,7 +3623,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/days-of-week</t>
+          <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3644,32 +3638,32 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.512</t>
+          <t>2.16.840.1.113883.4.642.3.5</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>DaysOfWeek</t>
+          <t>DataAbsentReason</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>DaysOfWeek</t>
+          <t>DataAbsentReason</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>The days of the week.</t>
+          <t>Used to specify why the normally expected content of the data element is missing.</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitionerrole,StructureDefinition/us-core-location</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3677,7 +3671,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/device-action</t>
+          <t>http://hl7.org/fhir/ValueSet/days-of-week</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3687,37 +3681,37 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.425</t>
+          <t>2.16.840.1.113883.4.642.3.512</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ProcedureDeviceActionCodes</t>
+          <t>DaysOfWeek</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Procedure Device Action Codes</t>
+          <t>DaysOfWeek</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Example codes indicating the change that happened to the device during the procedure.  Note that these are in no way complete and might not even be appropriate for some uses.</t>
+          <t>The days of the week.</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-procedure</t>
+          <t>StructureDefinition/us-core-practitionerrole,StructureDefinition/us-core-location</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3725,7 +3719,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/device-kind</t>
+          <t>http://hl7.org/fhir/ValueSet/device-action</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3740,27 +3734,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.208</t>
+          <t>2.16.840.1.113883.4.642.3.425</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FHIRDeviceTypes</t>
+          <t>ProcedureDeviceActionCodes</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>FHIR Device Types</t>
+          <t>Procedure Device Action Codes</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Codes used to identify medical devices. Includes concepts from SNOMED CT (http://www.snomed.org/) where concept is-a 49062001 (Device)  and is provided as a suggestive example.</t>
+          <t>Example codes indicating the change that happened to the device during the procedure.  Note that these are in no way complete and might not even be appropriate for some uses.</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-implantable-device,StructureDefinition/us-core-procedure</t>
+          <t>StructureDefinition/us-core-procedure</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3773,7 +3767,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/device-nametype</t>
+          <t>http://hl7.org/fhir/ValueSet/device-kind</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3788,32 +3782,32 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1083</t>
+          <t>2.16.840.1.113883.4.642.3.208</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>DeviceNameType</t>
+          <t>FHIRDeviceTypes</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>DeviceNameType</t>
+          <t>FHIR Device Types</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>The type of name the device is referred by.</t>
+          <t>Codes used to identify medical devices. Includes concepts from SNOMED CT (http://www.snomed.org/) where concept is-a 49062001 (Device)  and is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-implantable-device</t>
+          <t>StructureDefinition/us-core-implantable-device,StructureDefinition/us-core-procedure</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3821,7 +3815,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/device-status</t>
+          <t>http://hl7.org/fhir/ValueSet/device-nametype</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3836,22 +3830,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.209</t>
+          <t>2.16.840.1.113883.4.642.3.1083</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FHIRDeviceStatus</t>
+          <t>DeviceNameType</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>FHIRDeviceStatus</t>
+          <t>DeviceNameType</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>The availability status of the device.</t>
+          <t>The type of name the device is referred by.</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3869,7 +3863,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/device-status</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3884,22 +3878,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1081</t>
+          <t>2.16.840.1.113883.4.642.3.209</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FHIRDeviceStatusReason</t>
+          <t>FHIRDeviceStatus</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>FHIRDeviceStatusReason</t>
+          <t>FHIRDeviceStatus</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>The availability status reason of the device.</t>
+          <t>The availability status of the device.</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3909,7 +3903,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3917,7 +3911,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+          <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3932,27 +3926,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.49</t>
+          <t>2.16.840.1.113883.4.642.3.1081</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>DiagnosisRole</t>
+          <t>FHIRDeviceStatusReason</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>DiagnosisRole</t>
+          <t>FHIRDeviceStatusReason</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to express the role of a diagnosis on the Encounter or EpisodeOfCare record.</t>
+          <t>The availability status reason of the device.</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>StructureDefinition/us-core-implantable-device</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3965,7 +3959,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
+          <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3980,32 +3974,32 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.235</t>
+          <t>2.16.840.1.113883.4.642.3.49</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>DiagnosticReportStatus</t>
+          <t>DiagnosisRole</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>DiagnosticReportStatus</t>
+          <t>DiagnosisRole</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>The status of the diagnostic report.</t>
+          <t>This value set defines a set of codes that can be used to express the role of a diagnosis on the Encounter or EpisodeOfCare record.</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-diagnosticreport-note,StructureDefinition/us-core-diagnosticreport-lab</t>
+          <t>StructureDefinition/us-core-encounter</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4013,7 +4007,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+          <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4028,22 +4022,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.234</t>
+          <t>2.16.840.1.113883.4.642.3.235</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>DiagnosticServiceSectionCodes</t>
+          <t>DiagnosticReportStatus</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Diagnostic Service Section Codes</t>
+          <t>DiagnosticReportStatus</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>This value set includes all the codes in HL7 V2 table 0074.</t>
+          <t>The status of the diagnostic report.</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4053,7 +4047,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4061,7 +4055,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+          <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4071,37 +4065,37 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.3.88.12.80.46</t>
+          <t>2.16.840.1.113883.4.642.3.234</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>DocumentClassValueSet</t>
+          <t>DiagnosticServiceSectionCodes</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Document Class Value Set</t>
+          <t>Diagnostic Service Section Codes</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>This is the code specifying the high-level kind of document (e.g. Prescription, Discharge Summary, Report, etc.). Note: Class code for documents comes from LOINC, and is based upon one of the following:The type of service described by the document. It is described at a very high level in Section 7.3 of the LOINC Manual. The type study performed. It was determined by identifying modalities for study reports. The section of the chart where the document is placed. It was determined from the SETs created for Claims Attachment requests.</t>
+          <t>This value set includes all the codes in HL7 V2 table 0074.</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
+          <t>StructureDefinition/us-core-diagnosticreport-note,StructureDefinition/us-core-diagnosticreport-lab</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>THO (V2)</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4109,7 +4103,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/document-reference-status</t>
+          <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4119,27 +4113,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.7</t>
+          <t>2.16.840.1.113883.3.88.12.80.46</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>DocumentReferenceStatus</t>
+          <t>DocumentClassValueSet</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>DocumentReferenceStatus</t>
+          <t>Document Class Value Set</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>The status of the document reference.</t>
+          <t>This is the code specifying the high-level kind of document (e.g. Prescription, Discharge Summary, Report, etc.). Note: Class code for documents comes from LOINC, and is based upon one of the following:The type of service described by the document. It is described at a very high level in Section 7.3 of the LOINC Manual. The type study performed. It was determined by identifying modalities for study reports. The section of the chart where the document is placed. It was determined from the SETs created for Claims Attachment requests.</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4149,7 +4143,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4157,7 +4151,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/document-relationship-type</t>
+          <t>http://hl7.org/fhir/ValueSet/document-reference-status</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4172,22 +4166,22 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.244</t>
+          <t>2.16.840.1.113883.4.642.3.7</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>DocumentRelationshipType</t>
+          <t>DocumentReferenceStatus</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>DocumentRelationshipType</t>
+          <t>DocumentReferenceStatus</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>The type of relationship between documents.</t>
+          <t>The status of the document reference.</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4205,7 +4199,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
+          <t>http://hl7.org/fhir/ValueSet/document-relationship-type</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4220,32 +4214,32 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.981</t>
+          <t>2.16.840.1.113883.4.642.3.244</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>DoseAndRateType</t>
+          <t>DocumentRelationshipType</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>DoseAndRateType</t>
+          <t>DocumentRelationshipType</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>The kind of dose or rate specified.</t>
+          <t>The type of relationship between documents.</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4253,7 +4247,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
+          <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4268,27 +4262,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.257</t>
+          <t>2.16.840.1.113883.4.642.3.981</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>AdmitSource</t>
+          <t>DoseAndRateType</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Admit source</t>
+          <t>DoseAndRateType</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to indicate from where the patient came in.</t>
+          <t>The kind of dose or rate specified.</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4301,7 +4295,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+          <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4316,22 +4310,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.255</t>
+          <t>2.16.840.1.113883.4.642.3.257</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Diet</t>
+          <t>AdmitSource</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Diet</t>
+          <t>Admit source</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to indicate dietary preferences or restrictions a patient may have.</t>
+          <t>This value set defines a set of codes that can be used to indicate from where the patient came in.</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4349,7 +4343,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/encounter-location-status</t>
+          <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4364,22 +4358,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.262</t>
+          <t>2.16.840.1.113883.4.642.3.255</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>EncounterLocationStatus</t>
+          <t>Diet</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>EncounterLocationStatus</t>
+          <t>Diet</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>The status of the location.</t>
+          <t>This value set defines a set of codes that can be used to indicate dietary preferences or restrictions a patient may have.</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4389,7 +4383,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4397,7 +4391,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+          <t>http://hl7.org/fhir/ValueSet/encounter-location-status</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4412,22 +4406,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.250</t>
+          <t>2.16.840.1.113883.4.642.3.262</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ParticipantType</t>
+          <t>EncounterLocationStatus</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Participant type</t>
+          <t>EncounterLocationStatus</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to indicate how an individual participates in an encounter.</t>
+          <t>The status of the location.</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4437,7 +4431,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>THO (V3),THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -4445,7 +4439,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4460,22 +4454,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.261</t>
+          <t>2.16.840.1.113883.4.642.3.250</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>EncounterReasonCodes</t>
+          <t>ParticipantType</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Encounter Reason Codes</t>
+          <t>Participant type</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>This examples value set defines the set of codes that can be used to indicate reasons for an encounter.</t>
+          <t>This value set defines a set of codes that can be used to indicate how an individual participates in an encounter.</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4485,7 +4479,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO (V3),THO</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4493,7 +4487,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+          <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4508,22 +4502,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.253</t>
+          <t>2.16.840.1.113883.4.642.3.261</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SpecialArrangements</t>
+          <t>EncounterReasonCodes</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Special arrangements</t>
+          <t>Encounter Reason Codes</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to indicate the kinds of special arrangements in place for a patients visit.</t>
+          <t>This examples value set defines the set of codes that can be used to indicate reasons for an encounter.</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4533,7 +4527,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4541,7 +4535,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+          <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4556,22 +4550,22 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.252</t>
+          <t>2.16.840.1.113883.4.642.3.253</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SpecialCourtesy</t>
+          <t>SpecialArrangements</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Special courtesy</t>
+          <t>Special arrangements</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to indicate special courtesies provided to the patient.</t>
+          <t>This value set defines a set of codes that can be used to indicate the kinds of special arrangements in place for a patients visit.</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4581,7 +4575,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>THO (V3)</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4589,7 +4583,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
+          <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4604,22 +4598,22 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.246</t>
+          <t>2.16.840.1.113883.4.642.3.252</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>EncounterStatus</t>
+          <t>SpecialCourtesy</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>EncounterStatus</t>
+          <t>Special courtesy</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Current state of the encounter.</t>
+          <t>This value set defines a set of codes that can be used to indicate special courtesies provided to the patient.</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4629,7 +4623,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4637,7 +4631,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/event-status</t>
+          <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4652,27 +4646,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.109</t>
+          <t>2.16.840.1.113883.4.642.3.246</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>EventStatus</t>
+          <t>EncounterStatus</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>EventStatus</t>
+          <t>EncounterStatus</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Codes identifying the lifecycle stage of an event.</t>
+          <t>Current state of the encounter.</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-procedure</t>
+          <t>StructureDefinition/us-core-encounter</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4685,7 +4679,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/fm-status</t>
+          <t>http://hl7.org/fhir/ValueSet/event-status</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4700,27 +4694,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.592</t>
+          <t>2.16.840.1.113883.4.642.3.109</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>FinancialResourceStatusCodes</t>
+          <t>EventStatus</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Financial Resource Status Codes</t>
+          <t>EventStatus</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>This value set includes Status codes.</t>
+          <t>Codes identifying the lifecycle stage of an event.</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-coverage</t>
+          <t>StructureDefinition/us-core-procedure</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4733,7 +4727,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/goal-achievement</t>
+          <t>http://hl7.org/fhir/ValueSet/fm-status</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4748,32 +4742,32 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1374</t>
+          <t>2.16.840.1.113883.4.642.3.592</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>GoalAchievementStatus</t>
+          <t>FinancialResourceStatusCodes</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Goal achievement status</t>
+          <t>Financial Resource Status Codes</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Describes the progression, or lack thereof, towards the goal against the target.</t>
+          <t>This value set includes Status codes.</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-goal</t>
+          <t>StructureDefinition/us-core-coverage</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4781,7 +4775,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/goal-category</t>
+          <t>http://hl7.org/fhir/ValueSet/goal-achievement</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4796,22 +4790,22 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.275</t>
+          <t>2.16.840.1.113883.4.642.3.1374</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>GoalCategory</t>
+          <t>GoalAchievementStatus</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Goal category</t>
+          <t>Goal achievement status</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Example codes for grouping goals to use for filtering or presentation.</t>
+          <t>Describes the progression, or lack thereof, towards the goal against the target.</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4829,7 +4823,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/goal-priority</t>
+          <t>http://hl7.org/fhir/ValueSet/goal-category</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4844,22 +4838,22 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.273</t>
+          <t>2.16.840.1.113883.4.642.3.275</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>GoalPriority</t>
+          <t>GoalCategory</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Goal priority</t>
+          <t>Goal category</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Indicates the level of importance associated with reaching or sustaining a goal.</t>
+          <t>Example codes for grouping goals to use for filtering or presentation.</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4877,7 +4871,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/goal-start-event</t>
+          <t>http://hl7.org/fhir/ValueSet/goal-priority</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4892,22 +4886,22 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.279</t>
+          <t>2.16.840.1.113883.4.642.3.273</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>GoalStartEvent</t>
+          <t>GoalPriority</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Goal start event</t>
+          <t>Goal priority</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Identifies types of events that might trigger the start of a goal.</t>
+          <t>Indicates the level of importance associated with reaching or sustaining a goal.</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4917,7 +4911,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4925,7 +4919,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/goal-status</t>
+          <t>http://hl7.org/fhir/ValueSet/goal-start-event</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4940,22 +4934,22 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.271</t>
+          <t>2.16.840.1.113883.4.642.3.279</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>GoalLifecycleStatus</t>
+          <t>GoalStartEvent</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>GoalLifecycleStatus</t>
+          <t>Goal start event</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Codes that reflect the current state of a goal and whether the goal is still being targeted.</t>
+          <t>Identifies types of events that might trigger the start of a goal.</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4965,7 +4959,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -4973,7 +4967,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+          <t>http://hl7.org/fhir/ValueSet/goal-status</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4983,37 +4977,37 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.45</t>
+          <t>2.16.840.1.113883.4.642.3.271</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Identifier Type Codes</t>
+          <t>GoalLifecycleStatus</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>IdentifierType</t>
+          <t>GoalLifecycleStatus</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+          <t>Codes that reflect the current state of a goal and whether the goal is still being targeted.</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-encounter,StructureDefinition/us-core-coverage,StructureDefinition/us-core-organization</t>
+          <t>StructureDefinition/us-core-goal</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -5021,7 +5015,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+          <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5036,22 +5030,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.57</t>
+          <t>2.16.840.1.113883.4.642.3.45</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>IdentifierUse</t>
+          <t>Identifier Type Codes</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>IdentifierUse</t>
+          <t>IdentifierType</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Identifies the purpose for this identifier, if known .</t>
+          <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5061,7 +5055,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO (V2)</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5069,7 +5063,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
+          <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5079,37 +5073,37 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.995</t>
+          <t>2.16.840.1.113883.4.642.3.57</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ImmunizationFunctionCodes</t>
+          <t>IdentifierUse</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Immunization Function Codes</t>
+          <t>IdentifierUse</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the function a practitioner or organization may play in the immunization event. This value set is provided as a suggestive example.</t>
+          <t>Identifies the purpose for this identifier, if known .</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-immunization</t>
+          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-encounter,StructureDefinition/us-core-coverage,StructureDefinition/us-core-organization</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5117,7 +5111,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5132,22 +5126,22 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.293</t>
+          <t>2.16.840.1.113883.4.642.3.995</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ImmunizationFundingSource</t>
+          <t>ImmunizationFunctionCodes</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Immunization Funding Source</t>
+          <t>Immunization Function Codes</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the source of the vaccine administered. This value set is provided as a suggestive example.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the function a practitioner or organization may play in the immunization event. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5157,7 +5151,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>THO (V2)</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5165,7 +5159,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5180,22 +5174,22 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.296</t>
+          <t>2.16.840.1.113883.4.642.3.293</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ImmunizationOriginCodes</t>
+          <t>ImmunizationFundingSource</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Immunization Origin Codes</t>
+          <t>Immunization Funding Source</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the source of the data when the report of the immunization event is not based on information from the person, entity or organization who administered the vaccine. This value set is provided as a suggestive example.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the source of the vaccine administered. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5213,7 +5207,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5228,22 +5222,22 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.291</t>
+          <t>2.16.840.1.113883.4.642.3.296</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ImmunizationProgramEligibility</t>
+          <t>ImmunizationOriginCodes</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Immunization Program Eligibility</t>
+          <t>Immunization Origin Codes</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the patient's eligibility for a vaccination program. This value set is provided as a suggestive example.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the source of the data when the report of the immunization event is not based on information from the person, entity or organization who administered the vaccine. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5261,7 +5255,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5276,22 +5270,22 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.290</t>
+          <t>2.16.840.1.113883.4.642.3.291</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ImmunizationReasonCodes</t>
+          <t>ImmunizationProgramEligibility</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Immunization Reason Codes</t>
+          <t>Immunization Program Eligibility</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the reason why a dose of vaccine was administered. This value set is provided as a suggestive example.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the patient's eligibility for a vaccination program. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5301,7 +5295,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5309,7 +5303,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5324,22 +5318,22 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.289</t>
+          <t>2.16.840.1.113883.4.642.3.290</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ImmunizationRouteCodes</t>
+          <t>ImmunizationReasonCodes</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Immunization Route Codes</t>
+          <t>Immunization Reason Codes</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the administrative routes used during vaccination. This value set is provided as a suggestive example.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the reason why a dose of vaccine was administered. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5349,7 +5343,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>THO (V3)</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5357,7 +5351,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5372,22 +5366,22 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.288</t>
+          <t>2.16.840.1.113883.4.642.3.289</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CodesForImmunizationSiteOfAdministration</t>
+          <t>ImmunizationRouteCodes</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Codes for Immunization Site of Administration</t>
+          <t>Immunization Route Codes</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the body site where the vaccination occurred. This value set is provided as a suggestive example.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the administrative routes used during vaccination. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5405,7 +5399,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-status</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5420,22 +5414,22 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.295</t>
+          <t>2.16.840.1.113883.4.642.3.288</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ImmunizationStatusCodes</t>
+          <t>CodesForImmunizationSiteOfAdministration</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Immunization Status Codes</t>
+          <t>Codes for Immunization Site of Administration</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the current status of the administered dose of vaccine.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the body site where the vaccination occurred. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5445,7 +5439,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5453,7 +5447,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-status</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5468,22 +5462,22 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.992</t>
+          <t>2.16.840.1.113883.4.642.3.295</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ImmunizationStatusReasonCodes</t>
+          <t>ImmunizationStatusCodes</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Immunization Status Reason Codes</t>
+          <t>Immunization Status Codes</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the reason why a dose of vaccine was not administered. This value set is provided as a suggestive example.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the current status of the administered dose of vaccine.</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5493,7 +5487,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>THO (V3),SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5501,7 +5495,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5516,22 +5510,22 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.993</t>
+          <t>2.16.840.1.113883.4.642.3.992</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ImmunizationSubpotentReason</t>
+          <t>ImmunizationStatusReasonCodes</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Immunization Subpotent Reason</t>
+          <t>Immunization Status Reason Codes</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the reason why a dose is considered to be subpotent. This value set is provided as a suggestive example.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the reason why a dose of vaccine was not administered. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5541,7 +5535,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>THO (V3),SCT</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5549,7 +5543,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/immunization-target-disease</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5564,22 +5558,22 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1047</t>
+          <t>2.16.840.1.113883.4.642.3.993</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ImmunizationTargetDiseaseCodes</t>
+          <t>ImmunizationSubpotentReason</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Immunization Target Disease Codes</t>
+          <t>Immunization Subpotent Reason</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the disease that the dose is being administered against. This value set is provided as a suggestive example and includes the SNOMED CT concepts from the 64572001 (Disease) hierarchy.</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the reason why a dose is considered to be subpotent. This value set is provided as a suggestive example.</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5589,7 +5583,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5597,7 +5591,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/languages</t>
+          <t>http://hl7.org/fhir/ValueSet/immunization-target-disease</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5612,32 +5606,32 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.20</t>
+          <t>2.16.840.1.113883.4.642.3.1047</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CommonLanguages</t>
+          <t>ImmunizationTargetDiseaseCodes</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Common Languages</t>
+          <t>Immunization Target Disease Codes</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>This value set includes common codes from BCP-47 (http://tools.ietf.org/html/bcp47)</t>
+          <t>The value set to instantiate this attribute should be drawn from a terminologically robust code system that consists of or contains concepts to support describing the disease that the dose is being administered against. This value set is provided as a suggestive example and includes the SNOMED CT concepts from the 64572001 (Disease) hierarchy.</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-specimen,StructureDefinition/us-core-documentreference,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-procedure,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-careplan,StructureDefinition/us-core-organization,StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-practitioner,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-practitionerrole,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-body-height,StructureDefinition/us-core-patient,StructureDefinition/us-core-provenance,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-questionnaireresponse,StructureDefinition/us-core-condition-encounter-diagnosis,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-implantable-device,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-medicationdispense,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-encounter,StructureDefinition/us-core-bmi,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-coverage,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-diagnosticreport-note,StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-medication,StructureDefinition/us-core-careteam,StructureDefinition/us-core-goal,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-relatedperson,StructureDefinition/us-core-immunization,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-location,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-allergyintolerance,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-immunization</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>hl7.terminology</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5645,7 +5639,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/link-type</t>
+          <t>http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5655,37 +5649,37 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.423</t>
+          <t>2.16.840.1.113883.4.642.3.20</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>LinkType</t>
+          <t>CommonLanguages</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>LinkType</t>
+          <t>Common Languages</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>The type of link between this patient resource and another patient resource.</t>
+          <t>This value set includes common codes from BCP-47 (http://tools.ietf.org/html/bcp47)</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-patient</t>
+          <t>StructureDefinition/us-core-specimen,StructureDefinition/us-core-documentreference,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-procedure,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-careplan,StructureDefinition/us-core-organization,StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-practitioner,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-practitionerrole,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-patient,StructureDefinition/us-core-provenance,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-questionnaireresponse,StructureDefinition/us-core-condition-encounter-diagnosis,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-implantable-device,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-medicationdispense,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-encounter,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-coverage,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-diagnosticreport-note,StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medication,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-goal,StructureDefinition/us-core-careteam,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-relatedperson,StructureDefinition/us-core-immunization,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-location,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-allergyintolerance,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>hl7.terminology</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5693,7 +5687,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/location-mode</t>
+          <t>http://hl7.org/fhir/ValueSet/link-type</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5703,32 +5697,32 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.330</t>
+          <t>2.16.840.1.113883.4.642.3.423</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>LocationMode</t>
+          <t>LinkType</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>LocationMode</t>
+          <t>LinkType</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Indicates whether a resource instance represents a specific location or a class of locations.</t>
+          <t>The type of link between this patient resource and another patient resource.</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-location</t>
+          <t>StructureDefinition/us-core-patient</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -5741,7 +5735,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+          <t>http://hl7.org/fhir/ValueSet/location-mode</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5756,32 +5750,32 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.328</t>
+          <t>2.16.840.1.113883.4.642.3.330</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>LocationType</t>
+          <t>LocationMode</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Location type</t>
+          <t>LocationMode</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>This example value set defines a set of codes that can be used to indicate the physical form of the Location.</t>
+          <t>Indicates whether a resource instance represents a specific location or a class of locations.</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter,StructureDefinition/us-core-location</t>
+          <t>StructureDefinition/us-core-location</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5789,7 +5783,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/location-status</t>
+          <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5804,32 +5798,32 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.332</t>
+          <t>2.16.840.1.113883.4.642.3.328</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>LocationStatus</t>
+          <t>LocationType</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>LocationStatus</t>
+          <t>Location type</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Indicates whether the location is still in use.</t>
+          <t>This example value set defines a set of codes that can be used to indicate the physical form of the Location.</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-location</t>
+          <t>StructureDefinition/us-core-encounter,StructureDefinition/us-core-location</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5837,7 +5831,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
+          <t>http://hl7.org/fhir/ValueSet/location-status</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5852,32 +5846,32 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.169</t>
+          <t>2.16.840.1.113883.4.642.3.332</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ManifestationAndSymptomCodes</t>
+          <t>LocationStatus</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Manifestation and Symptom Codes</t>
+          <t>LocationStatus</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Example value set for Manifestation and Symptom codes.</t>
+          <t>Indicates whether the location is still in use.</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-condition-encounter-diagnosis</t>
+          <t>StructureDefinition/us-core-location</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5885,7 +5879,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+          <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5895,37 +5889,37 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.29</t>
+          <t>2.16.840.1.113883.4.642.3.169</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Marital Status Codes</t>
+          <t>ManifestationAndSymptomCodes</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>MaritalStatus</t>
+          <t>Manifestation and Symptom Codes</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>This value set defines the set of codes that can be used to indicate the marital status of a person.</t>
+          <t>Example value set for Manifestation and Symptom codes.</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-patient</t>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-condition-encounter-diagnosis</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>THO (V3)</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5933,7 +5927,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/marital-status</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5943,37 +5937,37 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.96</t>
+          <t>2.16.840.1.113883.4.642.3.29</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SNOMEDCTMedicationAsNeededReasonCodes</t>
+          <t>Marital Status Codes</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>SNOMED CT Medication As Needed Reason Codes</t>
+          <t>MaritalStatus</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>This value set includes all clinical findings from SNOMED CT - provided as an exemplar value set.</t>
+          <t>This value set defines the set of codes that can be used to indicate the marital status of a person.</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense,StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-patient</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5981,7 +5975,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+          <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5996,27 +5990,27 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.375</t>
+          <t>2.16.840.1.113883.4.642.3.96</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SNOMEDCTMedicationCodes</t>
+          <t>SNOMEDCTMedicationAsNeededReasonCodes</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>SNOMED CT Medication Codes</t>
+          <t>SNOMED CT Medication As Needed Reason Codes</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>This value set includes all drug or medicament substance codes and all pharmaceutical/biologic products from SNOMED CT - provided as an exemplar value set.</t>
+          <t>This value set includes all clinical findings from SNOMED CT - provided as an exemplar value set.</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-careplan</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense,StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6029,7 +6023,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medication-form-codes</t>
+          <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6044,27 +6038,27 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.374</t>
+          <t>2.16.840.1.113883.4.642.3.375</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SNOMEDCTFormCodes</t>
+          <t>SNOMEDCTMedicationCodes</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>SNOMED CT Form Codes</t>
+          <t>SNOMED CT Medication Codes</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>This value set includes all dose form codes from SNOMED CT - provided as an exemplar.</t>
+          <t>This value set includes all drug or medicament substance codes and all pharmaceutical/biologic products from SNOMED CT - provided as an exemplar value set.</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medication</t>
+          <t>StructureDefinition/us-core-careplan</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6077,7 +6071,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medication-status</t>
+          <t>http://hl7.org/fhir/ValueSet/medication-form-codes</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6092,22 +6086,22 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.376</t>
+          <t>2.16.840.1.113883.4.642.3.374</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Medication Status Codes</t>
+          <t>SNOMEDCTFormCodes</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Medication  status  codes</t>
+          <t>SNOMED CT Form Codes</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Medication Status Codes</t>
+          <t>This value set includes all dose form codes from SNOMED CT - provided as an exemplar.</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6117,7 +6111,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -6125,7 +6119,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationdispense-category</t>
+          <t>http://hl7.org/fhir/ValueSet/medication-status</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6140,32 +6134,32 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1314</t>
+          <t>2.16.840.1.113883.4.642.3.376</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MedicationDispense Category Codes</t>
+          <t>Medication Status Codes</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Medication dispense  category  codes</t>
+          <t>Medication  status  codes</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>MedicationDispense Category Codes</t>
+          <t>Medication Status Codes</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-medication</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -6173,7 +6167,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationdispense-performer-function</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationdispense-category</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6188,22 +6182,22 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1318</t>
+          <t>2.16.840.1.113883.4.642.3.1314</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MedicationDispense Performer Function Codes</t>
+          <t>MedicationDispense Category Codes</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Medication dispense  performer  function  codes</t>
+          <t>Medication dispense  category  codes</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>MedicationDispense Performer Function Codes</t>
+          <t>MedicationDispense Category Codes</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6221,7 +6215,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationdispense-status</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationdispense-performer-function</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6236,22 +6230,22 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1312</t>
+          <t>2.16.840.1.113883.4.642.3.1318</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MedicationDispense Status Codes</t>
+          <t>MedicationDispense Performer Function Codes</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Medication dispense  status  codes</t>
+          <t>Medication dispense  performer  function  codes</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>MedicationDispense Status Codes</t>
+          <t>MedicationDispense Performer Function Codes</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6269,7 +6263,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationdispense-status</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6284,17 +6278,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1316</t>
+          <t>2.16.840.1.113883.4.642.3.1312</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MedicationDispense Status Reason Codes</t>
+          <t>MedicationDispense Status Codes</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Medication dispense  status  reason  codes</t>
+          <t>Medication dispense  status  codes</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6317,7 +6311,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6332,27 +6326,27 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1322</t>
+          <t>2.16.840.1.113883.4.642.3.1316</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>medicationRequest Category Codes</t>
+          <t>MedicationDispense Status Reason Codes</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Medication request  category  codes</t>
+          <t>Medication dispense  status  reason  codes</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>MedicationRequest Category Codes</t>
+          <t>MedicationDispense Status Codes</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest</t>
+          <t>StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6365,7 +6359,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6380,22 +6374,22 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1326</t>
+          <t>2.16.840.1.113883.4.642.3.1322</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>medicationRequest Course of Therapy Codes</t>
+          <t>medicationRequest Category Codes</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Medication request  course of  therapy  codes</t>
+          <t>Medication request  category  codes</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>MedicationRequest Course of Therapy Codes</t>
+          <t>MedicationRequest Category Codes</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6413,7 +6407,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationrequest-intent</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6428,22 +6422,22 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1321</t>
+          <t>2.16.840.1.113883.4.642.3.1326</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>medicationRequest Intent</t>
+          <t>medicationRequest Course of Therapy Codes</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Medication request  intent</t>
+          <t>Medication request  course of  therapy  codes</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>MedicationRequest Intent Codes</t>
+          <t>MedicationRequest Course of Therapy Codes</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6453,7 +6447,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -6461,7 +6455,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationrequest-status</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationrequest-intent</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6476,22 +6470,22 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1320</t>
+          <t>2.16.840.1.113883.4.642.3.1321</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>medicationrequest Status</t>
+          <t>medicationRequest Intent</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Medicationrequest  status</t>
+          <t>Medication request  intent</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>MedicationRequest Status Codes</t>
+          <t>MedicationRequest Intent Codes</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6509,7 +6503,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationrequest-status</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6524,22 +6518,22 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1324</t>
+          <t>2.16.840.1.113883.4.642.3.1320</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>medicationRequest Status Reason Codes</t>
+          <t>medicationrequest Status</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Medication request  status  reason  codes</t>
+          <t>Medicationrequest  status</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>MedicationRequest Status Reason Codes</t>
+          <t>MedicationRequest Status Codes</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6549,7 +6543,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6557,7 +6551,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/mimetypes</t>
+          <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6567,37 +6561,37 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1024</t>
+          <t>2.16.840.1.113883.4.642.3.1324</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Mime Types</t>
+          <t>medicationRequest Status Reason Codes</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>MimeType</t>
+          <t>Medication request  status  reason  codes</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>This value set includes all possible codes from BCP-13 (http://tools.ietf.org/html/bcp13)</t>
+          <t>MedicationRequest Status Reason Codes</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
+          <t>StructureDefinition/us-core-medicationrequest</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6605,7 +6599,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/name-use</t>
+          <t>http://hl7.org/fhir/ValueSet/mimetypes</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -6620,32 +6614,32 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.65</t>
+          <t>2.16.840.1.113883.4.642.3.1024</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>NameUse</t>
+          <t>Mime Types</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>NameUse</t>
+          <t>MimeType</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>The use of a human name.</t>
+          <t>This value set includes all possible codes from BCP-13 (http://tools.ietf.org/html/bcp13)</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient</t>
+          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6653,7 +6647,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+          <t>http://hl7.org/fhir/ValueSet/name-use</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6663,37 +6657,37 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.403</t>
+          <t>2.16.840.1.113883.4.642.3.65</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ObservationCategoryCodes</t>
+          <t>NameUse</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Observation Category Codes</t>
+          <t>NameUse</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Observation Category codes.</t>
+          <t>The use of a human name.</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-body-height,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6701,7 +6695,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+          <t>http://hl7.org/fhir/ValueSet/observation-category</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6716,32 +6710,32 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.396</t>
+          <t>2.16.840.1.113883.4.642.3.403</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>LOINCCodes</t>
+          <t>ObservationCategoryCodes</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>LOINC Codes</t>
+          <t>Observation Category Codes</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>This value set includes all LOINC codes</t>
+          <t>Observation Category codes.</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-goal,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-smokingstatus</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -6749,7 +6743,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6759,37 +6753,37 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.399</t>
+          <t>2.16.840.1.113883.4.642.3.396</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ObservationInterpretationCodes</t>
+          <t>LOINCCodes</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Observation Interpretation Codes</t>
+          <t>LOINC Codes</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>A categorical assessment, providing a rough qualitative interpretation of the observation value,    such as “normal”/ “abnormal”,”low” / “high”, “better” / “worse”, “susceptible” / “resistant”, “expected”/ “not expected”.    The value set is intended to be for ANY use where coded representation of an interpretation is needed.             Notes:          This is being communicated in v2.x in OBX-8 (Observation Interpretation), in v3 in ObservationInterpretation (CWE) in R1 (Representative Realm) and in FHIR in    Observation.interpretation. Historically these values come from the laboratory domain, and these codes are extensively    used. The value set binding is extensible, so codes outside the value set that are needed for interpretation concepts    (i.e. particular meanings) that are not included in the value set can be used, and these new codes may also be added to    the value set and published in a future version.</t>
+          <t>This value set includes all LOINC codes</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-goal,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>THO (V3)</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -6797,7 +6791,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+          <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6807,37 +6801,37 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.395</t>
+          <t>2.16.840.1.113883.4.642.3.399</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ObservationMethods</t>
+          <t>ObservationInterpretationCodes</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Observation Methods</t>
+          <t>Observation Interpretation Codes</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Observation Method codes from [SNOMED CT](http://snomed.info/sct) where concept is-a 272394005 (Technique (qualifier value)) or is-a 129264002 (Action (qualifier value)) or is-a 386053000 (Evaluation procedure(procedure))</t>
+          <t>A categorical assessment, providing a rough qualitative interpretation of the observation value,    such as “normal”/ “abnormal”,”low” / “high”, “better” / “worse”, “susceptible” / “resistant”, “expected”/ “not expected”.    The value set is intended to be for ANY use where coded representation of an interpretation is needed.             Notes:          This is being communicated in v2.x in OBX-8 (Observation Interpretation), in v3 in ObservationInterpretation (CWE) in R1 (Representative Realm) and in FHIR in    Observation.interpretation. Historically these values come from the laboratory domain, and these codes are extensively    used. The value set binding is extensible, so codes outside the value set that are needed for interpretation concepts    (i.e. particular meanings) that are not included in the value set can be used, and these new codes may also be added to    the value set and published in a future version.</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6845,7 +6839,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+          <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6855,37 +6849,37 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.400</t>
+          <t>2.16.840.1.113883.4.642.3.395</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ObservationStatus</t>
+          <t>ObservationMethods</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>ObservationStatus</t>
+          <t>Observation Methods</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Codes providing the status of an observation.</t>
+          <t>Observation Method codes from [SNOMED CT](http://snomed.info/sct) where concept is-a 272394005 (Technique (qualifier value)) or is-a 129264002 (Action (qualifier value)) or is-a 386053000 (Evaluation procedure(procedure))</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6893,7 +6887,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/organization-type</t>
+          <t>http://hl7.org/fhir/ValueSet/observation-status</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6903,37 +6897,37 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.414</t>
+          <t>2.16.840.1.113883.4.642.3.400</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>OrganizationType</t>
+          <t>ObservationStatus</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Organization type</t>
+          <t>ObservationStatus</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>This example value set defines a set of codes that can be used to indicate a type of organization.</t>
+          <t>Codes providing the status of an observation.</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-organization</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-body-height,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -6941,7 +6935,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+          <t>http://hl7.org/fhir/ValueSet/organization-type</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6956,32 +6950,32 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.152</t>
+          <t>2.16.840.1.113883.4.642.3.414</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ParticipantRoles</t>
+          <t>OrganizationType</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Participant Roles</t>
+          <t>Organization type</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Roles of participants that may be included in a care team.  Defined as: Is a Person, Healthcare professional (occupation) or Healthcare related organization (qualifier value).</t>
+          <t>This example value set defines a set of codes that can be used to indicate a type of organization.</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-organization</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -6989,7 +6983,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+          <t>http://hl7.org/fhir/ValueSet/participant-role</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6999,37 +6993,37 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1130</t>
+          <t>2.16.840.1.113883.4.642.3.152</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>PatientContactRelationship</t>
+          <t>ParticipantRoles</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Patient Contact Relationship </t>
+          <t>Participant Roles</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>The nature of the relationship between the patient and the contact person.</t>
+          <t>Roles of participants that may be included in a care team.  Defined as: Is a Person, Healthcare professional (occupation) or Healthcare related organization (qualifier value).</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-patient</t>
+          <t>StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -7037,7 +7031,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+          <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7047,37 +7041,37 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.433</t>
+          <t>2.16.840.1.113883.4.642.3.1130</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ProcedurePerformerRoleCodes</t>
+          <t>PatientContactRelationship</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Procedure Performer Role Codes</t>
+          <t xml:space="preserve">Patient Contact Relationship </t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>This example value set defines the set of codes that can be used to indicate a role of a procedure performer.</t>
+          <t>The nature of the relationship between the patient and the contact person.</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-procedure</t>
+          <t>StructureDefinition/us-core-patient</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO (V2)</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -7085,7 +7079,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
+          <t>http://hl7.org/fhir/ValueSet/performer-role</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7100,27 +7094,27 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.430</t>
+          <t>2.16.840.1.113883.4.642.3.433</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ProcedureCategoryCodes(SNOMEDCT)</t>
+          <t>ProcedurePerformerRoleCodes</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Procedure Category Codes (SNOMED CT)</t>
+          <t>Procedure Performer Role Codes</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Procedure Category code: A selection of relevant SNOMED CT codes.</t>
+          <t>This example value set defines the set of codes that can be used to indicate a role of a procedure performer.</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-procedure</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-procedure</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7133,7 +7127,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+          <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7148,27 +7142,27 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.427</t>
+          <t>2.16.840.1.113883.4.642.3.430</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ProcedureCodes(SNOMEDCT)</t>
+          <t>ProcedureCategoryCodes(SNOMEDCT)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Procedure Codes (SNOMED CT)</t>
+          <t>Procedure Category Codes (SNOMED CT)</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Procedure Code: All SNOMED CT procedure codes.</t>
+          <t>Procedure Category code: A selection of relevant SNOMED CT codes.</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-careplan</t>
+          <t>StructureDefinition/us-core-procedure</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7181,7 +7175,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/procedure-followup</t>
+          <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7196,27 +7190,27 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.429</t>
+          <t>2.16.840.1.113883.4.642.3.427</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ProcedureFollowUpCodes(SNOMEDCT)</t>
+          <t>ProcedureCodes(SNOMEDCT)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Procedure Follow up Codes (SNOMED CT)</t>
+          <t>Procedure Codes (SNOMED CT)</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Procedure follow up codes: A selection of SNOMED CT codes relevant to procedure follow up.</t>
+          <t>Procedure Code: All SNOMED CT procedure codes.</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-procedure</t>
+          <t>StructureDefinition/us-core-careplan</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7229,7 +7223,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason</t>
+          <t>http://hl7.org/fhir/ValueSet/procedure-followup</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7239,27 +7233,27 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.431</t>
+          <t>2.16.840.1.113883.4.642.3.429</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ProcedureNotPerformedReason(SNOMED-CT)</t>
+          <t>ProcedureFollowUpCodes(SNOMEDCT)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Procedure Not Performed Reason (SNOMED-CT)</t>
+          <t>Procedure Follow up Codes (SNOMED CT)</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Situation codes describing the reason that a procedure, which might otherwise be expected, was not performed, or a procedure that was started and was not completed. Consists of SNOMED CT codes, children of procedure contraindicated (183932001), procedure discontinued (416406003), procedure not done (416237000), procedure not indicated (428119001), procedure not offered (416064006), procedure not wanted (416432009), procedure refused (183944003), and procedure stopped (394908001).</t>
+          <t>Procedure follow up codes: A selection of SNOMED CT codes relevant to procedure follow up.</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7277,7 +7271,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
+          <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7287,27 +7281,27 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.428</t>
+          <t>2.16.840.1.113883.4.642.3.431</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ProcedureOutcomeCodes(SNOMEDCT)</t>
+          <t>ProcedureNotPerformedReason(SNOMED-CT)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Procedure Outcome Codes (SNOMED CT)</t>
+          <t>Procedure Not Performed Reason (SNOMED-CT)</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Procedure Outcome code: A selection of relevant SNOMED CT codes.</t>
+          <t>Situation codes describing the reason that a procedure, which might otherwise be expected, was not performed, or a procedure that was started and was not completed. Consists of SNOMED CT codes, children of procedure contraindicated (183932001), procedure discontinued (416406003), procedure not done (416237000), procedure not indicated (428119001), procedure not offered (416064006), procedure not wanted (416432009), procedure refused (183944003), and procedure stopped (394908001).</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7325,7 +7319,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
+          <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7340,32 +7334,32 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.438</t>
+          <t>2.16.840.1.113883.4.642.3.428</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ProvenanceActivityType</t>
+          <t>ProcedureOutcomeCodes(SNOMEDCT)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Provenance activity type</t>
+          <t>Procedure Outcome Codes (SNOMED CT)</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>This value set contains representative Activity Type codes, which includes codes from the HL7 DocumentCompletion, ActStatus, and DataOperations code system, W3C PROV-DM and PROV-N concepts and display names, several HL7 Lifecycle Event codes for which there are agreed upon definitions, and non-duplicated codes from the HL7 Security and Privacy Ontology Operations codes.</t>
+          <t>Procedure Outcome code: A selection of relevant SNOMED CT codes.</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-provenance</t>
+          <t>StructureDefinition/us-core-procedure</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>THO (V3)</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7373,7 +7367,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/provenance-entity-role</t>
+          <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7388,22 +7382,22 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.436</t>
+          <t>2.16.840.1.113883.4.642.3.438</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ProvenanceEntityRole</t>
+          <t>ProvenanceActivityType</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>ProvenanceEntityRole</t>
+          <t>Provenance activity type</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>How an entity was used in an activity.</t>
+          <t>This value set contains representative Activity Type codes, which includes codes from the HL7 DocumentCompletion, ActStatus, and DataOperations code system, W3C PROV-DM and PROV-N concepts and display names, several HL7 Lifecycle Event codes for which there are agreed upon definitions, and non-duplicated codes from the HL7 Security and Privacy Ontology Operations codes.</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7413,7 +7407,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7421,7 +7415,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/quantity-comparator</t>
+          <t>http://hl7.org/fhir/ValueSet/provenance-entity-role</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7431,32 +7425,32 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.59</t>
+          <t>2.16.840.1.113883.4.642.3.436</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>QuantityComparator</t>
+          <t>ProvenanceEntityRole</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>QuantityComparator</t>
+          <t>ProvenanceEntityRole</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>How the Quantity should be understood and represented.</t>
+          <t>How an entity was used in an activity.</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-bmi,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-provenance</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7469,7 +7463,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/questionnaire-answers</t>
+          <t>http://hl7.org/fhir/ValueSet/quantity-comparator</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7479,37 +7473,37 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.446</t>
+          <t>2.16.840.1.113883.4.642.3.59</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>QuestionnaireAnswerCodes</t>
+          <t>QuantityComparator</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Questionnaire Answer Codes</t>
+          <t>QuantityComparator</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Example list of codes for answers to questions. (Not complete or necessarily appropriate.)</t>
+          <t>How the Quantity should be understood and represented.</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-questionnaireresponse</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7517,7 +7511,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/questionnaire-answers-status</t>
+          <t>http://hl7.org/fhir/ValueSet/questionnaire-answers</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7532,22 +7526,22 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>2.16.840.1.113883.4.642.3.446</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>QuestionnaireResponseStatus</t>
+          <t>QuestionnaireAnswerCodes</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>QuestionnaireResponseStatus</t>
+          <t>Questionnaire Answer Codes</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Lifecycle status of the questionnaire response.</t>
+          <t>Example list of codes for answers to questions. (Not complete or necessarily appropriate.)</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7557,7 +7551,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7565,7 +7559,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/reaction-event-severity</t>
+          <t>http://hl7.org/fhir/ValueSet/questionnaire-answers-status</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -7580,27 +7574,27 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.135</t>
+          <t>required</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceSeverity</t>
+          <t>QuestionnaireResponseStatus</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>AllergyIntoleranceSeverity</t>
+          <t>QuestionnaireResponseStatus</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Clinical assessment of the severity of a reaction event as a whole, potentially considering multiple different manifestations.</t>
+          <t>Lifecycle status of the questionnaire response.</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-allergyintolerance</t>
+          <t>StructureDefinition/us-core-questionnaireresponse</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -7613,7 +7607,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>http://hl7.org/fhir/ValueSet/reaction-event-severity</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -7628,32 +7622,32 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.407</t>
+          <t>2.16.840.1.113883.4.642.3.135</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ObservationReferenceRangeAppliesToCodes</t>
+          <t>AllergyIntoleranceSeverity</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Observation Reference Range Applies To Codes</t>
+          <t>AllergyIntoleranceSeverity</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to indicate the particular target population the reference range applies to.</t>
+          <t>Clinical assessment of the severity of a reaction event as a whole, potentially considering multiple different manifestations.</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-allergyintolerance</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -7661,7 +7655,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -7676,32 +7670,32 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.397</t>
+          <t>2.16.840.1.113883.4.642.3.407</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ObservationReferenceRangeMeaningCodes</t>
+          <t>ObservationReferenceRangeAppliesToCodes</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Observation Reference Range Meaning Codes</t>
+          <t>Observation Reference Range Applies To Codes</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes that can be used to indicate the meaning/use of a reference range for a particular target population.</t>
+          <t>This value set defines a set of codes that can be used to indicate the particular target population the reference range applies to.</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/us-core-observation-lab,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7709,7 +7703,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype</t>
+          <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -7724,32 +7718,32 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.449</t>
+          <t>2.16.840.1.113883.4.642.3.397</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>PatientRelationshipType</t>
+          <t>ObservationReferenceRangeMeaningCodes</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Patient relationship type</t>
+          <t>Observation Reference Range Meaning Codes</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>A set of codes that can be used to indicate the relationship between a Patient and a Related Person.</t>
+          <t>This value set defines a set of codes that can be used to indicate the meaning/use of a reference range for a particular target population.</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-relatedperson</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-observation-pregnancyintent,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-simple-observation,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-body-height,StructureDefinition/us-core-smokingstatus,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-observation-clinical-result,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-observation-screening-assessment,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-observation-pregnancystatus,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-observation-occupation,StructureDefinition/us-core-average-blood-pressure,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-sexual-orientation,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>THO (V3),THO (V2)</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7757,7 +7751,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/request-intent</t>
+          <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -7772,32 +7766,32 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.113</t>
+          <t>2.16.840.1.113883.4.642.3.449</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>RequestIntent</t>
+          <t>PatientRelationshipType</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>RequestIntent</t>
+          <t>Patient relationship type</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Codes indicating the degree of authority/intentionality associated with a request.</t>
+          <t>A set of codes that can be used to indicate the relationship between a Patient and a Related Person.</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-relatedperson</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO (V3),THO (V2)</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7805,7 +7799,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/request-priority</t>
+          <t>http://hl7.org/fhir/ValueSet/request-intent</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -7820,27 +7814,27 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.115</t>
+          <t>2.16.840.1.113883.4.642.3.113</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>RequestPriority</t>
+          <t>RequestIntent</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Request priority</t>
+          <t>RequestIntent</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>The clinical priority of a diagnostic order.</t>
+          <t>Codes indicating the degree of authority/intentionality associated with a request.</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -7853,7 +7847,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/request-status</t>
+          <t>http://hl7.org/fhir/ValueSet/request-priority</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -7868,27 +7862,27 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.111</t>
+          <t>2.16.840.1.113883.4.642.3.115</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>RequestStatus</t>
+          <t>RequestPriority</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>RequestStatus</t>
+          <t>Request priority</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Codes identifying the lifecycle stage of a request.</t>
+          <t>The clinical priority of a diagnostic order.</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-careplan,StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -7901,7 +7895,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+          <t>http://hl7.org/fhir/ValueSet/request-status</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -7911,32 +7905,32 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.27</t>
+          <t>2.16.840.1.113883.4.642.3.111</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ResourceType</t>
+          <t>RequestStatus</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>ResourceType</t>
+          <t>RequestStatus</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>One of the resource types defined as part of this version of FHIR.</t>
+          <t>Codes identifying the lifecycle stage of a request.</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-provenance</t>
+          <t>StructureDefinition/us-core-careplan,StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -7949,7 +7943,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+          <t>http://hl7.org/fhir/ValueSet/resource-types</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7959,37 +7953,37 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.98</t>
+          <t>2.16.840.1.113883.4.642.3.27</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>SNOMEDCTRouteCodes</t>
+          <t>ResourceType</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>SNOMED CT Route Codes</t>
+          <t>ResourceType</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>This value set includes all Route codes from SNOMED CT - provided as an exemplar.</t>
+          <t>One of the resource types defined as part of this version of FHIR.</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-allergyintolerance</t>
+          <t>StructureDefinition/us-core-provenance</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -7997,7 +7991,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+          <t>http://hl7.org/fhir/ValueSet/route-codes</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8007,41 +8001,45 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.47</t>
+          <t>2.16.840.1.113883.4.642.3.98</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>All Security Labels</t>
+          <t>SNOMEDCTRouteCodes</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>SecurityLabels</t>
+          <t>SNOMED CT Route Codes</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>A single value set for all security labels defined by FHIR.</t>
+          <t>This value set includes all Route codes from SNOMED CT - provided as an exemplar.</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-documentreference,StructureDefinition/us-core-encounter,StructureDefinition/us-core-observation-lab</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr"/>
+          <t>StructureDefinition/us-core-allergyintolerance</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>SCT</t>
+        </is>
+      </c>
       <c r="J163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
+          <t>http://hl7.org/fhir/ValueSet/security-labels</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8051,45 +8049,41 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.978</t>
+          <t>2.16.840.1.113883.4.642.3.47</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>SecurityRoleType</t>
+          <t>All Security Labels</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>SecurityRoleType</t>
+          <t>SecurityLabels</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>This example FHIR value set is comprised of example Actor Type codes, which can be used to value FHIR agents, actors, and other role         elements such as those specified in financial transactions. The FHIR Actor value set is based on    DICOM Audit Message, C402;   ASTM Standard, E1762-95 [2013]; selected codes and          derived actor roles from HL7 RoleClass OID 2.16.840.1.113883.5.110;    HL7 Role Code 2.16.840.1.113883.5.111, including AgentRoleType;          HL7 ParticipationType OID: 2.16.840.1.113883.5.90; and    HL7 ParticipationFunction codes OID: 2.16.840.1.113883.5.88.           This value set includes, by reference, role codes from external code systems: NUCC Health Care Provider Taxonomy OID: 2.16.840.1.113883.6.101;          North American Industry Classification System [NAICS]OID: 2.16.840.1.113883.6.85; IndustryClassificationSystem 2.16.840.1.113883.1.11.16039;          and US Census Occupation Code OID: 2.16.840.1.113883.6.243 for relevant recipient or custodian codes not included in this value set.            If no source is indicated in the definition comments, then these are example FHIR codes.          It can be extended with appropriate roles described by SNOMED as well as those described in the HL7 Role Based Access Control Catalog and the          HL7 Healthcare (Security and Privacy) Access Control Catalog.            In Role-Based Access Control (RBAC), permissions are operations on an object that a user wishes to access. Permissions are grouped into roles.          A role characterizes the functions a user is allowed to perform. Roles are assigned to users. If the user's role has the appropriate permissions          to access an object, then that user is granted access to the object. FHIR readily enables RBAC, as FHIR Resources are object types and the CRUDE          events (the FHIR equivalent to permissions in the RBAC scheme) are operations on those objects.          In Attribute-Based Access Control (ABAC), a user requests to perform operations on objects. That user's access request is granted or denied          based on a set of access control policies that are specified in terms of attributes and conditions. FHIR readily enables ABAC, as instances of          a Resource in FHIR (again, Resources are object types) can have attributes associated with them. These attributes include security tags,          environment conditions, and a host of user and object characteristics, which are the same attributes as those used in ABAC. Attributes help          define the access control policies that determine the operations a user may perform on a Resource (in FHIR) or object (in ABAC). For example,          a tag (or attribute) may specify that the identified Resource (object) is not to be further disclosed without explicit consent from the patient.</t>
+          <t>A single value set for all security labels defined by FHIR.</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-provenance</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>THO (V3),THO,DICOM</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-documentreference,StructureDefinition/us-core-encounter,StructureDefinition/us-core-observation-lab</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/service-type</t>
+          <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8104,32 +8098,32 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.518</t>
+          <t>2.16.840.1.113883.4.642.3.978</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ServiceType</t>
+          <t>SecurityRoleType</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Service type</t>
+          <t>SecurityRoleType</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>This value set defines an example set of codes of service-types.</t>
+          <t>This example FHIR value set is comprised of example Actor Type codes, which can be used to value FHIR agents, actors, and other role         elements such as those specified in financial transactions. The FHIR Actor value set is based on    DICOM Audit Message, C402;   ASTM Standard, E1762-95 [2013]; selected codes and          derived actor roles from HL7 RoleClass OID 2.16.840.1.113883.5.110;    HL7 Role Code 2.16.840.1.113883.5.111, including AgentRoleType;          HL7 ParticipationType OID: 2.16.840.1.113883.5.90; and    HL7 ParticipationFunction codes OID: 2.16.840.1.113883.5.88.           This value set includes, by reference, role codes from external code systems: NUCC Health Care Provider Taxonomy OID: 2.16.840.1.113883.6.101;          North American Industry Classification System [NAICS]OID: 2.16.840.1.113883.6.85; IndustryClassificationSystem 2.16.840.1.113883.1.11.16039;          and US Census Occupation Code OID: 2.16.840.1.113883.6.243 for relevant recipient or custodian codes not included in this value set.            If no source is indicated in the definition comments, then these are example FHIR codes.          It can be extended with appropriate roles described by SNOMED as well as those described in the HL7 Role Based Access Control Catalog and the          HL7 Healthcare (Security and Privacy) Access Control Catalog.            In Role-Based Access Control (RBAC), permissions are operations on an object that a user wishes to access. Permissions are grouped into roles.          A role characterizes the functions a user is allowed to perform. Roles are assigned to users. If the user's role has the appropriate permissions          to access an object, then that user is granted access to the object. FHIR readily enables RBAC, as FHIR Resources are object types and the CRUDE          events (the FHIR equivalent to permissions in the RBAC scheme) are operations on those objects.          In Attribute-Based Access Control (ABAC), a user requests to perform operations on objects. That user's access request is granted or denied          based on a set of access control policies that are specified in terms of attributes and conditions. FHIR readily enables ABAC, as instances of          a Resource in FHIR (again, Resources are object types) can have attributes associated with them. These attributes include security tags,          environment conditions, and a host of user and object characteristics, which are the same attributes as those used in ABAC. Attributes help          define the access control policies that determine the operations a user may perform on a Resource (in FHIR) or object (in ABAC). For example,          a tag (or attribute) may specify that the identified Resource (object) is not to be further disclosed without explicit consent from the patient.</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>StructureDefinition/us-core-provenance</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>THO (V3),THO,DICOM</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -8137,7 +8131,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+          <t>http://hl7.org/fhir/ValueSet/service-type</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8152,32 +8146,32 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.434</t>
+          <t>2.16.840.1.113883.4.642.3.518</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ServiceRequestCategoryCodes</t>
+          <t>ServiceType</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Service Request Category Codes</t>
+          <t>Service type</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>An example value set of SNOMED CT concepts that can classify a requested service</t>
+          <t>This value set defines an example set of codes of service-types.</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>ValueSet/us-core-servicerequest-category,StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-encounter</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -8185,7 +8179,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+          <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8200,27 +8194,27 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.435</t>
+          <t>2.16.840.1.113883.4.642.3.434</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ServiceRequestOrderDetailsCodes</t>
+          <t>ServiceRequestCategoryCodes</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Service Request Order Details Codes</t>
+          <t>Service Request Category Codes</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>An example value set of Codified order entry details concepts.  These concepts only make sense in the context of what is being ordered.  This example is for a patient ventilation order</t>
+          <t>An example value set of SNOMED CT concepts that can classify a requested service</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-servicerequest</t>
+          <t>ValueSet/us-core-servicerequest-category,StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -8233,7 +8227,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/specimen-collection-method</t>
+          <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8248,27 +8242,27 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.468</t>
+          <t>2.16.840.1.113883.4.642.3.435</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>FHIRSpecimenCollectionMethod</t>
+          <t>ServiceRequestOrderDetailsCodes</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>FHIR Specimen Collection Method</t>
+          <t>Service Request Order Details Codes</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This example value set defines a set of codes that can be used to indicate the method by which a specimen was collected.</t>
+          <t>An example value set of Codified order entry details concepts.  These concepts only make sense in the context of what is being ordered.  This example is for a patient ventilation order</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-specimen</t>
+          <t>StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -8281,7 +8275,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/specimen-container-type</t>
+          <t>http://hl7.org/fhir/ValueSet/specimen-collection-method</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8296,22 +8290,22 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.470</t>
+          <t>2.16.840.1.113883.4.642.3.468</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>SpecimenContainerType</t>
+          <t>FHIRSpecimenCollectionMethod</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Specimen Container Type</t>
+          <t>FHIR Specimen Collection Method</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Checks on the patient prior specimen collection. All SNOMED CT concepts descendants of 706041008 |Device for body fluid and tissue collection/transfer/processing (physical object)|</t>
+          <t xml:space="preserve"> This example value set defines a set of codes that can be used to indicate the method by which a specimen was collected.</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8329,7 +8323,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/specimen-processing-procedure</t>
+          <t>http://hl7.org/fhir/ValueSet/specimen-container-type</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8344,22 +8338,22 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.469</t>
+          <t>2.16.840.1.113883.4.642.3.470</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>SpecimenProcessingProcedure</t>
+          <t>SpecimenContainerType</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Specimen processing procedure</t>
+          <t>Specimen Container Type</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>The technique that is used to perform the process or preserve the specimen.</t>
+          <t>Checks on the patient prior specimen collection. All SNOMED CT concepts descendants of 706041008 |Device for body fluid and tissue collection/transfer/processing (physical object)|</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8369,7 +8363,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8377,7 +8371,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/specimen-status</t>
+          <t>http://hl7.org/fhir/ValueSet/specimen-processing-procedure</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8392,22 +8386,22 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.471</t>
+          <t>2.16.840.1.113883.4.642.3.469</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>SpecimenStatus</t>
+          <t>SpecimenProcessingProcedure</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>SpecimenStatus</t>
+          <t>Specimen processing procedure</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Codes providing the status/availability of a specimen.</t>
+          <t>The technique that is used to perform the process or preserve the specimen.</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8417,7 +8411,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>THO (V2)</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8425,7 +8419,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/subscriber-relationship</t>
+          <t>http://hl7.org/fhir/ValueSet/specimen-status</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -8440,32 +8434,32 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.1385</t>
+          <t>2.16.840.1.113883.4.642.3.471</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>SubscriberRelationshipCodes</t>
+          <t>SpecimenStatus</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>SubscriberPolicyholder Relationship Codes</t>
+          <t>SpecimenStatus</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>This value set includes codes for the relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
+          <t>Codes providing the status/availability of a specimen.</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-coverage</t>
+          <t>StructureDefinition/us-core-specimen</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8473,7 +8467,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/substance-code</t>
+          <t>http://hl7.org/fhir/ValueSet/subscriber-relationship</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -8488,32 +8482,32 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.473</t>
+          <t>2.16.840.1.113883.4.642.3.1385</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>SubstanceCode</t>
+          <t>SubscriberRelationshipCodes</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Substance Code</t>
+          <t>SubscriberPolicyholder Relationship Codes</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>This value set contains concept codes for specific substances. It includes codes from [SNOMED](http://snomed.info/sct) where concept is-a 105590001 (Substance (substance)) and where concept is-a 373873005 (Pharmaceutical / biologic product (product))</t>
+          <t>This value set includes codes for the relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-allergyintolerance</t>
+          <t>StructureDefinition/us-core-coverage</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8521,7 +8515,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/ucum-bodylength</t>
+          <t>http://hl7.org/fhir/ValueSet/substance-code</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -8536,32 +8530,32 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.958</t>
+          <t>2.16.840.1.113883.4.642.3.473</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>BodyLengthUnits</t>
+          <t>SubstanceCode</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Body Length Units</t>
+          <t>Substance Code</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>UCUM units for recording body length measures such as height and head circumference</t>
+          <t>This value set contains concept codes for specific substances. It includes codes from [SNOMED](http://snomed.info/sct) where concept is-a 105590001 (Substance (substance)) and where concept is-a 373873005 (Pharmaceutical / biologic product (product))</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height</t>
+          <t>StructureDefinition/us-core-allergyintolerance</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>UCUM</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8569,7 +8563,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/ucum-bodytemp</t>
+          <t>http://hl7.org/fhir/ValueSet/ucum-bodylength</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -8584,27 +8578,27 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.957</t>
+          <t>2.16.840.1.113883.4.642.3.958</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>BodyTemperatureUnits</t>
+          <t>BodyLengthUnits</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Body Temperature Units</t>
+          <t>Body Length Units</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>UCUM units for recording Body Temperature</t>
+          <t>UCUM units for recording body length measures such as height and head circumference</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-body-temperature</t>
+          <t>StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-body-height</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -8617,7 +8611,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/ucum-bodyweight</t>
+          <t>http://hl7.org/fhir/ValueSet/ucum-bodytemp</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -8632,27 +8626,27 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.956</t>
+          <t>2.16.840.1.113883.4.642.3.957</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>BodyWeightUnits</t>
+          <t>BodyTemperatureUnits</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Body Weight Units</t>
+          <t>Body Temperature Units</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>UCUM units for recording Body Weight</t>
+          <t>UCUM units for recording Body Temperature</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-body-weight</t>
+          <t>StructureDefinition/us-core-body-temperature</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -8665,7 +8659,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/ucum-common</t>
+          <t>http://hl7.org/fhir/ValueSet/ucum-bodyweight</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -8678,21 +8672,29 @@
           <t>draft</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2.16.840.1.113883.4.642.3.956</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Common UCUM units</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr"/>
+          <t>BodyWeightUnits</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Body Weight Units</t>
+        </is>
+      </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Commonly encountered UCUM units (for purposes of helping populate look ups.</t>
+          <t>UCUM units for recording Body Weight</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-body-weight</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -8705,7 +8707,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common</t>
+          <t>http://hl7.org/fhir/ValueSet/ucum-common</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -8718,29 +8720,21 @@
           <t>draft</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.4.642.3.955</t>
-        </is>
-      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>VitalSignsUnits</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Vital Signs Units</t>
-        </is>
-      </c>
+          <t>Common UCUM units</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Common UCUM units for recording Vital Signs</t>
+          <t>Commonly encountered UCUM units (for purposes of helping populate look ups.</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/us-core-bmi,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-heart-rate,StructureDefinition/us-core-head-circumference,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -8753,7 +8747,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ValueSet/udi-entry-type</t>
+          <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -8768,32 +8762,32 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.3.211</t>
+          <t>2.16.840.1.113883.4.642.3.955</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>UDIEntryType</t>
+          <t>VitalSignsUnits</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>UDIEntryType</t>
+          <t>Vital Signs Units</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Codes to identify how UDI data was entered.</t>
+          <t>Common UCUM units for recording Vital Signs</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-implantable-device</t>
+          <t>StructureDefinition/pediatric-bmi-for-age,StructureDefinition/us-core-pulse-oximetry,StructureDefinition/head-occipital-frontal-circumference-percentile,StructureDefinition/us-core-bmi,StructureDefinition/us-core-respiratory-rate,StructureDefinition/us-core-body-temperature,StructureDefinition/us-core-vital-signs,StructureDefinition/us-core-head-circumference,StructureDefinition/us-core-heart-rate,StructureDefinition/pediatric-weight-for-height,StructureDefinition/us-core-body-weight,StructureDefinition/us-core-body-height,StructureDefinition/us-core-blood-pressure</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>UCUM</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8801,43 +8795,47 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-clinical-note-type</t>
+          <t>http://hl7.org/fhir/ValueSet/udi-entry-type</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>4.0.1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.1</t>
+          <t>2.16.840.1.113883.4.642.3.211</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>USCoreClinicalNoteType</t>
+          <t>UDIEntryType</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>US Core Clinical Note Type</t>
+          <t>UDIEntryType</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>The US Core Clinical Note Type Value Set is a 'starter set' of types supported for fetching and storing clinical notes.</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr"/>
+          <t>Codes to identify how UDI data was entered.</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>StructureDefinition/us-core-implantable-device</t>
+        </is>
+      </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8845,12 +8843,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-clinical-result-observation-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-clinical-note-type</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8860,32 +8858,28 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.2</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.1</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>USCoreClinicalResultObservationCategory</t>
+          <t>USCoreClinicalNoteType</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>US Core Clinical Result Observation Category</t>
+          <t>US Core Clinical Note Type</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Used to classify the context of clinical result observations.</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-observation-clinical-result</t>
-        </is>
-      </c>
+          <t>The US Core Clinical Note Type Value Set is a 'starter set' of types supported for fetching and storing clinical notes.</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8893,12 +8887,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-condition-code</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-clinical-result-observation-category</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8908,32 +8902,32 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.16</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.2</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>USCoreConditionCodes</t>
+          <t>USCoreClinicalResultObservationCategory</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>US Core Condition Codes</t>
+          <t>US Core Clinical Result Observation Category</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>This describes the problem. Diagnosis/Problem List is broadly defined as a series of brief statements that catalog a patient's medical, nursing, dental, social, preventative and psychiatric events and issues that are relevant to that patient's healthcare (e.g., signs, symptoms, and defined conditions). ICD-10 is appropriate for Diagnosis information, and ICD-9 for historical information.</t>
+          <t>Used to classify the context of clinical result observations.</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-procedure,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-condition-encounter-diagnosis</t>
+          <t>StructureDefinition/us-core-observation-lab,StructureDefinition/us-core-observation-clinical-result</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>hl7.terminology,SCT,THO</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -8941,12 +8935,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-condition-code-current</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-condition-code</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8956,32 +8950,32 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.3</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.16</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>USCoreConditionCodesCurrent</t>
+          <t>USCoreConditionCodes</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>US Core Condition Codes Current</t>
+          <t>US Core Condition Codes</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>This valueset is defined the same as the [US Core Condition Codes](ValueSet-us-core-condition-code.html) value set except it excludes ICD-9-CM codes. It us used for encoding newly recorded, non-legacy problem list items, health concerns and diagnosis using SNOMED CT and ICD-10-CM per USCDI requirements.</t>
+          <t>This describes the problem. Diagnosis/Problem List is broadly defined as a series of brief statements that catalog a patient's medical, nursing, dental, social, preventative and psychiatric events and issues that are relevant to that patient's healthcare (e.g., signs, symptoms, and defined conditions). ICD-10 is appropriate for Diagnosis information, and ICD-9 for historical information.</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-condition-encounter-diagnosis</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-procedure,StructureDefinition/us-core-servicerequest,StructureDefinition/us-core-condition-encounter-diagnosis</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>hl7.terminology,SCT</t>
+          <t>hl7.terminology,SCT,FHIR</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8989,12 +8983,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-condition-code-current</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9004,32 +8998,32 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.4</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.3</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>USCoreDiagnosticReportCategory</t>
+          <t>USCoreConditionCodesCurrent</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>US Core Diagnostic Report Category Codes</t>
+          <t>US Core Condition Codes Current</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>The US Core Diagnostic Report Category Value Set is a 'starter set' of categories supported for fetching and Diagnostic Reports and notes.</t>
+          <t>This valueset is defined the same as the [US Core Condition Codes](ValueSet-us-core-condition-code.html) value set except it excludes ICD-9-CM codes. It us used for encoding newly recorded, non-legacy problem list items, health concerns and diagnosis using SNOMED CT and ICD-10-CM per USCDI requirements.</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-diagnosticreport-note</t>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-condition-encounter-diagnosis</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>hl7.terminology,SCT</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -9037,12 +9031,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-report-and-note-codes</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-category</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9052,22 +9046,22 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.5</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.4</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>USCoreNonLaboratoryCodes</t>
+          <t>USCoreDiagnosticReportCategory</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>US Core Non Laboratory Codes</t>
+          <t>US Core Diagnostic Report Category Codes</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>This value set includes All LOINC codes defined as type "clinical," therefore excluding laboratory tests, survey instruments, and claims documents. This includes observables such as vital signs, hemodynamics, intake/output, EKG, obstetric ultrasound, and cardiac echo, and includes discrete and narrative diagnostic observations and reports.</t>
+          <t>The US Core Diagnostic Report Category Value Set is a 'starter set' of categories supported for fetching and Diagnostic Reports and notes.</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9085,12 +9079,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-report-and-note-codes</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9100,32 +9094,32 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.6</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.5</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>USCoreDocumentReferenceCategory</t>
+          <t>USCoreNonLaboratoryCodes</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Category</t>
+          <t>US Core Non Laboratory Codes</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>The US Core DocumentReferences Category Value Set is a 'starter set' of categories supported for fetching and storing clinical notes.</t>
+          <t>This value set includes All LOINC codes defined as type "clinical," therefore excluding laboratory tests, survey instruments, and claims documents. This includes observables such as vital signs, hemodynamics, intake/output, EKG, obstetric ultrasound, and cardiac echo, and includes discrete and narrative diagnostic observations and reports.</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-documentreference</t>
+          <t>StructureDefinition/us-core-diagnosticreport-note</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Internal</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -9133,12 +9127,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-type</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-category</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9148,22 +9142,22 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.7</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.6</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>USCoreDocumentReferenceType</t>
+          <t>USCoreDocumentReferenceCategory</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Type</t>
+          <t>US Core DocumentReference Category</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>The US Core DocumentReference Type Value Set includes all LOINC values whose SCALE is "Doc" in the LOINC database and the HL7 v3 Code System NullFlavor concept 'unknown'</t>
+          <t>The US Core DocumentReferences Category Value Set is a 'starter set' of categories supported for fetching and storing clinical notes.</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9173,7 +9167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>THO (V3),LOINC</t>
+          <t>Internal</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -9181,12 +9175,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-goal-description</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-type</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9196,32 +9190,32 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.17</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.7</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>USCoreGoalCodes</t>
+          <t>USCoreDocumentReferenceType</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>US Core Goal Codes</t>
+          <t>US Core DocumentReference Type</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Concepts from SNOMED CT  and LOINC code systems that can be used to indicate the goal.</t>
+          <t>The US Core DocumentReference Type Value Set includes all LOINC values whose SCALE is "Doc" in the LOINC database and the HL7 v3 Code System NullFlavor concept 'unknown'</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-goal</t>
+          <t>StructureDefinition/us-core-documentreference</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>SCT,LOINC</t>
+          <t>THO (V3),LOINC</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -9229,12 +9223,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-laboratory-test-codes</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-goal-description</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9244,32 +9238,32 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.18</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.17</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>USCoreLaboratoryTestCodes</t>
+          <t>USCoreGoalCodes</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>US Core Laboratory Test Codes</t>
+          <t>US Core Goal Codes</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Laboratory LOINC codes: From the introduction to August 2022 LOINC Users' guide; "The current scope of the existing laboratory portion of the LOINC  database includes all observations reported by clinical laboratories, including the specialty areas: chemistry, including therapeutic drug monitoring and toxicology; hematology; serology; blood bank; microbiology; cytology; surgical pathology; and fertility.</t>
+          <t>Concepts from SNOMED CT  and LOINC code systems that can be used to indicate the goal.</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-observation-lab</t>
+          <t>StructureDefinition/us-core-goal</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>SCT,LOINC</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -9277,12 +9271,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-narrative-status</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-laboratory-test-codes</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9292,32 +9286,32 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.8</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.18</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>NarrativeStatus</t>
+          <t>USCoreLaboratoryTestCodes</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>US Core Narrative Status</t>
+          <t>US Core Laboratory Test Codes</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>The US Core Narrative Status Value Set limits the text status for the resource narrative.</t>
+          <t>Laboratory LOINC codes: From the introduction to August 2022 LOINC Users' guide; "The current scope of the existing laboratory portion of the LOINC  database includes all observations reported by clinical laboratories, including the specialty areas: chemistry, including therapeutic drug monitoring and toxicology; hematology; serology; blood bank; microbiology; cytology; surgical pathology; and fertility.</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-careplan</t>
+          <t>StructureDefinition/us-core-diagnosticreport-lab,StructureDefinition/us-core-observation-lab</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>hl7.fhir.r4.core</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9325,12 +9319,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-observation-smoking-status-status</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-narrative-status</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9340,27 +9334,27 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.9</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.8</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>USCoreObservationSmokingStatusStatus</t>
+          <t>NarrativeStatus</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>US Core Status for Smoking Status Observation</t>
+          <t>US Core Narrative Status</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Codes providing the status of an observation for smoking status. Constrained to `final`and `entered-in-error`.</t>
+          <t>The US Core Narrative Status Value Set limits the text status for the resource narrative.</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-smokingstatus</t>
+          <t>StructureDefinition/us-core-careplan</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -9373,12 +9367,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-problem-or-health-concern</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-observation-smoking-status-status</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9388,32 +9382,32 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.19</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.9</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>USCoreProblemOrHealthConcern</t>
+          <t>USCoreObservationSmokingStatusStatus</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>US Core Problem or Health Concern</t>
+          <t>US Core Status for Smoking Status Observation</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Code set for category codes for *US Core Condition Problems and Health Concerns Profile* consisting of the concepts "problem" and "health-concern".</t>
+          <t>Codes providing the status of an observation for smoking status. Constrained to `final`and `entered-in-error`.</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-condition-problems-health-concerns</t>
+          <t>StructureDefinition/us-core-smokingstatus</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Internal,THO</t>
+          <t>hl7.fhir.r4.core</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9421,12 +9415,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-procedure-code</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-problem-or-health-concern</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9436,32 +9430,32 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.20</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.19</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>USCoreProcedureCodes</t>
+          <t>USCoreProblemOrHealthConcern</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>US Core Procedure Codes</t>
+          <t>US Core Problem or Health Concern</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Concepts from CPT, SNOMED CT, HCPCS Level II Alphanumeric Codes, ICD-10-PCS,CDT and LOINC code systems that can be used to indicate the type of procedure performed.</t>
+          <t>Code set for category codes for *US Core Condition Problems and Health Concerns Profile* consisting of the concepts "problem" and "health-concern".</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-procedure,StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>hl7.terminology,SCT,LOINC,Other</t>
+          <t>Internal,THO</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -9469,12 +9463,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-provenance-participant-type</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-procedure-code</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9484,32 +9478,32 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.10</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.20</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>USCoreProvenancePaticipantTypeCodes</t>
+          <t>USCoreProcedureCodes</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>US Core Provenance Participant Type Codes</t>
+          <t>US Core Procedure Codes</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>The type of participation a provenance agent played for a given target.</t>
+          <t>Concepts from CPT, SNOMED CT, HCPCS Level II Alphanumeric Codes, ICD-10-PCS,CDT and LOINC code systems that can be used to indicate the type of procedure performed.</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-provenance</t>
+          <t>StructureDefinition/us-core-procedure,StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Internal,THO</t>
+          <t>hl7.terminology,SCT,LOINC,Other</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9517,12 +9511,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-condition-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-provenance-participant-type</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9532,28 +9526,32 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.11</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.10</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>USCoreScreeningAssessmentConditionCategory</t>
+          <t>USCoreProvenancePaticipantTypeCodes</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>US Core Screening Assessment Condition Category</t>
+          <t>US Core Provenance Participant Type Codes</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>This value set consists of the single code "sdoh". It is the minimum value set of category codes used in the US Core Condition Problems and Health Concerns Profile that any conformant system **SHALL** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr"/>
+          <t>The type of participation a provenance agent played for a given target.</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>StructureDefinition/us-core-provenance</t>
+        </is>
+      </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Internal</t>
+          <t>Internal,THO</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9561,12 +9559,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-condition-category</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9576,32 +9574,28 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.12</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.11</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>USCoreScreeningAssessmentObservationCategory</t>
+          <t>USCoreScreeningAssessmentConditionCategory</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>US Core Screening Assessment Observation Category</t>
+          <t>US Core Screening Assessment Condition Category</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>This value set is the minimum value set of category codes used in the US Core Observation Screening Assessment and Simple Observation Profiles that any conformant system **SHALL** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-observation-screening-assessment</t>
-        </is>
-      </c>
+          <t>This value set consists of the single code "sdoh". It is the minimum value set of category codes used in the US Core Condition Problems and Health Concerns Profile that any conformant system **SHALL** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Internal,THO</t>
+          <t>Internal</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -9609,12 +9603,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-maximum-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-category</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9624,27 +9618,27 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.13</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.12</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>USCoreScreeningAssessmentObservationMaximumCategory</t>
+          <t>USCoreScreeningAssessmentObservationCategory</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>US Core Screening Assessment Observation Maximum Category</t>
+          <t>US Core Screening Assessment Observation Category</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>This value set is a value set of category codes used in the US Core Observation Screening Assessment that any conformant system **SHOULD** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
+          <t>This value set is the minimum value set of category codes used in the US Core Observation Screening Assessment and Simple Observation Profiles that any conformant system **SHALL** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-observation-screening-assessment</t>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-observation-screening-assessment</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -9657,12 +9651,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-servicerequest-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-maximum-category</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9672,32 +9666,32 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.21</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.13</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>USCoreServiceRequestCategoryCodes</t>
+          <t>USCoreScreeningAssessmentObservationMaximumCategory</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Category Codes</t>
+          <t>US Core Screening Assessment Observation Maximum Category</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>A set of SNOMED CT and LOINC concepts to classify a requested service</t>
+          <t>This value set is a value set of category codes used in the US Core Observation Screening Assessment that any conformant system **SHOULD** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-observation-screening-assessment</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>SCT,Internal</t>
+          <t>Internal,THO</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
@@ -9705,12 +9699,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-servicerequest-category</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9720,32 +9714,32 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.14</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.21</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>USCoreSimpleObservationCategory</t>
+          <t>USCoreServiceRequestCategoryCodes</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Category</t>
+          <t>US Core ServiceRequest Category Codes</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>This value set is a value set of category codes used in the US Core Simple Observation and Condition Problems and Health Concerns Profiles that any conformant system **SHOULD** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
+          <t>A set of SNOMED CT and LOINC concepts to classify a requested service</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-simple-observation</t>
+          <t>StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Internal,THO</t>
+          <t>SCT,Internal</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
@@ -9753,12 +9747,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-specimen-condition</t>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9768,78 +9762,84 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.4.642.40.2.48.15</t>
+          <t>2.16.840.1.113883.4.642.40.2.48.14</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>USCoreSpecimenCondition</t>
+          <t>USCoreSimpleObservationCategory</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>US Core Specimen Condition</t>
+          <t>US Core Simple Observation Category</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>This value set contains concepts the provide information regarding a specimen, including the container, that does not meet a laboratory’s criteria for acceptability.</t>
+          <t>This value set is a value set of category codes used in the US Core Simple Observation and Condition Problems and Health Concerns Profiles that any conformant system **SHOULD** support to help identify the type of USCDI Health Status/Assessment data class being reported.</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-specimen</t>
-        </is>
-      </c>
-      <c r="I200" t="inlineStr"/>
+          <t>StructureDefinition/us-core-condition-problems-health-concerns,StructureDefinition/us-core-care-experience-preference,StructureDefinition/us-core-treatment-intervention-preference,StructureDefinition/us-core-observation-adi-documentation,StructureDefinition/us-core-simple-observation</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Internal,THO</t>
+        </is>
+      </c>
       <c r="J200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7900</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>1</v>
+          <t>http://hl7.org/fhir/us/core/ValueSet/us-core-specimen-condition</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>8.0.1</t>
+        </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2.16.840.1.113883.4.642.40.2.48.15</t>
+        </is>
+      </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>PHVS_Industry_NAICS_Detail _ODH</t>
+          <t>USCoreSpecimenCondition</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Industry NAICS Detail (ODH)</t>
+          <t>US Core Specimen Condition</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>The Industry NAICS Detail (ODH) value set is to be used to capture self-reported industry within electronic health information systems to support direct patient care, population health and public health activities.  Industry is described as the economic or business sector of a business or enterprise.  For more information, a mapping to 2012 Census Industry Codes, and tips on using this value set go to the Occupational Data for Health (ODH) Hot Topics section on the PHIN VADS home page.</t>
+          <t>This value set contains concepts the provide information regarding a specimen, including the container, that does not meet a laboratory’s criteria for acceptability.</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-observation-occupation</t>
-        </is>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>THO</t>
-        </is>
-      </c>
+          <t>StructureDefinition/us-core-specimen</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7901</t>
+          <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7900</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -9853,17 +9853,17 @@
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>PHVS_Occupation_ONETSOC_Detail_ODH</t>
+          <t>PHVS_Industry_NAICS_Detail _ODH</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Occupation ONETSOC Detail (ODH)</t>
+          <t>Industry NAICS Detail (ODH)</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>The Occupation ONETSOC Detail (ODH) value set is to be used to capture self-reported occupation within electronic health information systems to support direct patient care, population health and public health activities.  Occupation is the type of work done by the subject.  It is based on the 2010 O*Net-SOC Classification System.  For more information, a mapping to 2010 Census Codes, and tips on using this value set go to the Occupational Data for Health (ODH) Hot Topics section on the PHIN VADS home page.</t>
+          <t>The Industry NAICS Detail (ODH) value set is to be used to capture self-reported industry within electronic health information systems to support direct patient care, population health and public health activities.  Industry is described as the economic or business sector of a business or enterprise.  For more information, a mapping to 2012 Census Industry Codes, and tips on using this value set go to the Occupational Data for Health (ODH) Hot Topics section on the PHIN VADS home page.</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -9881,13 +9881,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/CMSPlaceOfServiceCodes</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>1.0.0</t>
-        </is>
+          <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7901</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -9897,27 +9895,27 @@
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>CMSPlaceOfServiceCodes</t>
+          <t>PHVS_Occupation_ONETSOC_Detail_ODH</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>CMS Place of Service Codes (POS)</t>
+          <t>Occupation ONETSOC Detail (ODH)</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>This is the all codes value set for the CMS POS code system.</t>
+          <t>The Occupation ONETSOC Detail (ODH) value set is to be used to capture self-reported occupation within electronic health information systems to support direct patient care, population health and public health activities.  Occupation is the type of work done by the subject.  It is based on the 2010 O*Net-SOC Classification System.  For more information, a mapping to 2010 Census Codes, and tips on using this value set go to the Occupational Data for Health (ODH) Hot Topics section on the PHIN VADS home page.</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-location</t>
+          <t>StructureDefinition/us-core-observation-occupation</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>hl7.terminology.r4</t>
+          <t>THO</t>
         </is>
       </c>
       <c r="J203" t="inlineStr"/>
@@ -9925,7 +9923,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/Languages</t>
+          <t>http://terminology.hl7.org/ValueSet/CMSPlaceOfServiceCodes</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -9941,27 +9939,27 @@
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Languages</t>
+          <t>CMSPlaceOfServiceCodes</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Languages</t>
+          <t>CMS Place of Service Codes (POS)</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>This value set defines a set of codes for the representation of the names of languages. It uses the list of ISO 639-2 concepts using the ISO 639-1 2-digit code for a concept where possible and the 3-digit terminological code where there is no  2-digit code.</t>
+          <t>This is the all codes value set for the CMS POS code system.</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-patient</t>
+          <t>StructureDefinition/us-core-location</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>hl7.terminology</t>
+          <t>hl7.terminology.r4</t>
         </is>
       </c>
       <c r="J204" t="inlineStr"/>
@@ -9969,7 +9967,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/USPS-State</t>
+          <t>http://terminology.hl7.org/ValueSet/Languages</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -9985,27 +9983,27 @@
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>UspsTwoLetterAlphabeticCodes</t>
+          <t>Languages</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>USPS Two Letter Alphabetic Codes</t>
+          <t>Languages</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>This value set defines two letter USPS alphabetic codes.</t>
+          <t>This value set defines a set of codes for the representation of the names of languages. It uses the list of ISO 639-2 concepts using the ISO 639-1 2-digit code for a concept where possible and the 3-digit terminological code where there is no  2-digit code.</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-location,StructureDefinition/us-core-organization,StructureDefinition/us-core-jurisdiction</t>
+          <t>StructureDefinition/us-core-patient</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>hl7.terminology.r4</t>
+          <t>hl7.terminology</t>
         </is>
       </c>
       <c r="J205" t="inlineStr"/>
@@ -10013,12 +10011,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
+          <t>http://terminology.hl7.org/ValueSet/USPS-State</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2.0.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10026,34 +10024,30 @@
           <t>active</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.21.40</t>
-        </is>
-      </c>
+      <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Hl7VSReAdmissionIndicator</t>
+          <t>UspsTwoLetterAlphabeticCodes</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>hl7VS-re-admissionIndicator</t>
+          <t>USPS Two Letter Alphabetic Codes</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Value Set of codes which are used to specify that a patient is being re-admitted to a healthcare facility from which they were discharged, and indicates the circumstances around such re-admission.</t>
+          <t>This value set defines two letter USPS alphabetic codes.</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>StructureDefinition/us-core-practitioner,StructureDefinition/us-core-patient,StructureDefinition/us-core-location,StructureDefinition/us-core-organization,StructureDefinition/us-core-jurisdiction</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>THO (V2)</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="J206" t="inlineStr"/>
@@ -10061,7 +10055,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
+          <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -10076,27 +10070,27 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.21.51</t>
+          <t>2.16.840.1.113883.21.40</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Hl7VSBedStatus</t>
+          <t>Hl7VSReAdmissionIndicator</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>hl7VS-bedStatus</t>
+          <t>hl7VS-re-admissionIndicator</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Value Set of codes that specify the state of a bed in an inpatient setting, and is used to determine if a patient may be assigned to it or not.</t>
+          <t>Value Set of codes which are used to specify that a patient is being re-admitted to a healthcare facility from which they were discharged, and indicates the circumstances around such re-admission.</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-location</t>
+          <t>StructureDefinition/us-core-encounter</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -10109,7 +10103,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-0371</t>
+          <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -10124,27 +10118,27 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.21.245</t>
+          <t>2.16.840.1.113883.21.51</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Hl7VSAdditivePreservative</t>
+          <t>Hl7VSBedStatus</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>hl7VS-additivePreservative</t>
+          <t>hl7VS-bedStatus</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Concepts specifying any additive introduced to the specimen before or at the time of collection.  These additives may be introduced in order to preserve, maintain or enhance the particular nature or component of the specimen.  Used in Version 2 messaging in the SPM segment.</t>
+          <t>Value Set of codes that specify the state of a bed in an inpatient setting, and is used to determine if a patient may be assigned to it or not.</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-specimen</t>
+          <t>StructureDefinition/us-core-location</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -10157,7 +10151,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-0493</t>
+          <t>http://terminology.hl7.org/ValueSet/v2-0371</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -10172,27 +10166,27 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.21.333</t>
+          <t>2.16.840.1.113883.21.245</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Hl7VSSpecimenCondition</t>
+          <t>Hl7VSAdditivePreservative</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>hl7VS-specimenCondition</t>
+          <t>hl7VS-additivePreservative</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Concepts of modes or states of being that describe the nature of a specimen.  Used in Version 2 messaging in the SPM segment.</t>
+          <t>Concepts specifying any additive introduced to the specimen before or at the time of collection.  These additives may be introduced in order to preserve, maintain or enhance the particular nature or component of the specimen.  Used in Version 2 messaging in the SPM segment.</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>ValueSet/us-core-specimen-condition</t>
+          <t>StructureDefinition/us-core-specimen</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -10205,7 +10199,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-0916</t>
+          <t>http://terminology.hl7.org/ValueSet/v2-0493</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -10220,27 +10214,27 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.21.440</t>
+          <t>2.16.840.1.113883.21.333</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Hl7VSRelevantClincialInformation</t>
+          <t>Hl7VSSpecimenCondition</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>hl7VS-relevantClincialInformation</t>
+          <t>hl7VS-specimenCondition</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Value Set of codes that specify additional clinical information about the patient or specimen to report the supporting and/or suspected diagnosis and clinical findings on requests for interpreted diagnostic studies.</t>
+          <t>Concepts of modes or states of being that describe the nature of a specimen.  Used in Version 2 messaging in the SPM segment.</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-specimen</t>
+          <t>ValueSet/us-core-specimen-condition</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -10253,12 +10247,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
+          <t>http://terminology.hl7.org/ValueSet/v2-0916</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>0360</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10266,47 +10260,47 @@
           <t>active</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2.16.840.1.113883.21.440</t>
+        </is>
+      </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>v2.0360.2.7</t>
+          <t>Hl7VSRelevantClincialInformation</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>v2 table 0360</t>
+          <t>hl7VS-relevantClincialInformation</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Version 2.7</t>
+          <t>Value Set of codes that specify additional clinical information about the patient or specimen to report the supporting and/or suspected diagnosis and clinical findings on requests for interpreted diagnostic studies.</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>FHIR Value set/code system definition for HL7 v2 table 0360 ver 2.9 ( Degree/License/Certificate)</t>
+          <t>StructureDefinition/us-core-specimen</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-practitioner</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
           <t>THO (V2)</t>
         </is>
       </c>
+      <c r="J211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
+          <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>3.0.0</t>
+          <t>0360</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10317,35 +10311,39 @@
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ActCode</t>
+          <t>v2.0360.2.7</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>v3 Code System ActCode</t>
+          <t>v2 table 0360</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>A code specifying the particular kind of Act that the Act-instance represents within its class.  Constraints:  The kind of Act (e.g. physical examination, serum potassium, inpatient encounter, charge financial transaction, etc.) is specified with a code from one of several, typically external, coding systems.  The coding system will depend on the class of Act, such as LOINC for observations, etc. Conceptually, the Act.code must be a specialization of the Act.classCode. This is why the structure of ActClass domain should be reflected in the superstructure of the ActCode domain and then individual codes or externally referenced vocabularies subordinated under these domains that reflect the ActClass structure. Act.classCode and Act.code are not modifiers of each other but the Act.code concept should really imply the Act.classCode concept. For a negative example, it is not appropriate to use an Act.code "potassium" together with and Act.classCode for "laboratory observation" to somehow mean "potassium laboratory observation" and then use the same Act.code for "potassium" together with Act.classCode for "medication" to mean "substitution of potassium". This mutually modifying use of Act.code and Act.classCode is not permitted.</t>
+          <t xml:space="preserve"> Version 2.7</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
+          <t>FHIR Value set/code system definition for HL7 v2 table 0360 ver 2.9 ( Degree/License/Certificate)</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>THO (V3)</t>
-        </is>
-      </c>
-      <c r="J212" t="inlineStr"/>
+          <t>StructureDefinition/us-core-practitioner</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>THO (V2)</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -10358,29 +10356,25 @@
           <t>active</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>2.16.840.1.113883.1.11.13955</t>
-        </is>
-      </c>
+      <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ActEncounterCode</t>
+          <t>ActCode</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>ActEncounterCode</t>
+          <t>v3 Code System ActCode</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Domain provides codes that qualify the ActEncounterClass (ENC)</t>
+          <t>A code specifying the particular kind of Act that the Act-instance represents within its class.  Constraints:  The kind of Act (e.g. physical examination, serum potassium, inpatient encounter, charge financial transaction, etc.) is specified with a code from one of several, typically external, coding systems.  The coding system will depend on the class of Act, such as LOINC for observations, etc. Conceptually, the Act.code must be a specialization of the Act.classCode. This is why the structure of ActClass domain should be reflected in the superstructure of the ActCode domain and then individual codes or externally referenced vocabularies subordinated under these domains that reflect the ActClass structure. Act.classCode and Act.code are not modifiers of each other but the Act.code concept should really imply the Act.classCode concept. For a negative example, it is not appropriate to use an Act.code "potassium" together with and Act.classCode for "laboratory observation" to somehow mean "potassium laboratory observation" and then use the same Act.code for "potassium" together with Act.classCode for "medication" to mean "substitution of potassium". This mutually modifying use of Act.code and Act.classCode is not permitted.</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -10393,7 +10387,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ActPharmacySupplyType</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -10408,27 +10402,27 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.16208</t>
+          <t>2.16.840.1.113883.1.11.13955</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>ActPharmacySupplyType</t>
+          <t>ActEncounterCode</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>ActPharmacySupplyType</t>
+          <t>ActEncounterCode</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Identifies types of dispensing events</t>
+          <t>Domain provides codes that qualify the ActEncounterClass (ENC)</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-encounter</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -10441,7 +10435,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ActPharmacySupplyType</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -10456,27 +10450,27 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.16866</t>
+          <t>2.16.840.1.113883.1.11.16208</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>ActPriority</t>
+          <t>ActPharmacySupplyType</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>ActPriority</t>
+          <t>ActPharmacySupplyType</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>A code or set of codes (e.g., for routine, emergency,) specifying the urgency under which the Act happened, can happen, is happening, is intended to happen, or is requested/demanded to happen.    *Discussion:* This attribute is used in orders to indicate the ordered priority, and in event documentation it indicates the actual priority used to perform the act. In definition mood it indicates the available priorities.</t>
+          <t>Identifies types of dispensing events</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -10489,7 +10483,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -10504,27 +10498,27 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.16621</t>
+          <t>2.16.840.1.113883.1.11.16866</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>ActSubstanceAdminSubstitutionCode</t>
+          <t>ActPriority</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>ActSubstanceAdminSubstitutionCode</t>
+          <t>ActPriority</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>***No description***</t>
+          <t>A code or set of codes (e.g., for routine, emergency,) specifying the urgency under which the Act happened, can happen, is happening, is intended to happen, or is requested/demanded to happen.    *Discussion:* This attribute is used in orders to indicate the ordered priority, and in event documentation it indicates the actual priority used to perform the act. In definition mood it indicates the available priorities.</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-encounter</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -10537,12 +10531,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-HL7FormatCodes</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2.1.0</t>
+          <t>3.0.0</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10552,32 +10546,32 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.11.19752</t>
+          <t>2.16.840.1.113883.1.11.16621</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>HL7FormatCodes</t>
+          <t>ActSubstanceAdminSubstitutionCode</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>HL7 ValueSet of Format Codes for use with Document Sharing</t>
+          <t>ActSubstanceAdminSubstitutionCode</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>The HL7-FormatCodes value set is defined to be the set of FormatCode(s) defined by implementation guides published by HL7 and other SDOs. The use of a formatCode from the FormatCodes value set specifies the technical format that a document conforms to. The formatCode is a further specialization more detailed than the mime-type. The formatCode provides sufficient information to allow any potential document content consumer to know if it can process and/or display the content of the document based on the document encoding, structure and template conformance indicated by the formatCode. The set of formatCodes is intended to be extensible. The Content Logical Description is defined intentionally to permit formatCodes defined by other Standards Development Organizations to be added by inclusion of additional formatCode Code Systems.</t>
+          <t>***No description***</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>THO (V3),Other</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J217" t="inlineStr"/>
@@ -10585,12 +10579,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-HL7FormatCodes</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>3.1.0</t>
+          <t>2.1.0</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10600,32 +10594,32 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.20448</t>
+          <t>2.16.840.1.113883.11.19752</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>PurposeOfUse</t>
+          <t>HL7FormatCodes</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>PurposeOfUse</t>
+          <t>HL7 ValueSet of Format Codes for use with Document Sharing</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Supports communication of purpose of use at a general level.</t>
+          <t>The HL7-FormatCodes value set is defined to be the set of FormatCode(s) defined by implementation guides published by HL7 and other SDOs. The use of a formatCode from the FormatCodes value set specifies the technical format that a document conforms to. The formatCode is a further specialization more detailed than the mime-type. The formatCode provides sufficient information to allow any potential document content consumer to know if it can process and/or display the content of the document based on the document encoding, structure and template conformance indicated by the formatCode. The set of formatCodes is intended to be extensible. The Content Logical Description is defined intentionally to permit formatCodes defined by other Standards Development Organizations to be added by inclusion of additional formatCode Code Systems.</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-provenance</t>
+          <t>StructureDefinition/us-core-adi-documentreference,StructureDefinition/us-core-documentreference</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>THO (V3)</t>
+          <t>THO (V3),Other</t>
         </is>
       </c>
       <c r="J218" t="inlineStr"/>
@@ -10633,12 +10627,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>3.0.0</t>
+          <t>3.1.0</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10648,27 +10642,27 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.17660</t>
+          <t>2.16.840.1.113883.1.11.20448</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>ServiceDeliveryLocationRoleType</t>
+          <t>PurposeOfUse</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>ServiceDeliveryLocationRoleType</t>
+          <t>PurposeOfUse</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>A role of a place that further classifies the setting (e.g., accident site, road side, work site, community location) in which services are delivered.</t>
+          <t>Supports communication of purpose of use at a general level.</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-location,StructureDefinition/us-core-servicerequest</t>
+          <t>StructureDefinition/us-core-provenance</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -10681,7 +10675,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -10696,27 +10690,27 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.19377</t>
+          <t>2.16.840.1.113883.1.11.17660</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>SubstanceAdminSubstitutionReason</t>
+          <t>ServiceDeliveryLocationRoleType</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>SubstanceAdminSubstitutionReason</t>
+          <t>ServiceDeliveryLocationRoleType</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>***No description***</t>
+          <t>A role of a place that further classifies the setting (e.g., accident site, road side, work site, community location) in which services are delivered.</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
+          <t>StructureDefinition/us-core-location,StructureDefinition/us-core-servicerequest</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -10729,12 +10723,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-TribalEntityUS</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>4.0.0</t>
+          <t>3.0.0</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10744,27 +10738,27 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.11631</t>
+          <t>2.16.840.1.113883.1.11.19377</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TribalEntityUS</t>
+          <t>SubstanceAdminSubstitutionReason</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>TribalEntityUS</t>
+          <t>SubstanceAdminSubstitutionReason</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>INDIAN ENTITIES RECOGNIZED AND ELIGIBLE TO RECEIVE SERVICES FROM THE UNITED STATES BUREAU OF INDIAN AFFAIRS</t>
+          <t>***No description***</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-tribal-affiliation</t>
+          <t>StructureDefinition/us-core-medicationrequest,StructureDefinition/us-core-medicationdispense</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -10777,12 +10771,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/ValueSet/v3-USEncounterDischargeDisposition</t>
+          <t>http://terminology.hl7.org/ValueSet/v3-TribalEntityUS</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>3.0.0</t>
+          <t>4.0.0</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10792,32 +10786,32 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2.16.840.1.113883.1.11.19453</t>
+          <t>2.16.840.1.113883.1.11.11631</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>USEncounterDischargeDisposition</t>
+          <t>TribalEntityUS</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>USEncounterDischargeDisposition</t>
+          <t>TribalEntityUS</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>***No description***</t>
+          <t>INDIAN ENTITIES RECOGNIZED AND ELIGIBLE TO RECEIVE SERVICES FROM THE UNITED STATES BUREAU OF INDIAN AFFAIRS</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>StructureDefinition/us-core-encounter</t>
+          <t>StructureDefinition/us-core-tribal-affiliation</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>THO</t>
+          <t>THO (V3)</t>
         </is>
       </c>
       <c r="J222" t="inlineStr"/>
@@ -10825,52 +10819,100 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
+          <t>http://terminology.hl7.org/ValueSet/v3-USEncounterDischargeDisposition</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>5.0.0</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2.16.840.1.113883.1.11.19453</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>USEncounterDischargeDisposition</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>USEncounterDischargeDisposition</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>These codes cannot be displayed because of AHA's NUBC Patient Discharge Status Codes Intellectual Property (IP) restrictions. To access these codes, see the [National Uniform Billing Committee](http://www.nubc.org/), manual UB-04, UB form locator 17.</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>StructureDefinition/us-core-encounter</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>hl7.terminology</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
           <t>http://terminology.hl7.org/ValueSet/v3-UnitsOfMeasureCaseSensitive</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>3.0.0</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
+      <c r="D224" t="inlineStr">
         <is>
           <t>2.16.840.1.113883.1.11.12839</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>UnitsOfMeasureCaseSensitive</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>UnitsOfMeasureCaseSensitive</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>**Description:** All units of measure.</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
+      <c r="H224" t="inlineStr">
         <is>
           <t>StructureDefinition/us-core-smokingstatus</t>
         </is>
       </c>
-      <c r="I223" t="inlineStr">
+      <c r="I224" t="inlineStr">
         <is>
           <t>UCUM</t>
         </is>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>